--- a/Resultados/CEN01.xlsx
+++ b/Resultados/CEN01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USP\Trabalho de Conclusão\PlanjemantoEstocasticoDeRotas\PlanejamentoEstocasticoDeRotas\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024BBE63-0EA5-46FB-B7CB-D604B49D3178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB41217-F3DF-4976-A7B2-349C63983CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descrição do cenário" sheetId="1" r:id="rId1"/>
@@ -26,20 +26,7 @@
     <sheet name="FF_port" sheetId="11" r:id="rId11"/>
     <sheet name="FE_port" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -158,6 +145,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -216,6 +206,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15172,16 +15164,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -15199,13 +15191,13 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>101752396.5386022</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>25229356.231696978</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>76523040.30690518</v>
       </c>
     </row>
@@ -15213,13 +15205,13 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>100765968.8959097</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>25442265.96337055</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>75323702.93253912</v>
       </c>
     </row>
@@ -15227,13 +15219,13 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>105539894.58045159</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>27018980.472940151</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>78520914.107511461</v>
       </c>
     </row>
@@ -15241,13 +15233,13 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>106176257.1201591</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>27295527.087237518</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>78880730.032921612</v>
       </c>
     </row>
@@ -15255,13 +15247,13 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>105083981.9192473</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>27287695.800211221</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>77796286.119036093</v>
       </c>
     </row>
@@ -15269,13 +15261,13 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>103877070.49526881</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>26614695.73518423</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>77262374.760084584</v>
       </c>
     </row>
@@ -15283,13 +15275,13 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>104322184.61634409</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>25650817.59615913</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>78671367.020184949</v>
       </c>
     </row>
@@ -15297,13 +15289,13 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>105045188.6829032</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>27333121.538017798</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>77712067.144885421</v>
       </c>
     </row>
@@ -15311,13 +15303,13 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>99907059.370967746</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>24324591.44806568</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>75582467.922902063</v>
       </c>
     </row>
@@ -15325,13 +15317,13 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>101198199.37911829</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>24393612.049698979</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>76804587.3294193</v>
       </c>
     </row>
@@ -15339,13 +15331,13 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>103993423.11311831</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>25705260.767813619</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>78288162.345304668</v>
       </c>
     </row>
@@ -15353,13 +15345,13 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>103717488.89059789</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>25928759.103797689</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>77788729.786800161</v>
       </c>
     </row>
@@ -15375,7 +15367,7 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>200000000</v>
       </c>
     </row>
@@ -15383,7 +15375,7 @@
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>0.3772514430592433</v>
       </c>
     </row>
@@ -15391,7 +15383,7 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>1.6391277313232419E-7</v>
       </c>
     </row>
@@ -15404,7 +15396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P801"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -69791,7 +69785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Resultados/CEN01.xlsx
+++ b/Resultados/CEN01.xlsx
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>53.44086021505336</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -658,40 +658,40 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>641.1999999999999</v>
+        <v>690.6481681342811</v>
       </c>
       <c r="D4">
-        <v>536.1999999999999</v>
+        <v>546.8931899641584</v>
       </c>
       <c r="E4">
-        <v>692.2</v>
+        <v>679.0258064516129</v>
       </c>
       <c r="F4">
-        <v>1128.8</v>
+        <v>610.1397849462371</v>
       </c>
       <c r="G4">
-        <v>1733</v>
+        <v>545.9075268817207</v>
       </c>
       <c r="H4">
-        <v>1363.95658917203</v>
+        <v>765.8597849954022</v>
       </c>
       <c r="I4">
-        <v>766.2434108279701</v>
+        <v>379.5249461873933</v>
       </c>
       <c r="J4">
-        <v>900</v>
+        <v>787.2177956989121</v>
       </c>
       <c r="K4">
-        <v>814.4000000000001</v>
+        <v>719.8000000000002</v>
       </c>
       <c r="L4">
-        <v>393</v>
+        <v>516.4576881720568</v>
       </c>
       <c r="M4">
         <v>581</v>
       </c>
       <c r="N4">
-        <v>672</v>
+        <v>591.0629429768296</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -914,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>14.00000000000014</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>76.79569892473046</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.999999999999986</v>
+        <v>23.20430107526954</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1084,40 +1084,40 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>806.9408602150509</v>
+        <v>545.2400937135872</v>
       </c>
       <c r="D14">
-        <v>1045.420564516129</v>
+        <v>865.8690760505629</v>
       </c>
       <c r="E14">
-        <v>820.0076164874549</v>
+        <v>752.6604129032266</v>
       </c>
       <c r="F14">
-        <v>671.2378350074481</v>
+        <v>407.3049777777787</v>
       </c>
       <c r="G14">
-        <v>1297.015059257784</v>
+        <v>685.8832178415009</v>
       </c>
       <c r="H14">
-        <v>870.3000000000002</v>
+        <v>584.4574202398334</v>
       </c>
       <c r="I14">
-        <v>645.6720430107525</v>
+        <v>510.1713977511296</v>
       </c>
       <c r="J14">
-        <v>808.1402580645145</v>
+        <v>523.4254002498744</v>
       </c>
       <c r="K14">
-        <v>827.4451182795688</v>
+        <v>777.5009277169532</v>
       </c>
       <c r="L14">
-        <v>578.5591397849462</v>
+        <v>489.0628136200662</v>
       </c>
       <c r="M14">
-        <v>620.6053763440843</v>
+        <v>853.1865690959758</v>
       </c>
       <c r="N14">
-        <v>1061.301290322583</v>
+        <v>594.1570478782251</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1132,19 +1132,19 @@
         <v>124.8</v>
       </c>
       <c r="E15">
-        <v>78.19999999999999</v>
+        <v>139.4278494623638</v>
       </c>
       <c r="F15">
-        <v>29.08888888888889</v>
+        <v>154.6</v>
       </c>
       <c r="G15">
-        <v>197.6911111111111</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>102.4</v>
       </c>
       <c r="I15">
-        <v>309.4</v>
+        <v>203.2</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>288.9791397849467</v>
+        <v>311.1721505376361</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1210,40 +1210,40 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>5.995698924730458</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>36.2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.6</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.796129032257411</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.20387096774258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2224,16 +2224,16 @@
         <v>28</v>
       </c>
       <c r="E18">
-        <v>604</v>
+        <v>750.1021505376348</v>
       </c>
       <c r="F18">
-        <v>895.1288082437272</v>
+        <v>816.5</v>
       </c>
       <c r="G18">
-        <v>861.8978494623652</v>
+        <v>904</v>
       </c>
       <c r="H18">
-        <v>984.5243100358421</v>
+        <v>842</v>
       </c>
       <c r="I18">
         <v>581</v>
@@ -2245,7 +2245,7 @@
         <v>788</v>
       </c>
       <c r="L18">
-        <v>926.6318279569909</v>
+        <v>847</v>
       </c>
       <c r="M18">
         <v>451</v>
@@ -2257,7 +2257,7 @@
         <v>722</v>
       </c>
       <c r="P18">
-        <v>782</v>
+        <v>790.9999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2358,7 +2358,7 @@
         <v>29</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>11.89784946236517</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2373,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>17.89784946236523</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="P21">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2586,40 +2586,40 @@
         <v>28</v>
       </c>
       <c r="E26">
-        <v>2544.419354838709</v>
+        <v>2320.197421309203</v>
       </c>
       <c r="F26">
-        <v>2352.290546594982</v>
+        <v>2427.074910394265</v>
       </c>
       <c r="G26">
-        <v>2072.521505376344</v>
+        <v>1928.508602150538</v>
       </c>
       <c r="H26">
-        <v>2060.895044802867</v>
+        <v>2127.451612903225</v>
       </c>
       <c r="I26">
-        <v>2675.419354838709</v>
+        <v>2654.067741935484</v>
       </c>
       <c r="J26">
-        <v>2156.521505376344</v>
+        <v>1966.091612878643</v>
       </c>
       <c r="K26">
-        <v>1975.419354838709</v>
+        <v>1846.759032282647</v>
       </c>
       <c r="L26">
-        <v>2088.787526881718</v>
+        <v>1915.412607526888</v>
       </c>
       <c r="M26">
-        <v>2821.419354838709</v>
+        <v>2681.121505376344</v>
       </c>
       <c r="N26">
-        <v>2445.021505376344</v>
+        <v>2308.792661290316</v>
       </c>
       <c r="O26">
-        <v>2576.021505376344</v>
+        <v>2430.021505376344</v>
       </c>
       <c r="P26">
-        <v>2435.419354838709</v>
+        <v>2289.49003388793</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3321,10 +3321,10 @@
         <v>1019</v>
       </c>
       <c r="H42">
-        <v>560.5215053763441</v>
+        <v>985.4193548387093</v>
       </c>
       <c r="I42">
-        <v>303.0215053763441</v>
+        <v>999</v>
       </c>
       <c r="J42">
         <v>1092</v>
@@ -3333,7 +3333,7 @@
         <v>955</v>
       </c>
       <c r="L42">
-        <v>771</v>
+        <v>980</v>
       </c>
       <c r="M42">
         <v>799.1021505376348</v>
@@ -3446,7 +3446,7 @@
         <v>29</v>
       </c>
       <c r="E45">
-        <v>12.4193548387093</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>52</v>
@@ -3467,7 +3467,7 @@
         <v>33</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>54</v>
+        <v>12.99999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3629,7 +3629,7 @@
         <v>16</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>6.000000000000011</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -4398,40 +4398,40 @@
         <v>28</v>
       </c>
       <c r="E66">
-        <v>233</v>
+        <v>132.8999999999999</v>
       </c>
       <c r="F66">
-        <v>162</v>
+        <v>165.8444444444444</v>
       </c>
       <c r="G66">
-        <v>222</v>
+        <v>294.1922652329738</v>
       </c>
       <c r="H66">
-        <v>158</v>
+        <v>198.4550298685792</v>
       </c>
       <c r="I66">
-        <v>57</v>
+        <v>30.79985928580919</v>
       </c>
       <c r="J66">
-        <v>92</v>
+        <v>204.6556054692669</v>
       </c>
       <c r="K66">
-        <v>220</v>
+        <v>316.2000000000003</v>
       </c>
       <c r="L66">
-        <v>154.9999999999998</v>
+        <v>244.0999999999999</v>
       </c>
       <c r="M66">
-        <v>131</v>
+        <v>271.2978494623652</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>131.6885513739545</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>106.671143634675</v>
       </c>
       <c r="P66">
-        <v>46.60215053763477</v>
+        <v>151.0124555290065</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5136,7 +5136,7 @@
         <v>2692</v>
       </c>
       <c r="I82">
-        <v>2634.5</v>
+        <v>2644.5</v>
       </c>
       <c r="J82">
         <v>1936</v>
@@ -5145,7 +5145,7 @@
         <v>1920</v>
       </c>
       <c r="L82">
-        <v>2540.521505376344</v>
+        <v>2561.5</v>
       </c>
       <c r="M82">
         <v>2194</v>
@@ -5264,7 +5264,7 @@
         <v>165</v>
       </c>
       <c r="G85">
-        <v>151.0215053763441</v>
+        <v>162</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>28</v>
       </c>
       <c r="L90">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <v>10</v>
@@ -6222,22 +6222,22 @@
         <v>654</v>
       </c>
       <c r="I106">
-        <v>410.1021505376348</v>
+        <v>385</v>
       </c>
       <c r="J106">
-        <v>732</v>
+        <v>677.6021505376351</v>
       </c>
       <c r="K106">
-        <v>614</v>
+        <v>600.5</v>
       </c>
       <c r="L106">
         <v>676</v>
       </c>
       <c r="M106">
-        <v>386</v>
+        <v>298.5</v>
       </c>
       <c r="N106">
-        <v>685</v>
+        <v>685.4999999999998</v>
       </c>
       <c r="O106">
         <v>505.5</v>
@@ -6936,10 +6936,10 @@
         <v>28</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>12.4193548387093</v>
       </c>
       <c r="F122">
-        <v>656.0215053763441</v>
+        <v>653.0215053763441</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6963,13 +6963,13 @@
         <v>593.5215053763441</v>
       </c>
       <c r="N122">
-        <v>739.5215053763441</v>
+        <v>737.5215053763441</v>
       </c>
       <c r="O122">
         <v>215.5215053763441</v>
       </c>
       <c r="P122">
-        <v>177.0215053763441</v>
+        <v>218.0215053763441</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7122,13 +7122,13 @@
         <v>516</v>
       </c>
       <c r="G126">
-        <v>729</v>
+        <v>707.0430107526881</v>
       </c>
       <c r="H126">
-        <v>1153</v>
+        <v>303.2043010752695</v>
       </c>
       <c r="I126">
-        <v>1707</v>
+        <v>295.0430107526881</v>
       </c>
       <c r="J126">
         <v>875</v>
@@ -7137,7 +7137,7 @@
         <v>851</v>
       </c>
       <c r="L126">
-        <v>1143</v>
+        <v>639.0430107526881</v>
       </c>
       <c r="M126">
         <v>442</v>
@@ -7250,7 +7250,7 @@
         <v>29</v>
       </c>
       <c r="E129">
-        <v>6.204301075269541</v>
+        <v>27</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -7301,16 +7301,16 @@
         <v>689</v>
       </c>
       <c r="F130">
-        <v>578</v>
+        <v>691</v>
       </c>
       <c r="G130">
-        <v>841.5</v>
+        <v>1079.227849462364</v>
       </c>
       <c r="H130">
-        <v>404.8021505376348</v>
+        <v>914.4193548387093</v>
       </c>
       <c r="I130">
-        <v>266.5215053763441</v>
+        <v>678</v>
       </c>
       <c r="J130">
         <v>834</v>
@@ -7319,13 +7319,13 @@
         <v>697</v>
       </c>
       <c r="L130">
-        <v>707.5</v>
+        <v>887</v>
       </c>
       <c r="M130">
         <v>576</v>
       </c>
       <c r="N130">
-        <v>824.8</v>
+        <v>918.272150537636</v>
       </c>
       <c r="O130">
         <v>704</v>
@@ -7438,13 +7438,13 @@
         <v>34</v>
       </c>
       <c r="G133">
-        <v>64</v>
+        <v>2.772150537636207</v>
       </c>
       <c r="H133">
-        <v>31.21935483870931</v>
+        <v>54</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J133">
         <v>26</v>
@@ -7459,7 +7459,7 @@
         <v>27</v>
       </c>
       <c r="N133">
-        <v>83.19999999999999</v>
+        <v>36.22784946236402</v>
       </c>
       <c r="O133">
         <v>62</v>
@@ -7478,40 +7478,40 @@
         <v>28</v>
       </c>
       <c r="E134">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="F134">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>129</v>
+        <v>77.16129032258141</v>
       </c>
       <c r="J134">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M134">
         <v>70</v>
       </c>
       <c r="N134">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="O134">
         <v>113</v>
       </c>
       <c r="P134">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7660,25 +7660,25 @@
         <v>28</v>
       </c>
       <c r="E138">
-        <v>1703.919354838709</v>
+        <v>1742</v>
       </c>
       <c r="F138">
-        <v>918.5</v>
+        <v>905.5</v>
       </c>
       <c r="G138">
-        <v>1382.521505376344</v>
+        <v>1200.5</v>
       </c>
       <c r="H138">
-        <v>1645.04</v>
+        <v>1633.7</v>
       </c>
       <c r="I138">
         <v>1670</v>
       </c>
       <c r="J138">
-        <v>1162</v>
+        <v>1281.2</v>
       </c>
       <c r="K138">
-        <v>1106.666666666667</v>
+        <v>1220</v>
       </c>
       <c r="L138">
         <v>1360</v>
@@ -7687,13 +7687,13 @@
         <v>1174</v>
       </c>
       <c r="N138">
-        <v>1070.5</v>
+        <v>1031.099999999999</v>
       </c>
       <c r="O138">
         <v>1303</v>
       </c>
       <c r="P138">
-        <v>1379.293333333333</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>43.02150537634407</v>
+        <v>46</v>
       </c>
       <c r="M141">
         <v>35</v>
@@ -7846,19 +7846,19 @@
         <v>391</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="H142">
-        <v>242.9199999999996</v>
+        <v>373</v>
       </c>
       <c r="I142">
         <v>213</v>
       </c>
       <c r="J142">
-        <v>379</v>
+        <v>218.5999999999997</v>
       </c>
       <c r="K142">
-        <v>226.6666666666668</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <v>606</v>
@@ -7867,13 +7867,13 @@
         <v>622</v>
       </c>
       <c r="N142">
-        <v>0</v>
+        <v>72.40000000000146</v>
       </c>
       <c r="O142">
         <v>461</v>
       </c>
       <c r="P142">
-        <v>481.4133333333337</v>
+        <v>297.9999999999989</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -7974,19 +7974,19 @@
         <v>29</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>19.59999999999999</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -7995,13 +7995,13 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M145">
         <v>22</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="O145">
         <v>34</v>
@@ -8928,7 +8928,7 @@
         <v>28</v>
       </c>
       <c r="E166">
-        <v>29</v>
+        <v>8.204301075269541</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -9122,16 +9122,16 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>281.4193548387093</v>
       </c>
       <c r="J170">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="K170">
-        <v>209.5</v>
+        <v>244</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>152.5</v>
       </c>
       <c r="M170">
         <v>240</v>
@@ -11009,40 +11009,40 @@
         <v>26</v>
       </c>
       <c r="D8">
-        <v>217.2486968449934</v>
+        <v>39.79999999999927</v>
       </c>
       <c r="E8">
-        <v>111.8155768937659</v>
+        <v>454.6888888888889</v>
       </c>
       <c r="F8">
-        <v>303.6184423106234</v>
+        <v>535.3845304659476</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>479.9100597371581</v>
       </c>
       <c r="H8">
-        <v>427.5333333333335</v>
+        <v>400.5997185716184</v>
       </c>
       <c r="I8">
-        <v>423.2666666666664</v>
+        <v>501.5155120138052</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>282.4000000000005</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>253.1999999999998</v>
       </c>
       <c r="L8">
-        <v>437.8999999999999</v>
+        <v>486.5956989247306</v>
       </c>
       <c r="M8">
-        <v>393</v>
+        <v>508.377102747909</v>
       </c>
       <c r="N8">
-        <v>501.4444444444445</v>
+        <v>502.3422872693498</v>
       </c>
       <c r="O8">
-        <v>337.1728395061729</v>
+        <v>508.0249110580129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -11357,31 +11357,31 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>241.6111111111112</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>319.0464935900695</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>741.6372293443674</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1188.706974517293</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>576.3658917203007</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>766.2434108279701</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>900</v>
+        <v>534.0177956989123</v>
       </c>
       <c r="L16">
-        <v>236.5000000000002</v>
+        <v>100.4768279570026</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>251.8888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>53.44086021505336</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -11531,40 +11531,40 @@
         <v>26</v>
       </c>
       <c r="D20">
-        <v>182.3401920438953</v>
+        <v>650.8481681342819</v>
       </c>
       <c r="E20">
-        <v>424.384423106234</v>
+        <v>92.20430107526954</v>
       </c>
       <c r="F20">
-        <v>69.53506409930721</v>
+        <v>143.6412759856653</v>
       </c>
       <c r="G20">
-        <v>387.1627706556325</v>
+        <v>130.229725209079</v>
       </c>
       <c r="H20">
-        <v>116.7596921493742</v>
+        <v>145.3078083101024</v>
       </c>
       <c r="I20">
-        <v>364.3240307850626</v>
+        <v>264.344272981597</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>97.12494618739277</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>140</v>
+        <v>132.7274731182669</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.080585424147841</v>
       </c>
       <c r="N20">
-        <v>79.55555555555556</v>
+        <v>78.65771273065025</v>
       </c>
       <c r="O20">
-        <v>82.93827160493825</v>
+        <v>83.03803191881663</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -12667,7 +12667,7 @@
         <v>24</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>14.00000000000014</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -12725,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>27</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>76.79569892473046</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>3.999999999999986</v>
+        <v>23.20430107526954</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -13368,37 +13368,37 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>130.2293906810034</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>183.7642373556343</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>218.1444754192657</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>690.5033281380857</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>346.5334153137264</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>167.0905524203386</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>130.9464499700211</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>210.0010539277278</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>307.9999999999998</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>436.8086021505369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -13497,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>3.795698924730458</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -13506,10 +13506,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>7.203870967742575</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>3.796129032257411</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -13542,16 +13542,16 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>60.62904719235358</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>18.08361542546223</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>104.4109932961632</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -13668,19 +13668,19 @@
         <v>27</v>
       </c>
       <c r="D69">
-        <v>5.995698924730458</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>13.60430107526954</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>22.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>28.99612903225743</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>18.6</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -13701,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>20.20387096774258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -14061,40 +14061,40 @@
         <v>24</v>
       </c>
       <c r="D78">
-        <v>806.9408602150509</v>
+        <v>545.2400937135872</v>
       </c>
       <c r="E78">
-        <v>854.562126642772</v>
+        <v>865.8690760505629</v>
       </c>
       <c r="F78">
-        <v>618.1597637063586</v>
+        <v>752.6604129032266</v>
       </c>
       <c r="G78">
-        <v>453.0933595881824</v>
+        <v>407.3049777777787</v>
       </c>
       <c r="H78">
-        <v>502.1007378235353</v>
+        <v>685.8832178415009</v>
       </c>
       <c r="I78">
-        <v>523.7665846862739</v>
+        <v>584.4574202398334</v>
       </c>
       <c r="J78">
-        <v>478.581490590414</v>
+        <v>510.1713977511296</v>
       </c>
       <c r="K78">
-        <v>677.1938080944933</v>
+        <v>523.4254002498744</v>
       </c>
       <c r="L78">
-        <v>617.444064351841</v>
+        <v>777.5009277169532</v>
       </c>
       <c r="M78">
-        <v>578.5591397849462</v>
+        <v>489.0628136200662</v>
       </c>
       <c r="N78">
-        <v>312.6053763440845</v>
+        <v>853.1865690959758</v>
       </c>
       <c r="O78">
-        <v>624.4926881720459</v>
+        <v>594.1570478782251</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -14110,19 +14110,19 @@
         <v>124.8</v>
       </c>
       <c r="F79">
-        <v>78.19999999999999</v>
+        <v>139.4278494623638</v>
       </c>
       <c r="G79">
-        <v>29.08888888888889</v>
+        <v>154.6</v>
       </c>
       <c r="H79">
-        <v>197.6911111111111</v>
+        <v>46</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>102.4</v>
       </c>
       <c r="J79">
-        <v>309.4</v>
+        <v>203.2</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>288.9791397849467</v>
+        <v>311.1721505376361</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -15159,13 +15159,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>101733145.4336559</v>
+        <v>100522243.9733982</v>
       </c>
       <c r="C2">
-        <v>25677029.43005708</v>
+        <v>25312897.80054892</v>
       </c>
       <c r="D2">
-        <v>76056116.00359884</v>
+        <v>75209346.1728493</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -15173,13 +15173,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>101223243.4564337</v>
+        <v>100921924.1396774</v>
       </c>
       <c r="C3">
-        <v>25355234.29261612</v>
+        <v>24963570.10249496</v>
       </c>
       <c r="D3">
-        <v>75868009.16381758</v>
+        <v>75958354.03718245</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15187,13 +15187,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>104927601.5019355</v>
+        <v>104787591.9190014</v>
       </c>
       <c r="C4">
-        <v>26496761.85184151</v>
+        <v>26579103.61866795</v>
       </c>
       <c r="D4">
-        <v>78430839.65009397</v>
+        <v>78208488.30033347</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15201,13 +15201,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>106345437.1592265</v>
+        <v>104038940.6016942</v>
       </c>
       <c r="C5">
-        <v>27103226.84976681</v>
+        <v>26233398.85510122</v>
       </c>
       <c r="D5">
-        <v>79242210.30945972</v>
+        <v>77805541.74659294</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -15215,13 +15215,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>105054982.4992473</v>
+        <v>101962671.9200292</v>
       </c>
       <c r="C6">
-        <v>27592102.33000891</v>
+        <v>25232225.71444325</v>
       </c>
       <c r="D6">
-        <v>77462880.1692384</v>
+        <v>76730446.20558596</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -15229,13 +15229,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>103877070.4952688</v>
+        <v>102869388.6417374</v>
       </c>
       <c r="C7">
-        <v>26794065.9879141</v>
+        <v>25527947.9277658</v>
       </c>
       <c r="D7">
-        <v>77083004.50735472</v>
+        <v>77341440.71397159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -15243,13 +15243,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>104322184.6163441</v>
+        <v>103619060.2686253</v>
       </c>
       <c r="C8">
-        <v>26069245.32083473</v>
+        <v>25031257.85365988</v>
       </c>
       <c r="D8">
-        <v>78252939.29550934</v>
+        <v>78587802.41496541</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15257,13 +15257,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>105041536.4930108</v>
+        <v>102973540.5404033</v>
       </c>
       <c r="C9">
-        <v>26550831.38954846</v>
+        <v>25726554.9593308</v>
       </c>
       <c r="D9">
-        <v>78490705.10346231</v>
+        <v>77246985.58107245</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -15271,13 +15271,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>99907059.37096775</v>
+        <v>99534408.41935484</v>
       </c>
       <c r="C10">
-        <v>24515093.82343139</v>
+        <v>24231904.39992176</v>
       </c>
       <c r="D10">
-        <v>75391965.54753636</v>
+        <v>75302504.01943308</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -15285,13 +15285,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>101198199.3791183</v>
+        <v>101104455.9736586</v>
       </c>
       <c r="C11">
-        <v>24328437.75870968</v>
+        <v>24382063.19300001</v>
       </c>
       <c r="D11">
-        <v>76869761.62040859</v>
+        <v>76722392.78065863</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -15299,13 +15299,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>114481718.1131183</v>
+        <v>114245484.0999097</v>
       </c>
       <c r="C12">
-        <v>25633674.9088172</v>
+        <v>25845590.15899164</v>
       </c>
       <c r="D12">
-        <v>88848043.20430107</v>
+        <v>88399893.9409181</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15313,13 +15313,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>103717983.8905979</v>
+        <v>102708391.7671341</v>
       </c>
       <c r="C13">
-        <v>26234481.32591637</v>
+        <v>25319489.45314906</v>
       </c>
       <c r="D13">
-        <v>77483502.5646815</v>
+        <v>77388902.31398508</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -15343,7 +15343,7 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>0.3777222069553141</v>
+        <v>0.3752079971942972</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>3.492459654808044E-09</v>
+        <v>-2.123415470123291E-07</v>
       </c>
     </row>
   </sheetData>
@@ -16529,16 +16529,16 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>281.4193548387093</v>
       </c>
       <c r="J26">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="K26">
-        <v>209.5</v>
+        <v>244</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>152.5</v>
       </c>
       <c r="M26">
         <v>240</v>
@@ -17059,7 +17059,7 @@
         <v>28</v>
       </c>
       <c r="E38">
-        <v>29</v>
+        <v>8.204301075269541</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -19777,25 +19777,25 @@
         <v>28</v>
       </c>
       <c r="E98">
-        <v>1703.919354838709</v>
+        <v>1742</v>
       </c>
       <c r="F98">
-        <v>918.5</v>
+        <v>905.5</v>
       </c>
       <c r="G98">
-        <v>1382.521505376344</v>
+        <v>1200.5</v>
       </c>
       <c r="H98">
-        <v>1645.04</v>
+        <v>1633.7</v>
       </c>
       <c r="I98">
         <v>1670</v>
       </c>
       <c r="J98">
-        <v>1162</v>
+        <v>1281.2</v>
       </c>
       <c r="K98">
-        <v>1106.666666666667</v>
+        <v>1220</v>
       </c>
       <c r="L98">
         <v>1360</v>
@@ -19804,13 +19804,13 @@
         <v>1174</v>
       </c>
       <c r="N98">
-        <v>1070.5</v>
+        <v>1031.099999999999</v>
       </c>
       <c r="O98">
         <v>1303</v>
       </c>
       <c r="P98">
-        <v>1379.293333333333</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -19932,7 +19932,7 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>43.02150537634407</v>
+        <v>46</v>
       </c>
       <c r="M101">
         <v>35</v>
@@ -19963,19 +19963,19 @@
         <v>391</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="H102">
-        <v>242.9199999999996</v>
+        <v>373</v>
       </c>
       <c r="I102">
         <v>213</v>
       </c>
       <c r="J102">
-        <v>379</v>
+        <v>218.5999999999997</v>
       </c>
       <c r="K102">
-        <v>226.6666666666668</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <v>606</v>
@@ -19984,13 +19984,13 @@
         <v>622</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>72.40000000000146</v>
       </c>
       <c r="O102">
         <v>461</v>
       </c>
       <c r="P102">
-        <v>481.4133333333337</v>
+        <v>297.9999999999989</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -20091,19 +20091,19 @@
         <v>29</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>19.59999999999999</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -20112,13 +20112,13 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M105">
         <v>22</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="O105">
         <v>34</v>
@@ -20142,16 +20142,16 @@
         <v>689</v>
       </c>
       <c r="F106">
-        <v>578</v>
+        <v>691</v>
       </c>
       <c r="G106">
-        <v>841.5</v>
+        <v>1079.227849462364</v>
       </c>
       <c r="H106">
-        <v>404.8021505376348</v>
+        <v>914.4193548387093</v>
       </c>
       <c r="I106">
-        <v>266.5215053763441</v>
+        <v>678</v>
       </c>
       <c r="J106">
         <v>834</v>
@@ -20160,13 +20160,13 @@
         <v>697</v>
       </c>
       <c r="L106">
-        <v>707.5</v>
+        <v>887</v>
       </c>
       <c r="M106">
         <v>576</v>
       </c>
       <c r="N106">
-        <v>824.8</v>
+        <v>918.272150537636</v>
       </c>
       <c r="O106">
         <v>704</v>
@@ -20279,13 +20279,13 @@
         <v>34</v>
       </c>
       <c r="G109">
-        <v>64</v>
+        <v>2.772150537636207</v>
       </c>
       <c r="H109">
-        <v>31.21935483870931</v>
+        <v>54</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J109">
         <v>26</v>
@@ -20300,7 +20300,7 @@
         <v>27</v>
       </c>
       <c r="N109">
-        <v>83.19999999999999</v>
+        <v>36.22784946236402</v>
       </c>
       <c r="O109">
         <v>62</v>
@@ -20319,40 +20319,40 @@
         <v>28</v>
       </c>
       <c r="E110">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="F110">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>129</v>
+        <v>77.16129032258141</v>
       </c>
       <c r="J110">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M110">
         <v>70</v>
       </c>
       <c r="N110">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="O110">
         <v>113</v>
       </c>
       <c r="P110">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -20501,10 +20501,10 @@
         <v>28</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>12.4193548387093</v>
       </c>
       <c r="F114">
-        <v>656.0215053763441</v>
+        <v>653.0215053763441</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -20528,13 +20528,13 @@
         <v>593.5215053763441</v>
       </c>
       <c r="N114">
-        <v>739.5215053763441</v>
+        <v>737.5215053763441</v>
       </c>
       <c r="O114">
         <v>215.5215053763441</v>
       </c>
       <c r="P114">
-        <v>177.0215053763441</v>
+        <v>218.0215053763441</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -20687,13 +20687,13 @@
         <v>516</v>
       </c>
       <c r="G118">
-        <v>729</v>
+        <v>707.0430107526881</v>
       </c>
       <c r="H118">
-        <v>1153</v>
+        <v>303.2043010752695</v>
       </c>
       <c r="I118">
-        <v>1707</v>
+        <v>295.0430107526881</v>
       </c>
       <c r="J118">
         <v>875</v>
@@ -20702,7 +20702,7 @@
         <v>851</v>
       </c>
       <c r="L118">
-        <v>1143</v>
+        <v>639.0430107526881</v>
       </c>
       <c r="M118">
         <v>442</v>
@@ -20815,7 +20815,7 @@
         <v>29</v>
       </c>
       <c r="E121">
-        <v>6.204301075269541</v>
+        <v>27</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>28</v>
       </c>
       <c r="L186">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M186">
         <v>10</v>
@@ -24135,7 +24135,7 @@
         <v>2692</v>
       </c>
       <c r="I194">
-        <v>2634.5</v>
+        <v>2644.5</v>
       </c>
       <c r="J194">
         <v>1936</v>
@@ -24144,7 +24144,7 @@
         <v>1920</v>
       </c>
       <c r="L194">
-        <v>2540.521505376344</v>
+        <v>2561.5</v>
       </c>
       <c r="M194">
         <v>2194</v>
@@ -24263,7 +24263,7 @@
         <v>165</v>
       </c>
       <c r="G197">
-        <v>151.0215053763441</v>
+        <v>162</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -27754,10 +27754,10 @@
         <v>1019</v>
       </c>
       <c r="H274">
-        <v>560.5215053763441</v>
+        <v>985.4193548387093</v>
       </c>
       <c r="I274">
-        <v>303.0215053763441</v>
+        <v>999</v>
       </c>
       <c r="J274">
         <v>1092</v>
@@ -27766,7 +27766,7 @@
         <v>955</v>
       </c>
       <c r="L274">
-        <v>771</v>
+        <v>980</v>
       </c>
       <c r="M274">
         <v>799.1021505376348</v>
@@ -27879,7 +27879,7 @@
         <v>29</v>
       </c>
       <c r="E277">
-        <v>12.4193548387093</v>
+        <v>0</v>
       </c>
       <c r="F277">
         <v>52</v>
@@ -27900,7 +27900,7 @@
         <v>33</v>
       </c>
       <c r="L277">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M277">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="P277">
-        <v>54</v>
+        <v>12.99999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -28062,7 +28062,7 @@
         <v>16</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>6.000000000000011</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -28086,7 +28086,7 @@
         <v>0</v>
       </c>
       <c r="N281">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O281">
         <v>0</v>
@@ -36075,16 +36075,16 @@
         <v>28</v>
       </c>
       <c r="E458">
-        <v>604</v>
+        <v>750.1021505376348</v>
       </c>
       <c r="F458">
-        <v>895.1288082437272</v>
+        <v>816.5</v>
       </c>
       <c r="G458">
-        <v>861.8978494623652</v>
+        <v>904</v>
       </c>
       <c r="H458">
-        <v>984.5243100358421</v>
+        <v>842</v>
       </c>
       <c r="I458">
         <v>581</v>
@@ -36096,7 +36096,7 @@
         <v>788</v>
       </c>
       <c r="L458">
-        <v>926.6318279569909</v>
+        <v>847</v>
       </c>
       <c r="M458">
         <v>451</v>
@@ -36108,7 +36108,7 @@
         <v>722</v>
       </c>
       <c r="P458">
-        <v>782</v>
+        <v>790.9999999999995</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -36209,7 +36209,7 @@
         <v>29</v>
       </c>
       <c r="E461">
-        <v>14</v>
+        <v>11.89784946236517</v>
       </c>
       <c r="F461">
         <v>0</v>
@@ -36224,10 +36224,10 @@
         <v>0</v>
       </c>
       <c r="J461">
-        <v>17.89784946236523</v>
+        <v>56</v>
       </c>
       <c r="K461">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L461">
         <v>0</v>
@@ -36242,7 +36242,7 @@
         <v>10</v>
       </c>
       <c r="P461">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -36437,40 +36437,40 @@
         <v>28</v>
       </c>
       <c r="E466">
-        <v>2544.419354838709</v>
+        <v>2320.197421309203</v>
       </c>
       <c r="F466">
-        <v>2352.290546594982</v>
+        <v>2427.074910394265</v>
       </c>
       <c r="G466">
-        <v>2072.521505376344</v>
+        <v>1928.508602150538</v>
       </c>
       <c r="H466">
-        <v>2060.895044802867</v>
+        <v>2127.451612903225</v>
       </c>
       <c r="I466">
-        <v>2675.419354838709</v>
+        <v>2654.067741935484</v>
       </c>
       <c r="J466">
-        <v>2156.521505376344</v>
+        <v>1966.091612878643</v>
       </c>
       <c r="K466">
-        <v>1975.419354838709</v>
+        <v>1846.759032282647</v>
       </c>
       <c r="L466">
-        <v>2088.787526881718</v>
+        <v>1915.412607526888</v>
       </c>
       <c r="M466">
-        <v>2821.419354838709</v>
+        <v>2681.121505376344</v>
       </c>
       <c r="N466">
-        <v>2445.021505376344</v>
+        <v>2308.792661290316</v>
       </c>
       <c r="O466">
-        <v>2576.021505376344</v>
+        <v>2430.021505376344</v>
       </c>
       <c r="P466">
-        <v>2435.419354838709</v>
+        <v>2289.49003388793</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -39904,7 +39904,7 @@
         <v>0</v>
       </c>
       <c r="N542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O542">
         <v>0</v>
@@ -40059,40 +40059,40 @@
         <v>28</v>
       </c>
       <c r="E546">
-        <v>233</v>
+        <v>132.8999999999999</v>
       </c>
       <c r="F546">
-        <v>162</v>
+        <v>165.8444444444444</v>
       </c>
       <c r="G546">
-        <v>222</v>
+        <v>294.1922652329738</v>
       </c>
       <c r="H546">
-        <v>158</v>
+        <v>198.4550298685792</v>
       </c>
       <c r="I546">
-        <v>57</v>
+        <v>30.79985928580919</v>
       </c>
       <c r="J546">
-        <v>92</v>
+        <v>204.6556054692669</v>
       </c>
       <c r="K546">
-        <v>220</v>
+        <v>316.2000000000003</v>
       </c>
       <c r="L546">
-        <v>154.9999999999998</v>
+        <v>244.0999999999999</v>
       </c>
       <c r="M546">
-        <v>131</v>
+        <v>271.2978494623652</v>
       </c>
       <c r="N546">
-        <v>0</v>
+        <v>131.6885513739545</v>
       </c>
       <c r="O546">
-        <v>0</v>
+        <v>106.6711436346749</v>
       </c>
       <c r="P546">
-        <v>46.60215053763477</v>
+        <v>151.0124555290065</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -43693,25 +43693,25 @@
         <v>654</v>
       </c>
       <c r="I626">
-        <v>410.1021505376348</v>
+        <v>385</v>
       </c>
       <c r="J626">
-        <v>732</v>
+        <v>677.6021505376351</v>
       </c>
       <c r="K626">
-        <v>614</v>
+        <v>600.5</v>
       </c>
       <c r="L626">
         <v>676</v>
       </c>
       <c r="M626">
-        <v>386</v>
+        <v>298.5</v>
       </c>
       <c r="N626">
-        <v>685</v>
+        <v>685.4999999999998</v>
       </c>
       <c r="O626">
-        <v>505.5</v>
+        <v>505.4999999999999</v>
       </c>
       <c r="P626">
         <v>555</v>
@@ -54835,37 +54835,37 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>130.2293906810034</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>183.7642373556343</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>218.1444754192657</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>690.5033281380857</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>346.5334153137264</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>167.0905524203386</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>130.9464499700211</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>210.0010539277278</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>307.9999999999998</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>436.8086021505369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -54964,7 +54964,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>3.795698924730458</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -54973,10 +54973,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>7.203870967742575</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -54988,7 +54988,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>3.796129032257411</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -55009,16 +55009,16 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>60.62904719235358</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>18.08361542546223</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>104.4109932961632</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -55135,19 +55135,19 @@
         <v>27</v>
       </c>
       <c r="D69">
-        <v>5.995698924730458</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>13.60430107526954</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>22.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>28.99612903225743</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -55156,7 +55156,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>18.6</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -55168,7 +55168,7 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>20.20387096774258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -55528,40 +55528,40 @@
         <v>24</v>
       </c>
       <c r="D78">
-        <v>806.9408602150509</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>854.562126642772</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>618.1597637063586</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>453.0933595881824</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>502.1007378235353</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>523.7665846862739</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>478.581490590414</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>677.1938080944933</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>617.444064351841</v>
+        <v>0</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>312.6053763440845</v>
+        <v>0</v>
       </c>
       <c r="O78">
-        <v>624.4926881720459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -55571,25 +55571,25 @@
         <v>25</v>
       </c>
       <c r="D79">
-        <v>154.2</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>124.8</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>78.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>29.08888888888889</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>197.6911111111111</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>309.4</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -55598,13 +55598,13 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>288.9791397849467</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79">
-        <v>34.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -56226,7 +56226,7 @@
         <v>24</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -56241,7 +56241,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>14.00000000000014</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -56259,7 +56259,7 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -56284,7 +56284,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -56355,7 +56355,7 @@
         <v>27</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -56364,7 +56364,7 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>76.79569892473046</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -56379,7 +56379,7 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>23.20430107526954</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -56901,7 +56901,7 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>3.999999999999986</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -60318,22 +60318,22 @@
         <v>26</v>
       </c>
       <c r="D188">
-        <v>217.2486968449934</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>111.8155768937659</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>303.6184423106234</v>
+        <v>0</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
       <c r="H188">
-        <v>427.5333333333335</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>423.2666666666664</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -60342,16 +60342,16 @@
         <v>0</v>
       </c>
       <c r="L188">
-        <v>437.8999999999999</v>
+        <v>0</v>
       </c>
       <c r="M188">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="N188">
-        <v>501.4444444444445</v>
+        <v>0</v>
       </c>
       <c r="O188">
-        <v>337.1728395061729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:15">
@@ -60666,31 +60666,31 @@
         <v>26</v>
       </c>
       <c r="D196">
-        <v>241.6111111111112</v>
+        <v>0</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196">
-        <v>319.0464935900695</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>741.6372293443674</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>1188.706974517293</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>576.3658917203007</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>766.2434108279701</v>
+        <v>0</v>
       </c>
       <c r="K196">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L196">
-        <v>236.5000000000002</v>
+        <v>0</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -60699,7 +60699,7 @@
         <v>0</v>
       </c>
       <c r="O196">
-        <v>251.8888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:15">
@@ -60827,7 +60827,7 @@
         <v>0</v>
       </c>
       <c r="N199">
-        <v>53.44086021505336</v>
+        <v>0</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -60840,22 +60840,22 @@
         <v>26</v>
       </c>
       <c r="D200">
-        <v>182.3401920438953</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>424.384423106234</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>69.53506409930721</v>
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>387.1627706556325</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>116.7596921493742</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>364.3240307850626</v>
+        <v>0</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -60864,16 +60864,16 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M200">
         <v>0</v>
       </c>
       <c r="N200">
-        <v>79.55555555555557</v>
+        <v>0</v>
       </c>
       <c r="O200">
-        <v>82.93827160493827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:15">
@@ -62060,40 +62060,40 @@
         <v>26</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>39.79999999999927</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>454.6888888888889</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>535.3845304659476</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>479.9100597371581</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>400.5997185716184</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>501.5155120138052</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>282.4000000000005</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>253.1999999999998</v>
       </c>
       <c r="L228">
-        <v>0</v>
+        <v>486.5956989247306</v>
       </c>
       <c r="M228">
-        <v>0</v>
+        <v>508.377102747909</v>
       </c>
       <c r="N228">
-        <v>0</v>
+        <v>502.3422872693498</v>
       </c>
       <c r="O228">
-        <v>0</v>
+        <v>508.0249110580129</v>
       </c>
     </row>
     <row r="229" spans="1:15">
@@ -62429,10 +62429,10 @@
         <v>0</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>534.0177956989123</v>
       </c>
       <c r="L236">
-        <v>0</v>
+        <v>100.4768279570026</v>
       </c>
       <c r="M236">
         <v>0</v>
@@ -62582,40 +62582,40 @@
         <v>26</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>650.8481681342819</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>92.20430107526954</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>143.6412759856653</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>130.229725209079</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>145.3078083101024</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>264.344272981597</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>97.12494618739265</v>
       </c>
       <c r="K240">
         <v>0</v>
       </c>
       <c r="L240">
-        <v>0</v>
+        <v>132.7274731182669</v>
       </c>
       <c r="M240">
-        <v>0</v>
+        <v>8.080585424147841</v>
       </c>
       <c r="N240">
-        <v>0</v>
+        <v>78.65771273065025</v>
       </c>
       <c r="O240">
-        <v>0</v>
+        <v>83.03803191881663</v>
       </c>
     </row>
     <row r="241" spans="1:15">
@@ -67722,40 +67722,40 @@
         <v>24</v>
       </c>
       <c r="D358">
-        <v>0</v>
+        <v>545.2400937135872</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>865.8690760505629</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>752.6604129032266</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>407.3049777777787</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>685.8832178415009</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>584.4574202398334</v>
       </c>
       <c r="J358">
-        <v>0</v>
+        <v>510.1713977511296</v>
       </c>
       <c r="K358">
-        <v>0</v>
+        <v>523.4254002498744</v>
       </c>
       <c r="L358">
-        <v>0</v>
+        <v>777.5009277169532</v>
       </c>
       <c r="M358">
-        <v>578.5591397849462</v>
+        <v>489.0628136200662</v>
       </c>
       <c r="N358">
-        <v>0</v>
+        <v>853.1865690959758</v>
       </c>
       <c r="O358">
-        <v>0</v>
+        <v>594.1570478782251</v>
       </c>
     </row>
     <row r="359" spans="1:15">
@@ -67765,25 +67765,25 @@
         <v>25</v>
       </c>
       <c r="D359">
-        <v>0</v>
+        <v>154.2</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>124.8</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>139.4278494623638</v>
       </c>
       <c r="G359">
-        <v>0</v>
+        <v>154.6</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I359">
-        <v>0</v>
+        <v>102.4</v>
       </c>
       <c r="J359">
-        <v>0</v>
+        <v>203.2</v>
       </c>
       <c r="K359">
         <v>0</v>
@@ -67792,13 +67792,13 @@
         <v>0</v>
       </c>
       <c r="M359">
-        <v>0</v>
+        <v>311.1721505376361</v>
       </c>
       <c r="N359">
         <v>0</v>
       </c>
       <c r="O359">
-        <v>0</v>
+        <v>34.19999999999999</v>
       </c>
     </row>
     <row r="360" spans="1:15">
@@ -69806,40 +69806,40 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>187.8942652329742</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>77.69999999999982</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>116.2000000000003</v>
       </c>
       <c r="G2">
-        <v>45.36959340383851</v>
+        <v>133.1999999999998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>179.7212903471618</v>
       </c>
       <c r="I2">
-        <v>43.53698924731221</v>
+        <v>166.8837634408587</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>379.7797580645088</v>
       </c>
       <c r="K2">
-        <v>132.2590343921732</v>
+        <v>542.2324462365523</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>524.0021505376349</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>392.0021505376349</v>
       </c>
       <c r="N2">
-        <v>47.12989247311765</v>
+        <v>176.7336220260495</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -69848,28 +69848,28 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>380.5698924731183</v>
+        <v>396.6612903225809</v>
       </c>
       <c r="D3">
-        <v>496.3376344086021</v>
+        <v>507.4612903225809</v>
       </c>
       <c r="E3">
-        <v>566.7505376344085</v>
+        <v>584.4612903225809</v>
       </c>
       <c r="F3">
-        <v>455.1591397849461</v>
+        <v>477.2612903225809</v>
       </c>
       <c r="G3">
-        <v>439.1591397849461</v>
+        <v>461.2612903225809</v>
       </c>
       <c r="H3">
-        <v>370.6612903225808</v>
+        <v>354.6612903225808</v>
       </c>
       <c r="I3">
-        <v>247.0612903225809</v>
+        <v>225.0612903225809</v>
       </c>
       <c r="J3">
-        <v>117.2612903225809</v>
+        <v>108.4612903225809</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -69878,10 +69878,10 @@
         <v>80.75913978494609</v>
       </c>
       <c r="M3">
-        <v>159.5182795698927</v>
+        <v>212.9591397849461</v>
       </c>
       <c r="N3">
-        <v>349.9182795698927</v>
+        <v>387.7591397849461</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -69890,7 +69890,7 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>19.01146953405072</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -69905,16 +69905,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>93.84341082797027</v>
+        <v>127.1574193056731</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>420.0324731182797</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>230.4404838709806</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>123.4576881720568</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -69923,7 +69923,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>80.93705702317044</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -69932,34 +69932,34 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>9.322580645161723</v>
+        <v>21.79999999999999</v>
       </c>
       <c r="D5">
-        <v>18.62043010752695</v>
+        <v>39.59999999999999</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>4.483483870968318</v>
+        <v>21</v>
       </c>
       <c r="H5">
-        <v>12.60387096774259</v>
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>6.203870967742589</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>3.203870967742589</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>2.203870967742589</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1.620387096774259</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -69976,40 +69976,40 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>109.5956989247304</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>261.9618413978486</v>
+        <v>168.6555555555556</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>84.16814648878301</v>
+        <v>17.86836798088285</v>
       </c>
       <c r="G6">
-        <v>277.1502985198462</v>
+        <v>66.687863533783</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>44.90000000000009</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>136.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>148.4978494623656</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>245.1778494623655</v>
+        <v>21.0747389486271</v>
       </c>
       <c r="M6">
-        <v>332.5978494623654</v>
+        <v>39.21245552900652</v>
       </c>
       <c r="N6">
-        <v>284.3956989247305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -70018,37 +70018,37 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>58.98064516129071</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D7">
-        <v>56.98064516129071</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E7">
-        <v>62.1806451612907</v>
+        <v>37.86329032258173</v>
       </c>
       <c r="F7">
-        <v>75.71225806451629</v>
+        <v>40.57215053763622</v>
       </c>
       <c r="G7">
-        <v>58.8</v>
+        <v>50.17215053763621</v>
       </c>
       <c r="H7">
-        <v>2.400000000000006</v>
+        <v>27.87215053763609</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.97215053763599</v>
       </c>
       <c r="J7">
-        <v>35.2</v>
+        <v>41.17215053763599</v>
       </c>
       <c r="K7">
-        <v>67.40000000000001</v>
+        <v>73.37215053763599</v>
       </c>
       <c r="L7">
-        <v>43.72000000000001</v>
+        <v>21.5088602150544</v>
       </c>
       <c r="M7">
-        <v>41.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -70060,40 +70060,40 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>112.4411111111114</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>145.0381557689376</v>
+        <v>88.11496630824172</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>51.77247311827881</v>
       </c>
       <c r="G8">
-        <v>92.38000000000017</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>201.8733333333333</v>
+        <v>22.08844879861894</v>
       </c>
       <c r="I8">
-        <v>48.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>71.71999999999991</v>
       </c>
       <c r="K8">
-        <v>89.70999999999995</v>
+        <v>158.5761290322575</v>
       </c>
       <c r="L8">
-        <v>30.19999999999993</v>
+        <v>153.3750913978471</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>99.92086021505264</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>161.3775088941994</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -70102,40 +70102,40 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>13.60000000000001</v>
       </c>
       <c r="D9">
-        <v>4.643440860215636</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="E9">
-        <v>4.203870967742589</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>26.34387096774259</v>
+        <v>70.91612903225742</v>
       </c>
       <c r="G9">
-        <v>16.70038709677427</v>
+        <v>40.59569892473046</v>
       </c>
       <c r="H9">
-        <v>24.20000000000001</v>
+        <v>45.19569892473046</v>
       </c>
       <c r="I9">
-        <v>26.60000000000002</v>
+        <v>47.59569892473046</v>
       </c>
       <c r="J9">
-        <v>41.34000000000002</v>
+        <v>45.59569892473046</v>
       </c>
       <c r="K9">
-        <v>35.4</v>
+        <v>55.07956989247305</v>
       </c>
       <c r="L9">
-        <v>9.6</v>
+        <v>27.20000000000001</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.60000000000001</v>
       </c>
       <c r="N9">
-        <v>12.58348387096833</v>
+        <v>12.00000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -70146,40 +70146,40 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>65.04494623655955</v>
+        <v>117.2612903225809</v>
       </c>
       <c r="D10">
-        <v>210.98997311828</v>
+        <v>281.9021505376346</v>
       </c>
       <c r="E10">
-        <v>262.8931093189963</v>
+        <v>213.2021505376347</v>
       </c>
       <c r="F10">
-        <v>210.5994372759851</v>
+        <v>12.6221505376343</v>
       </c>
       <c r="G10">
-        <v>335.4230107526862</v>
+        <v>91.00215053763463</v>
       </c>
       <c r="H10">
-        <v>404.623010752686</v>
+        <v>272.1199999999997</v>
       </c>
       <c r="I10">
-        <v>434.0230107526861</v>
+        <v>430.6999999999998</v>
       </c>
       <c r="J10">
-        <v>15.74726881720346</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>15.99999999999977</v>
+        <v>55.89999999999992</v>
       </c>
       <c r="L10">
-        <v>81.29999999999995</v>
+        <v>97.06000000000006</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>43.97599999999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -70188,10 +70188,10 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>176.4215053763441</v>
+        <v>188.2408602150539</v>
       </c>
       <c r="D11">
-        <v>75.42150537634407</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -70203,25 +70203,25 @@
         <v>223.4</v>
       </c>
       <c r="H11">
-        <v>238.7387096774191</v>
+        <v>236.6000000000001</v>
       </c>
       <c r="I11">
-        <v>219.0978494623652</v>
+        <v>235.8000000000001</v>
       </c>
       <c r="J11">
-        <v>349.5107526881716</v>
+        <v>370.4000000000001</v>
       </c>
       <c r="K11">
-        <v>411.421505376344</v>
+        <v>433.5021505376349</v>
       </c>
       <c r="L11">
-        <v>330.821505376344</v>
+        <v>352.9021505376348</v>
       </c>
       <c r="M11">
-        <v>411.821505376344</v>
+        <v>433.9021505376348</v>
       </c>
       <c r="N11">
-        <v>323.2215053763441</v>
+        <v>339.9021505376348</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -70230,40 +70230,40 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>601.0800000000004</v>
+        <v>400.4000000000002</v>
       </c>
       <c r="D12">
-        <v>638.8800000000003</v>
+        <v>438.2000000000002</v>
       </c>
       <c r="E12">
-        <v>443.2800000000004</v>
+        <v>462.8000000000002</v>
       </c>
       <c r="F12">
-        <v>345.4320000000001</v>
+        <v>589.8000000000003</v>
       </c>
       <c r="G12">
-        <v>121.4</v>
+        <v>417.8000000000003</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>200.1600000000001</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>275.4666666666667</v>
+        <v>184.8</v>
       </c>
       <c r="K12">
-        <v>600.2666666666667</v>
+        <v>509.5999999999999</v>
       </c>
       <c r="L12">
-        <v>583.4666666666667</v>
+        <v>536.8400000000008</v>
       </c>
       <c r="M12">
-        <v>396.6666666666667</v>
+        <v>379.4000000000013</v>
       </c>
       <c r="N12">
-        <v>597.3146666666669</v>
+        <v>470.0000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -70272,40 +70272,40 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>28.00000000000001</v>
+        <v>29.03569892473046</v>
       </c>
       <c r="D13">
-        <v>25.00000000000001</v>
+        <v>47.63569892473046</v>
       </c>
       <c r="E13">
-        <v>20.00000000000001</v>
+        <v>64.43569892473046</v>
       </c>
       <c r="F13">
-        <v>13.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>10.00000000000001</v>
+        <v>16.84</v>
       </c>
       <c r="H13">
-        <v>8.000000000000014</v>
+        <v>22.84</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>17.84</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>23.23999999999999</v>
       </c>
       <c r="K13">
-        <v>5.200000000000014</v>
+        <v>14.83569892473045</v>
       </c>
       <c r="L13">
-        <v>9.000000000000014</v>
+        <v>22.47569892473046</v>
       </c>
       <c r="M13">
-        <v>28.40000000000001</v>
+        <v>44.43569892473046</v>
       </c>
       <c r="N13">
-        <v>41.00000000000001</v>
+        <v>57.03569892473046</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -70325,19 +70325,19 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>198.865643487175</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>58.27773620366671</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>36.26577717931741</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -70346,7 +70346,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>257.7946236559157</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -70367,22 +70367,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>148.2917562724018</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>25.60064516129071</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>128.0006451612907</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>21.80064516129073</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>186.3791397849466</v>
+        <v>161.6</v>
       </c>
       <c r="K15">
-        <v>302.9791397849466</v>
+        <v>278.2</v>
       </c>
       <c r="L15">
         <v>97.19999999999999</v>
@@ -70400,40 +70400,40 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>267.0388888888889</v>
+        <v>246.8476827956999</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>175.6476827956998</v>
       </c>
       <c r="E16">
-        <v>127.5418442310626</v>
+        <v>24.00467204301179</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>258.8003709677421</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>578.5960698924731</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>325.3960698924735</v>
       </c>
       <c r="I16">
-        <v>448.3889922505365</v>
+        <v>322.1960698924735</v>
       </c>
       <c r="J16">
-        <v>164.4133333333335</v>
+        <v>316.1690752688064</v>
       </c>
       <c r="K16">
-        <v>7.263333333333662</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>182.9133333333337</v>
+        <v>178.6476827956988</v>
       </c>
       <c r="M16">
-        <v>49.9133333333337</v>
+        <v>45.64768279569881</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>106.4476827956999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -70442,40 +70442,40 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.2</v>
       </c>
       <c r="I17">
-        <v>14.2</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="J17">
-        <v>6.399999999999999</v>
+        <v>43.2</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>36.8</v>
       </c>
       <c r="L17">
-        <v>22.60387096774258</v>
+        <v>56.8</v>
       </c>
       <c r="M17">
-        <v>10.40387096774258</v>
+        <v>44.59999999999999</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -70486,16 +70486,16 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>42.16598267843608</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>26.17216049529679</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>148.3534397132571</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>120.5939610035806</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -70507,19 +70507,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>287.7325763440855</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>223.9516150701918</v>
+        <v>64.8933749702453</v>
       </c>
       <c r="L18">
-        <v>223.5992473118276</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>253.974193548385</v>
       </c>
       <c r="N18">
-        <v>49.30395698924963</v>
+        <v>330.0341935483851</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -70534,31 +70534,31 @@
         <v>83.73999999999999</v>
       </c>
       <c r="E19">
-        <v>65.8</v>
+        <v>120.9050645161274</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>174.1878494623638</v>
       </c>
       <c r="G19">
-        <v>61.83088888888888</v>
+        <v>112.0478494623638</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>127.2078494623638</v>
       </c>
       <c r="I19">
-        <v>123.66</v>
+        <v>165.5278494623639</v>
       </c>
       <c r="J19">
-        <v>79.8</v>
+        <v>111.0478494623639</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>31.24784946236394</v>
       </c>
       <c r="L19">
-        <v>115.881225806452</v>
+        <v>167.1027849462364</v>
       </c>
       <c r="M19">
-        <v>82.87591397849468</v>
+        <v>88.22000000000001</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -70570,13 +70570,13 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>442.4628534374659</v>
       </c>
       <c r="D20">
-        <v>149.3800000000002</v>
+        <v>339.7315412186367</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>223.8291197132623</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -70585,16 +70585,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>222.1675969214938</v>
+        <v>135.0406265144475</v>
       </c>
       <c r="I20">
-        <v>118.2</v>
+        <v>108.4875053812607</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>57.2</v>
+        <v>50.65472580644024</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -70755,7 +70755,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2475</v>
+        <v>2454.20430107527</v>
       </c>
       <c r="C3">
         <v>2668</v>
@@ -70767,16 +70767,16 @@
         <v>2263</v>
       </c>
       <c r="F3">
-        <v>2121</v>
+        <v>2683.838709677419</v>
       </c>
       <c r="G3">
-        <v>2277</v>
+        <v>2423</v>
       </c>
       <c r="H3">
-        <v>2455</v>
+        <v>2524</v>
       </c>
       <c r="I3">
-        <v>1940</v>
+        <v>2245</v>
       </c>
       <c r="J3">
         <v>2205</v>
@@ -70837,7 +70837,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>8101.20430107527</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="C5">
         <v>8172.043010752688</v>
@@ -70846,7 +70846,7 @@
         <v>8172.043010752688</v>
       </c>
       <c r="E5">
-        <v>8172.043010752688</v>
+        <v>8121.838709677419</v>
       </c>
       <c r="F5">
         <v>8172.043010752688</v>
@@ -70861,7 +70861,7 @@
         <v>8172.043010752688</v>
       </c>
       <c r="J5">
-        <v>8148.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="K5">
         <v>8172.043010752688</v>
@@ -70870,7 +70870,7 @@
         <v>8172.043010752688</v>
       </c>
       <c r="M5">
-        <v>7992.043010752688</v>
+        <v>8172.043010752688</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -70960,40 +70960,40 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>7641.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="C8">
-        <v>7632.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="D8">
-        <v>7696.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="E8">
-        <v>7713.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="F8">
-        <v>7668.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="G8">
-        <v>7710.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="H8">
-        <v>8037.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="I8">
-        <v>7890.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="J8">
-        <v>7732.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="K8">
-        <v>7928.043010752688</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="L8">
-        <v>7883.043010752688</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="M8">
-        <v>7872.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -71001,31 +71001,31 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>7881.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="C9">
-        <v>8079.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="D9">
-        <v>8087.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="E9">
-        <v>8112.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="F9">
-        <v>8121.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="G9">
-        <v>7936.838709677419</v>
+        <v>8121.838709677417</v>
       </c>
       <c r="H9">
-        <v>8127.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="I9">
-        <v>7965.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="J9">
-        <v>7938.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="K9">
         <v>8172.043010752688</v>
@@ -71042,16 +71042,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>8169.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="C10">
-        <v>7922.581093189964</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="D10">
         <v>8172.043010752688</v>
       </c>
       <c r="E10">
-        <v>7827.790089605734</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="F10">
         <v>8172.043010752688</v>
@@ -71060,13 +71060,13 @@
         <v>8172.043010752688</v>
       </c>
       <c r="H10">
-        <v>8166.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="I10">
-        <v>7806.575053763436</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="J10">
-        <v>8113.838709677419</v>
+        <v>8172.043010752688</v>
       </c>
       <c r="K10">
         <v>8172.043010752688</v>
@@ -71083,40 +71083,40 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>353</v>
+        <v>2402.728355561456</v>
       </c>
       <c r="C11">
-        <v>516</v>
+        <v>2589.542453176395</v>
       </c>
       <c r="D11">
-        <v>920</v>
+        <v>2847.817800716846</v>
       </c>
       <c r="E11">
-        <v>668</v>
+        <v>1922.039680764637</v>
       </c>
       <c r="F11">
-        <v>796</v>
+        <v>2405.074243993104</v>
       </c>
       <c r="G11">
-        <v>1058</v>
+        <v>2696.059113461264</v>
       </c>
       <c r="H11">
-        <v>1026</v>
+        <v>2549.867741689652</v>
       </c>
       <c r="I11">
-        <v>871</v>
+        <v>1917.850800499749</v>
       </c>
       <c r="J11">
-        <v>423</v>
+        <v>2110.729328552174</v>
       </c>
       <c r="K11">
-        <v>1588.118279569892</v>
+        <v>2039.550513739552</v>
       </c>
       <c r="L11">
-        <v>584</v>
+        <v>2369.030850922602</v>
       </c>
       <c r="M11">
-        <v>773</v>
+        <v>2112.752127675267</v>
       </c>
     </row>
   </sheetData>
@@ -71184,40 +71184,40 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>3394.608602150538</v>
+        <v>3418.460215053763</v>
       </c>
       <c r="D2">
-        <v>3467.212903225806</v>
+        <v>3470.38064516129</v>
       </c>
       <c r="E2">
-        <v>3359.008602150538</v>
+        <v>3357.808602150538</v>
       </c>
       <c r="F2">
-        <v>3268.712903225807</v>
+        <v>3523.651612903226</v>
       </c>
       <c r="G2">
-        <v>3063.521505376344</v>
+        <v>3657.067741935483</v>
       </c>
       <c r="H2">
-        <v>3099.221505376343</v>
+        <v>3381.612903225805</v>
       </c>
       <c r="I2">
         <v>3264.921505376344</v>
       </c>
       <c r="J2">
-        <v>3308.321505376344</v>
+        <v>3446.308602150538</v>
       </c>
       <c r="K2">
-        <v>3476.582795698925</v>
+        <v>3568.574193548387</v>
       </c>
       <c r="L2">
-        <v>3461.762365591398</v>
+        <v>3460.562365591398</v>
       </c>
       <c r="M2">
-        <v>3315.821505376344</v>
+        <v>3315.021505376344</v>
       </c>
       <c r="N2">
-        <v>3268.621505376344</v>
+        <v>3293.221505376344</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -71226,16 +71226,16 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>222.6516129032256</v>
+        <v>198.8</v>
       </c>
       <c r="D3">
-        <v>208.7677419354837</v>
+        <v>203.8</v>
       </c>
       <c r="E3">
-        <v>210.4129032258064</v>
+        <v>217</v>
       </c>
       <c r="F3">
-        <v>82.40860215053763</v>
+        <v>86.8</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -71247,10 +71247,10 @@
         <v>147.4</v>
       </c>
       <c r="J3">
-        <v>61.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K3">
-        <v>13.73870967741914</v>
+        <v>22.53870967741914</v>
       </c>
       <c r="L3">
         <v>111.7591397849461</v>
@@ -71259,7 +71259,7 @@
         <v>166.2</v>
       </c>
       <c r="N3">
-        <v>222.4</v>
+        <v>197.8</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -71268,31 +71268,31 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>924.1999999999999</v>
+        <v>911.7225806451615</v>
       </c>
       <c r="D4">
-        <v>811.1999999999999</v>
+        <v>802.8817204301077</v>
       </c>
       <c r="E4">
-        <v>1033.2</v>
+        <v>1020.025806451613</v>
       </c>
       <c r="F4">
-        <v>1469.8</v>
+        <v>951.1397849462371</v>
       </c>
       <c r="G4">
-        <v>2045</v>
+        <v>857.9075268817207</v>
       </c>
       <c r="H4">
-        <v>1806.8</v>
+        <v>1242.017204301075</v>
       </c>
       <c r="I4">
         <v>1347.4</v>
       </c>
       <c r="J4">
-        <v>1433</v>
+        <v>1130.625806451613</v>
       </c>
       <c r="K4">
-        <v>1191.4</v>
+        <v>989.8172043010753</v>
       </c>
       <c r="L4">
         <v>1025</v>
@@ -71310,13 +71310,13 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>13.32258064516172</v>
+        <v>25.8</v>
       </c>
       <c r="D5">
-        <v>8.881720430107817</v>
+        <v>20.80000000000001</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.400000000000004</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -71337,10 +71337,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -71357,34 +71357,34 @@
         <v>1262.2</v>
       </c>
       <c r="D6">
-        <v>990.8</v>
+        <v>1058.6</v>
       </c>
       <c r="E6">
-        <v>963.7</v>
+        <v>1151.536709677418</v>
       </c>
       <c r="F6">
-        <v>804.8812903225809</v>
+        <v>1205.742752688171</v>
       </c>
       <c r="G6">
-        <v>475.0337634408604</v>
+        <v>1094.619354838709</v>
       </c>
       <c r="H6">
-        <v>908.4086021505375</v>
+        <v>1229.367741935484</v>
       </c>
       <c r="I6">
-        <v>1220.9</v>
+        <v>1270.8</v>
       </c>
       <c r="J6">
-        <v>1019.7</v>
+        <v>1226.1</v>
       </c>
       <c r="K6">
-        <v>943</v>
+        <v>1071.4</v>
       </c>
       <c r="L6">
-        <v>977.6799999999999</v>
+        <v>1033.763290322581</v>
       </c>
       <c r="M6">
-        <v>1045.92</v>
+        <v>1083.308860215054</v>
       </c>
       <c r="N6">
         <v>1141.4</v>
@@ -71402,19 +71402,19 @@
         <v>77</v>
       </c>
       <c r="E7">
-        <v>84.19999999999999</v>
+        <v>47.46329032258173</v>
       </c>
       <c r="F7">
-        <v>62.53161290322559</v>
+        <v>51.70886021505449</v>
       </c>
       <c r="G7">
-        <v>29.08774193548373</v>
+        <v>55.59999999999999</v>
       </c>
       <c r="H7">
-        <v>39.6</v>
+        <v>51.2</v>
       </c>
       <c r="I7">
-        <v>74.59999999999999</v>
+        <v>74.59999999999991</v>
       </c>
       <c r="J7">
         <v>64.2</v>
@@ -71423,10 +71423,10 @@
         <v>44.2</v>
       </c>
       <c r="L7">
-        <v>81.31999999999999</v>
+        <v>53.13670967741841</v>
       </c>
       <c r="M7">
-        <v>88.28</v>
+        <v>69.4911397849456</v>
       </c>
       <c r="N7">
         <v>98.99999999999999</v>
@@ -71438,40 +71438,40 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>401.2</v>
+        <v>270</v>
       </c>
       <c r="D8">
-        <v>416.1999999999999</v>
+        <v>237.8</v>
       </c>
       <c r="E8">
-        <v>516.6</v>
+        <v>216.8</v>
       </c>
       <c r="F8">
-        <v>559.6</v>
+        <v>213.2</v>
       </c>
       <c r="G8">
-        <v>441.6</v>
+        <v>273.6967741935488</v>
       </c>
       <c r="H8">
-        <v>420.8000000000001</v>
+        <v>265.6645161290326</v>
       </c>
       <c r="I8">
-        <v>528.6</v>
+        <v>397.6</v>
       </c>
       <c r="J8">
-        <v>557.2</v>
+        <v>421.6</v>
       </c>
       <c r="K8">
-        <v>472.6</v>
+        <v>400.6</v>
       </c>
       <c r="L8">
-        <v>467</v>
+        <v>413.5999999999985</v>
       </c>
       <c r="M8">
-        <v>517.2</v>
+        <v>481.6</v>
       </c>
       <c r="N8">
-        <v>465.4</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -71524,40 +71524,40 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>2884.068946236559</v>
+        <v>3049.261290322581</v>
       </c>
       <c r="D10">
-        <v>2910.94502688172</v>
+        <v>2929.640860215054</v>
       </c>
       <c r="E10">
-        <v>3080.903136200716</v>
+        <v>2960.3</v>
       </c>
       <c r="F10">
-        <v>3358.706327956989</v>
+        <v>3210.42</v>
       </c>
       <c r="G10">
-        <v>3230.425724014337</v>
+        <v>3168.88</v>
       </c>
       <c r="H10">
-        <v>2875.2</v>
+        <v>2946.72</v>
       </c>
       <c r="I10">
-        <v>2677.4</v>
+        <v>2793.08</v>
       </c>
       <c r="J10">
-        <v>2898.245763440862</v>
+        <v>2895.8</v>
       </c>
       <c r="K10">
-        <v>2620.252731182796</v>
+        <v>2588.4</v>
       </c>
       <c r="L10">
-        <v>2542.3</v>
+        <v>2518.66</v>
       </c>
       <c r="M10">
-        <v>2618.2</v>
+        <v>2602.44</v>
       </c>
       <c r="N10">
-        <v>2664.976</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -71566,10 +71566,10 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>74.2</v>
+        <v>69.3387096774191</v>
       </c>
       <c r="D11">
-        <v>68</v>
+        <v>67.15913978494606</v>
       </c>
       <c r="E11">
         <v>94.59999999999999</v>
@@ -71581,16 +71581,16 @@
         <v>141.2</v>
       </c>
       <c r="H11">
-        <v>123.3387096774191</v>
+        <v>146.2</v>
       </c>
       <c r="I11">
-        <v>129.3591397849461</v>
+        <v>148.2</v>
       </c>
       <c r="J11">
-        <v>139.4129032258064</v>
+        <v>143.6</v>
       </c>
       <c r="K11">
-        <v>127.8086021505376</v>
+        <v>129</v>
       </c>
       <c r="L11">
         <v>129.4</v>
@@ -71599,7 +71599,7 @@
         <v>176</v>
       </c>
       <c r="N11">
-        <v>151.4</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -71608,40 +71608,40 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>451.7653333333335</v>
+        <v>378.3999999999996</v>
       </c>
       <c r="D12">
         <v>502.8</v>
       </c>
       <c r="E12">
-        <v>387.4</v>
+        <v>607.6</v>
       </c>
       <c r="F12">
-        <v>462.1519999999998</v>
+        <v>687.0000000000001</v>
       </c>
       <c r="G12">
-        <v>436.9679999999998</v>
+        <v>489</v>
       </c>
       <c r="H12">
-        <v>420.6</v>
+        <v>324.3599999999998</v>
       </c>
       <c r="I12">
-        <v>443</v>
+        <v>242.8399999999999</v>
       </c>
       <c r="J12">
-        <v>621.4666666666667</v>
+        <v>530.8</v>
       </c>
       <c r="K12">
         <v>734.8</v>
       </c>
       <c r="L12">
-        <v>347.2</v>
+        <v>391.2400000000009</v>
       </c>
       <c r="M12">
-        <v>386.2</v>
+        <v>415.5600000000006</v>
       </c>
       <c r="N12">
-        <v>600.6480000000001</v>
+        <v>490.5999999999992</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -71650,37 +71650,37 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>19.36</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>19.84</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="K13">
-        <v>13.2</v>
+        <v>18.8</v>
       </c>
       <c r="L13">
-        <v>8.800000000000001</v>
+        <v>12.64</v>
       </c>
       <c r="M13">
-        <v>20.4</v>
+        <v>22.96</v>
       </c>
       <c r="N13">
         <v>13.6</v>
@@ -71694,40 +71694,40 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>3199.86021505376</v>
+        <v>2988.659448552296</v>
       </c>
       <c r="D14">
-        <v>3197.942069892473</v>
+        <v>3115.390581426907</v>
       </c>
       <c r="E14">
-        <v>3044.029121863799</v>
+        <v>3032.38826236559</v>
       </c>
       <c r="F14">
-        <v>2919.945629032258</v>
+        <v>2955.424332616488</v>
       </c>
       <c r="G14">
-        <v>3034.670921146953</v>
+        <v>3033.883217841501</v>
       </c>
       <c r="H14">
-        <v>3045.321505376344</v>
+        <v>2936.956661819845</v>
       </c>
       <c r="I14">
-        <v>2877.860215053763</v>
+        <v>2797.415166923807</v>
       </c>
       <c r="J14">
-        <v>2875.640258064514</v>
+        <v>2806.691177429192</v>
       </c>
       <c r="K14">
-        <v>3170.966623655913</v>
+        <v>3084.75665591398</v>
       </c>
       <c r="L14">
-        <v>3213.38064516129</v>
+        <v>3175.956469534045</v>
       </c>
       <c r="M14">
-        <v>3100.921505376344</v>
+        <v>3075.70807447232</v>
       </c>
       <c r="N14">
-        <v>3054.821505376344</v>
+        <v>3014.17855325457</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -71867,7 +71867,7 @@
         <v>230</v>
       </c>
       <c r="D18">
-        <v>196.2</v>
+        <v>196.1999999999953</v>
       </c>
       <c r="E18">
         <v>342.2</v>
@@ -72098,40 +72098,40 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>43.68086021505369</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>117.206451612903</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>178.4107526881712</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>214.7064516129026</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>643.2674428662037</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>380.9304065961624</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>185.0348387096773</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>134.5608602150529</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>202.0955935319573</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>21.00010539277278</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>277.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>423.9277419354833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -72227,22 +72227,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.416129032257412</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3795698924730458</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.483483870968318</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>15.12038709677426</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -72251,10 +72251,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.41651612903167</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3796129032257411</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -72268,25 +72268,25 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>74.7</v>
       </c>
       <c r="D6">
-        <v>54.56614247311823</v>
+        <v>6.9</v>
       </c>
       <c r="E6">
-        <v>22.33815860215136</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.808361542546223</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>93.96989396654686</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>10.44109932961632</v>
+        <v>12.60000000000013</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.400000000000014</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -72301,7 +72301,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -72325,10 +72325,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>22.49999999999987</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.499999999999986</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -72352,40 +72352,40 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>229.2411111111114</v>
+        <v>86.62249110580063</v>
       </c>
       <c r="D8">
-        <v>122.3588888888887</v>
+        <v>413.1999999999999</v>
       </c>
       <c r="E8">
-        <v>284.4381557689376</v>
+        <v>527.3149663082418</v>
       </c>
       <c r="F8">
-        <v>30.36184423106234</v>
+        <v>485.4575068100371</v>
       </c>
       <c r="G8">
-        <v>384.7800000000002</v>
+        <v>408.5307526881724</v>
       </c>
       <c r="H8">
-        <v>423.6933333333332</v>
+        <v>491.4239326695865</v>
       </c>
       <c r="I8">
-        <v>42.32666666666665</v>
+        <v>304.311551201381</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>256.1199999999999</v>
       </c>
       <c r="K8">
-        <v>394.11</v>
+        <v>463.2561290322576</v>
       </c>
       <c r="L8">
-        <v>397.49</v>
+        <v>506.1989623655912</v>
       </c>
       <c r="M8">
-        <v>490.6</v>
+        <v>502.9457688172056</v>
       </c>
       <c r="N8">
-        <v>353.6</v>
+        <v>507.4566486791467</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -72394,40 +72394,40 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>7.416516129031672</v>
+        <v>21.6</v>
       </c>
       <c r="D9">
-        <v>12.84344086021563</v>
+        <v>2.4</v>
       </c>
       <c r="E9">
-        <v>1.360430107526954</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>20.34</v>
+        <v>69.11612903225742</v>
       </c>
       <c r="G9">
-        <v>28.35651612903169</v>
+        <v>7.679569892473046</v>
       </c>
       <c r="H9">
-        <v>2.899612903225743</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16.74</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>5.459999999999988</v>
+        <v>20.88387096774259</v>
       </c>
       <c r="L9">
-        <v>0.3999999999999986</v>
+        <v>2.320430107526954</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.18348387096833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -72513,7 +72513,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.13686837721616E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -72692,40 +72692,40 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>242.6388888888889</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>24.16111111111112</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>287.1418442310625</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>699.3781557689376</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>637.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>747.2556589172033</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>886.6243410827971</v>
+        <v>480.6160161290211</v>
       </c>
       <c r="K16">
-        <v>302.8500000000001</v>
+        <v>143.8309247311936</v>
       </c>
       <c r="L16">
-        <v>23.65000000000002</v>
+        <v>10.04768279570026</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>226.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -72778,40 +72778,40 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>788.6960430107504</v>
+        <v>550.1317891300509</v>
       </c>
       <c r="D18">
-        <v>849.8</v>
+        <v>833.8061778168653</v>
       </c>
       <c r="E18">
-        <v>641.8</v>
+        <v>763.9812792179603</v>
       </c>
       <c r="F18">
-        <v>469.6</v>
+        <v>441.8405212903235</v>
       </c>
       <c r="G18">
-        <v>497.2</v>
+        <v>658.0253938351287</v>
       </c>
       <c r="H18">
-        <v>521.6</v>
+        <v>594.6</v>
       </c>
       <c r="I18">
-        <v>483.1</v>
+        <v>517.6</v>
       </c>
       <c r="J18">
-        <v>657.3325763440855</v>
+        <v>522.0999999999999</v>
       </c>
       <c r="K18">
-        <v>623.4190387261064</v>
+        <v>752.0933749702453</v>
       </c>
       <c r="L18">
-        <v>582.4476322416357</v>
+        <v>517.9066250297547</v>
       </c>
       <c r="M18">
-        <v>339.2007526881724</v>
+        <v>816.7741935483849</v>
       </c>
       <c r="N18">
-        <v>593.3039569892496</v>
+        <v>620.0600000000002</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -72826,34 +72826,34 @@
         <v>127.74</v>
       </c>
       <c r="E19">
-        <v>82.86</v>
+        <v>137.9650645161274</v>
       </c>
       <c r="F19">
-        <v>34</v>
+        <v>153.0827849462364</v>
       </c>
       <c r="G19">
-        <v>180.8308888888889</v>
+        <v>56.86</v>
       </c>
       <c r="H19">
-        <v>19.76911111111111</v>
+        <v>96.75999999999998</v>
       </c>
       <c r="I19">
-        <v>278.46</v>
+        <v>193.1200000000002</v>
       </c>
       <c r="J19">
-        <v>30.94</v>
+        <v>20.32</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>260.081225806452</v>
+        <v>280.0549354838725</v>
       </c>
       <c r="M19">
-        <v>76.9946881720427</v>
+        <v>31.11721505376361</v>
       </c>
       <c r="N19">
-        <v>36.12408602150533</v>
+        <v>30.77999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -72862,34 +72862,34 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>172.4</v>
+        <v>594.0671545127354</v>
       </c>
       <c r="D20">
-        <v>400.1800000000002</v>
+        <v>148.0686877811708</v>
       </c>
       <c r="E20">
-        <v>105.0199999999998</v>
+        <v>138.4975784946257</v>
       </c>
       <c r="F20">
-        <v>355.4</v>
+        <v>131.5708802867376</v>
       </c>
       <c r="G20">
         <v>143.8</v>
       </c>
       <c r="H20">
-        <v>339.5675969214938</v>
+        <v>252.4406265144475</v>
       </c>
       <c r="I20">
-        <v>36.43240307850626</v>
+        <v>113.8468788668132</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.712494618739278</v>
       </c>
       <c r="K20">
-        <v>126</v>
+        <v>119.4547258064403</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>20.54527419355976</v>
       </c>
       <c r="M20">
         <v>71.60000000000001</v>
@@ -73012,40 +73012,40 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>3485.419354838709</v>
+        <v>3407.299571846838</v>
       </c>
       <c r="D2">
-        <v>3584.419354838709</v>
+        <v>3580.574910394265</v>
       </c>
       <c r="E2">
-        <v>3537.419354838709</v>
+        <v>3435.508602150538</v>
       </c>
       <c r="F2">
-        <v>3483.419354838709</v>
+        <v>3407.451612903225</v>
       </c>
       <c r="G2">
-        <v>3661.419354838709</v>
+        <v>3640.067741935484</v>
       </c>
       <c r="H2">
-        <v>3525.521505376344</v>
+        <v>3335.091612878643</v>
       </c>
       <c r="I2">
-        <v>3406.419354838709</v>
+        <v>3277.759032282647</v>
       </c>
       <c r="J2">
-        <v>3486.419354838709</v>
+        <v>3233.412607526888</v>
       </c>
       <c r="K2">
-        <v>3546.419354838709</v>
+        <v>3406.121505376344</v>
       </c>
       <c r="L2">
-        <v>3615.021505376344</v>
+        <v>3478.792661290316</v>
       </c>
       <c r="M2">
-        <v>3593.021505376344</v>
+        <v>3447.021505376344</v>
       </c>
       <c r="N2">
-        <v>3645.419354838709</v>
+        <v>3508.490033887929</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -73054,7 +73054,7 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>192</v>
+        <v>189.8978494623652</v>
       </c>
       <c r="D3">
         <v>93</v>
@@ -73069,10 +73069,10 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>151.8978494623652</v>
+        <v>190</v>
       </c>
       <c r="I3">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="J3">
         <v>191</v>
@@ -73087,7 +73087,7 @@
         <v>34</v>
       </c>
       <c r="N3">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -73182,40 +73182,40 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>1437</v>
+        <v>1336.9</v>
       </c>
       <c r="D6">
-        <v>893</v>
+        <v>896.8444444444444</v>
       </c>
       <c r="E6">
-        <v>1248</v>
+        <v>1320.192265232974</v>
       </c>
       <c r="F6">
-        <v>722.5215053763441</v>
+        <v>1187.874384707289</v>
       </c>
       <c r="G6">
-        <v>376.0215053763441</v>
+        <v>1045.799859285809</v>
       </c>
       <c r="H6">
-        <v>1196</v>
+        <v>1308.655605469267</v>
       </c>
       <c r="I6">
-        <v>1176</v>
+        <v>1272.2</v>
       </c>
       <c r="J6">
-        <v>927.9999999999998</v>
+        <v>1226.1</v>
       </c>
       <c r="K6">
-        <v>931.1021505376348</v>
+        <v>1071.4</v>
       </c>
       <c r="L6">
-        <v>881</v>
+        <v>1012.688551373955</v>
       </c>
       <c r="M6">
-        <v>958.5</v>
+        <v>1065.171143634675</v>
       </c>
       <c r="N6">
-        <v>1189.602150537635</v>
+        <v>1294.012455529007</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -73224,7 +73224,7 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>22.4193548387093</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>79</v>
@@ -73245,7 +73245,7 @@
         <v>77</v>
       </c>
       <c r="J7">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -73257,7 +73257,7 @@
         <v>91</v>
       </c>
       <c r="N7">
-        <v>140</v>
+        <v>98.99999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -73293,7 +73293,7 @@
         <v>777</v>
       </c>
       <c r="L8">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M8">
         <v>1038</v>
@@ -73311,7 +73311,7 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>19.00000000000001</v>
       </c>
       <c r="E9">
         <v>13</v>
@@ -73335,7 +73335,7 @@
         <v>13</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M9">
         <v>12</v>
@@ -73364,22 +73364,22 @@
         <v>3411</v>
       </c>
       <c r="G10">
-        <v>3105.602150537635</v>
+        <v>3090.5</v>
       </c>
       <c r="H10">
-        <v>2806</v>
+        <v>2751.602150537635</v>
       </c>
       <c r="I10">
-        <v>2648</v>
+        <v>2634.5</v>
       </c>
       <c r="J10">
-        <v>3316.521505376344</v>
+        <v>3326.5</v>
       </c>
       <c r="K10">
-        <v>2620</v>
+        <v>2532.5</v>
       </c>
       <c r="L10">
-        <v>2477</v>
+        <v>2477.5</v>
       </c>
       <c r="M10">
         <v>2699.5</v>
@@ -73400,7 +73400,7 @@
         <v>169</v>
       </c>
       <c r="E11">
-        <v>170.0215053763441</v>
+        <v>181</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -73522,40 +73522,40 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>2392.919354838709</v>
+        <v>2443.419354838709</v>
       </c>
       <c r="D14">
-        <v>2152.521505376344</v>
+        <v>2249.521505376344</v>
       </c>
       <c r="E14">
-        <v>2224.021505376344</v>
+        <v>2279.727849462364</v>
       </c>
       <c r="F14">
-        <v>2049.842150537635</v>
+        <v>2548.119354838709</v>
       </c>
       <c r="G14">
-        <v>1936.521505376344</v>
+        <v>2348</v>
       </c>
       <c r="H14">
-        <v>2175.021505376344</v>
+        <v>2294.221505376344</v>
       </c>
       <c r="I14">
-        <v>2232.188172043011</v>
+        <v>2345.521505376344</v>
       </c>
       <c r="J14">
-        <v>2067.5</v>
+        <v>2247</v>
       </c>
       <c r="K14">
         <v>2343.521505376344</v>
       </c>
       <c r="L14">
-        <v>2634.821505376344</v>
+        <v>2686.893655913979</v>
       </c>
       <c r="M14">
         <v>2222.521505376344</v>
       </c>
       <c r="N14">
-        <v>2251.314838709677</v>
+        <v>2420.021505376345</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -73570,13 +73570,13 @@
         <v>34</v>
       </c>
       <c r="E15">
-        <v>64</v>
+        <v>2.772150537636207</v>
       </c>
       <c r="F15">
-        <v>31.21935483870931</v>
+        <v>54</v>
       </c>
       <c r="G15">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>26</v>
@@ -73585,13 +73585,13 @@
         <v>51</v>
       </c>
       <c r="J15">
-        <v>82.02150537634407</v>
+        <v>85</v>
       </c>
       <c r="K15">
         <v>62</v>
       </c>
       <c r="L15">
-        <v>83.19999999999999</v>
+        <v>36.22784946236402</v>
       </c>
       <c r="M15">
         <v>242</v>
@@ -73606,40 +73606,40 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>835</v>
+        <v>719</v>
       </c>
       <c r="D16">
-        <v>1127</v>
+        <v>907</v>
       </c>
       <c r="E16">
-        <v>1082</v>
+        <v>1074.043010752688</v>
       </c>
       <c r="F16">
-        <v>1737.92</v>
+        <v>676.2043010752695</v>
       </c>
       <c r="G16">
-        <v>2049</v>
+        <v>585.2043010752695</v>
       </c>
       <c r="H16">
-        <v>1478</v>
+        <v>1093.6</v>
       </c>
       <c r="I16">
-        <v>1146.666666666667</v>
+        <v>851</v>
       </c>
       <c r="J16">
-        <v>1929</v>
+        <v>1245.043010752688</v>
       </c>
       <c r="K16">
         <v>1134</v>
       </c>
       <c r="L16">
-        <v>780</v>
+        <v>763.4000000000015</v>
       </c>
       <c r="M16">
         <v>1267</v>
       </c>
       <c r="N16">
-        <v>1360.413333333334</v>
+        <v>1022.999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -73648,19 +73648,19 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>12.20430107526954</v>
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>28.59999999999999</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -73669,13 +73669,13 @@
         <v>4</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K17">
         <v>22</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>9.400000000000006</v>
       </c>
       <c r="M17">
         <v>36</v>
@@ -73704,16 +73704,16 @@
         <v>816</v>
       </c>
       <c r="G18">
-        <v>836</v>
+        <v>1117.419354838709</v>
       </c>
       <c r="H18">
-        <v>953</v>
+        <v>1026</v>
       </c>
       <c r="I18">
-        <v>954.5</v>
+        <v>989</v>
       </c>
       <c r="J18">
-        <v>784</v>
+        <v>936.5</v>
       </c>
       <c r="K18">
         <v>935</v>
@@ -73776,7 +73776,7 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>231</v>
+        <v>210.2043010752695</v>
       </c>
       <c r="D20">
         <v>304</v>

--- a/Resultados/CEN01.xlsx
+++ b/Resultados/CEN01.xlsx
@@ -17095,7 +17095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17184,6 +17184,46 @@
           <t>Tempo total do trecho</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de movimentação de cheios</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de movimentação de vazios</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de VLSFO</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de MDO viagem</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de MDO porto</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de escala</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de depots</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -17206,7 +17246,7 @@
         <v>167.926627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4493329094321812</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G2" t="n">
         <v>333.0510752688174</v>
@@ -17233,13 +17273,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2775425627240145</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9768754721561957</v>
+        <v>28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2775865.080645163</v>
+      </c>
+      <c r="S2" t="n">
+        <v>637381.7849462369</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V2" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W2" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>714794.3952500004</v>
       </c>
     </row>
     <row r="3">
@@ -17263,7 +17327,7 @@
         <v>1259.179724</v>
       </c>
       <c r="F3" t="n">
-        <v>3.369274420565424</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G3" t="n">
         <v>810.6048387096773</v>
@@ -17290,13 +17354,37 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6755040322580644</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P3" t="n">
-        <v>0.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.294778452823488</v>
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5877301.493709677</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1354785.370967742</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V3" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W3" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X3" t="n">
+        <v>146205</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1681974.599080645</v>
       </c>
     </row>
     <row r="4">
@@ -17320,7 +17408,7 @@
         <v>478</v>
       </c>
       <c r="F4" t="n">
-        <v>1.27901771473432</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G4" t="n">
         <v>655.75</v>
@@ -17347,13 +17435,37 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.275925925925926</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2083333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.76327697399358</v>
+        <v>28</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6644602.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1230822</v>
+      </c>
+      <c r="T4" t="n">
+        <v>32433.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V4" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W4" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X4" t="n">
+        <v>61560</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>766803.2482499999</v>
       </c>
     </row>
     <row r="5">
@@ -17377,7 +17489,7 @@
         <v>1569</v>
       </c>
       <c r="F5" t="n">
-        <v>4.198281996690688</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G5" t="n">
         <v>345</v>
@@ -17404,13 +17516,37 @@
         <v>0.02421875</v>
       </c>
       <c r="O5" t="n">
-        <v>0.71875</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2083333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.125365330024021</v>
+        <v>28</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3238010</v>
+      </c>
+      <c r="S5" t="n">
+        <v>502938</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V5" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W5" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X5" t="n">
+        <v>92340</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>426119.85</v>
       </c>
     </row>
     <row r="6">
@@ -17434,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -17461,13 +17597,37 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33768561187916</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P6" t="n">
-        <v>0.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58768561187916</v>
+        <v>28</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V6" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W6" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1231200</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -17491,7 +17651,7 @@
         <v>1569</v>
       </c>
       <c r="F7" t="n">
-        <v>4.198281996690688</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G7" t="n">
         <v>971.0493553273009</v>
@@ -17518,13 +17678,37 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.361561187334371</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P7" t="n">
-        <v>0.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.809843184025059</v>
+        <v>28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5135635.918994712</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1503667.848005627</v>
+      </c>
+      <c r="T7" t="n">
+        <v>225142.5250639771</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V7" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W7" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1933139.880500689</v>
       </c>
     </row>
     <row r="8">
@@ -17548,7 +17732,7 @@
         <v>478</v>
       </c>
       <c r="F8" t="n">
-        <v>1.27901771473432</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G8" t="n">
         <v>127.225</v>
@@ -17575,13 +17759,37 @@
         <v>0.01036458333333314</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2389843749999998</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2083333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.726335423067654</v>
+        <v>28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>588648.4999999998</v>
+      </c>
+      <c r="S8" t="n">
+        <v>185939.7499999999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V8" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W8" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X8" t="n">
+        <v>92340</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>325349.3197499999</v>
       </c>
     </row>
     <row r="9">
@@ -17605,7 +17813,7 @@
         <v>1259.179724</v>
       </c>
       <c r="F9" t="n">
-        <v>3.369274420565424</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G9" t="n">
         <v>230.5</v>
@@ -17632,13 +17840,37 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3935185185185185</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2083333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.971126272417276</v>
+        <v>28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>870497.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>426650</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V9" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W9" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X9" t="n">
+        <v>61560</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>573939.1905</v>
       </c>
     </row>
     <row r="10">
@@ -17662,7 +17894,7 @@
         <v>167.926627</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4493329094321812</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -17689,13 +17921,37 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.972195315629748</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P10" t="n">
-        <v>0.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.671528225061929</v>
+        <v>28</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>227318.0304569158</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V10" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W10" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X10" t="n">
+        <v>146205</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -17719,7 +17975,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>18.59181408284523</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -17746,13 +18002,37 @@
         <v>0.2813100545516394</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3231850545516394</v>
+        <v>7.574852583821441</v>
       </c>
       <c r="P11" t="n">
-        <v>0.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5731850545516395</v>
+        <v>28</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3665477.286488719</v>
+      </c>
+      <c r="V11" t="n">
+        <v>276891.6054986306</v>
+      </c>
+      <c r="W11" t="n">
+        <v>200168.563573385</v>
+      </c>
+      <c r="X11" t="n">
+        <v>84645</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17766,7 +18046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17782,10 +18062,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Custo de movimentação de cheios</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de movimentação de vazios</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de estoque</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Custo do tipo de carga</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de escala csc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de depots</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de VLSFO</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Custo de MDO</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Custo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Resultado operacional</t>
         </is>
@@ -17799,10 +18119,34 @@
         <v>100522243.9733982</v>
       </c>
       <c r="C2" t="n">
-        <v>75235749.55611719</v>
+        <v>23368739.01567842</v>
       </c>
       <c r="D2" t="n">
-        <v>25286494.41728102</v>
+        <v>1939577.222083572</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4581.562786927146</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25688481.93332534</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14661909.14595488</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1908240.676288062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>75235749.55611721</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25286494.417281</v>
       </c>
     </row>
     <row r="3">
@@ -17813,9 +18157,33 @@
         <v>100921924.1396774</v>
       </c>
       <c r="C3" t="n">
+        <v>23002292.46594982</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1956557.544385446</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4720.092159700273</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25551005.18770968</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14646908.83087965</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1905969.070012362</v>
+      </c>
+      <c r="K3" t="n">
         <v>74731673.19109665</v>
       </c>
-      <c r="D3" t="n">
+      <c r="L3" t="n">
         <v>26190250.94858077</v>
       </c>
     </row>
@@ -17827,10 +18195,34 @@
         <v>104625867.0282487</v>
       </c>
       <c r="C4" t="n">
-        <v>77837691.89794701</v>
+        <v>24536357.64702509</v>
       </c>
       <c r="D4" t="n">
-        <v>26788175.13030173</v>
+        <v>1974805.150537634</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4047.343910394259</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27012666.25004301</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14728483.60351329</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1917111.902917604</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77837691.89794703</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26788175.13030171</v>
       </c>
     </row>
     <row r="5">
@@ -17841,9 +18233,33 @@
         <v>104218634.9247527</v>
       </c>
       <c r="C5" t="n">
+        <v>24693597.41075268</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1590121.329749104</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4055.474706093184</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27195902.56005161</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14707725.09767368</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1914525.233799447</v>
+      </c>
+      <c r="K5" t="n">
         <v>77770147.10673262</v>
       </c>
-      <c r="D5" t="n">
+      <c r="L5" t="n">
         <v>26448487.81802006</v>
       </c>
     </row>
@@ -17855,9 +18271,33 @@
         <v>101942705.8841338</v>
       </c>
       <c r="C6" t="n">
+        <v>23597601.4599761</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1640741.544802871</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4458.395317801668</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H6" t="n">
+        <v>26177275.47427778</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14663020.87870805</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1908404.274134332</v>
+      </c>
+      <c r="K6" t="n">
         <v>75655722.02721694</v>
       </c>
-      <c r="D6" t="n">
+      <c r="L6" t="n">
         <v>26286983.85691687</v>
       </c>
     </row>
@@ -17869,9 +18309,33 @@
         <v>102871579.4326362</v>
       </c>
       <c r="C7" t="n">
+        <v>23626266.1529581</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1896048.378012301</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4361.009934908619</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H7" t="n">
+        <v>26185874.80082468</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14694043.00846579</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1912738.654970317</v>
+      </c>
+      <c r="K7" t="n">
         <v>75983552.00516608</v>
       </c>
-      <c r="D7" t="n">
+      <c r="L7" t="n">
         <v>26888027.42747013</v>
       </c>
     </row>
@@ -17883,9 +18347,33 @@
         <v>103618866.081316</v>
       </c>
       <c r="C8" t="n">
+        <v>23631856.48276472</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1395194.205849816</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4440.978987875566</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26211657.86315884</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14658676.06413647</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1907761.313466112</v>
+      </c>
+      <c r="K8" t="n">
         <v>75473806.90836383</v>
       </c>
-      <c r="D8" t="n">
+      <c r="L8" t="n">
         <v>28145059.17295216</v>
       </c>
     </row>
@@ -17897,10 +18385,34 @@
         <v>102973540.5404032</v>
       </c>
       <c r="C9" t="n">
-        <v>76483270.84560394</v>
+        <v>24101260.977957</v>
       </c>
       <c r="D9" t="n">
-        <v>26490269.6947993</v>
+        <v>1621019.087684056</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4253.787414880692</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H9" t="n">
+        <v>26490000.82400646</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14690281.18790137</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1912234.98064018</v>
+      </c>
+      <c r="K9" t="n">
+        <v>76483270.84560393</v>
+      </c>
+      <c r="L9" t="n">
+        <v>26490269.69479932</v>
       </c>
     </row>
     <row r="10">
@@ -17911,10 +18423,34 @@
         <v>99534408.41935484</v>
       </c>
       <c r="C10" t="n">
-        <v>73603111.36959794</v>
+        <v>22304134.25806452</v>
       </c>
       <c r="D10" t="n">
-        <v>25931297.0497569</v>
+        <v>1922911.54924235</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4860.703242382892</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25163242.65419354</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14639019.70371202</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1904722.501143137</v>
+      </c>
+      <c r="K10" t="n">
+        <v>73603111.36959796</v>
+      </c>
+      <c r="L10" t="n">
+        <v>25931297.04975688</v>
       </c>
     </row>
     <row r="11">
@@ -17925,9 +18461,33 @@
         <v>101104455.9736586</v>
       </c>
       <c r="C11" t="n">
+        <v>22713903.06728195</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1663485.429121872</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4674.696596176823</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25764362.93209882</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14647528.83171294</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1906065.44966252</v>
+      </c>
+      <c r="K11" t="n">
         <v>74364240.40647428</v>
       </c>
-      <c r="D11" t="n">
+      <c r="L11" t="n">
         <v>26740215.56718434</v>
       </c>
     </row>
@@ -17939,10 +18499,34 @@
         <v>114245484.0999097</v>
       </c>
       <c r="C12" t="n">
-        <v>77184513.46468881</v>
+        <v>24023979.8106664</v>
       </c>
       <c r="D12" t="n">
-        <v>37060970.63522093</v>
+        <v>1817506.599661487</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4103.748663746181</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27041854.82870202</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14717133.3757822</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1915715.101212958</v>
+      </c>
+      <c r="K12" t="n">
+        <v>77184513.46468882</v>
+      </c>
+      <c r="L12" t="n">
+        <v>37060970.63522092</v>
       </c>
     </row>
     <row r="13">
@@ -17953,9 +18537,33 @@
         <v>102708391.7671341</v>
       </c>
       <c r="C13" t="n">
+        <v>23601552.19716175</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1713584.001880247</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4353.254107069631</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7664220</v>
+      </c>
+      <c r="H13" t="n">
+        <v>26468004.66825339</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14684139.85072328</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1911400.446845135</v>
+      </c>
+      <c r="K13" t="n">
         <v>76047254.41897087</v>
       </c>
-      <c r="D13" t="n">
+      <c r="L13" t="n">
         <v>26661137.34816328</v>
       </c>
     </row>
@@ -17978,7 +18586,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -17987,9 +18595,7 @@
           <t>TIR</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.08372223505485854</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -17997,9 +18603,7 @@
           <t>VPL</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>3.520399332046509e-07</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resultados/CEN01.xlsx
+++ b/Resultados/CEN01.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cenário 01 - 100% de market share</t>
+          <t>Cenário 01 - 100% de market share com navio de 3500</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235209.2491236351</v>
+        <v>214068.2679740207</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3453880310185538</v>
+        <v>0.3143440058355664</v>
       </c>
     </row>
   </sheetData>
@@ -607,13 +607,13 @@
         <v>5268</v>
       </c>
       <c r="D2" t="n">
-        <v>6599</v>
+        <v>6224.85194375517</v>
       </c>
       <c r="E2" t="n">
-        <v>6081</v>
+        <v>5974.629212835427</v>
       </c>
       <c r="F2" t="n">
-        <v>6040</v>
+        <v>6039.890405293631</v>
       </c>
       <c r="G2" t="n">
         <v>5550</v>
@@ -622,22 +622,22 @@
         <v>6018</v>
       </c>
       <c r="I2" t="n">
-        <v>6654.989388342465</v>
+        <v>5477.198097601324</v>
       </c>
       <c r="J2" t="n">
-        <v>6769.357465893382</v>
+        <v>5714.490405293631</v>
       </c>
       <c r="K2" t="n">
         <v>3581</v>
       </c>
       <c r="L2" t="n">
-        <v>6760.985302212357</v>
+        <v>6033.259403661956</v>
       </c>
       <c r="M2" t="n">
-        <v>6785.780542816459</v>
+        <v>6057.698097601324</v>
       </c>
       <c r="N2" t="n">
-        <v>6928.677913024605</v>
+        <v>5975.123387965732</v>
       </c>
     </row>
     <row r="3">
@@ -695,37 +695,37 @@
         <v>283</v>
       </c>
       <c r="D4" t="n">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="E4" t="n">
-        <v>341</v>
+        <v>316.8441112560484</v>
       </c>
       <c r="F4" t="n">
-        <v>341</v>
+        <v>171</v>
       </c>
       <c r="G4" t="n">
         <v>312</v>
       </c>
       <c r="H4" t="n">
-        <v>349</v>
+        <v>243.0055754679412</v>
       </c>
       <c r="I4" t="n">
-        <v>519.0581487527352</v>
+        <v>670</v>
       </c>
       <c r="J4" t="n">
-        <v>489</v>
+        <v>521.5703703703707</v>
       </c>
       <c r="K4" t="n">
         <v>377</v>
       </c>
       <c r="L4" t="n">
-        <v>632</v>
+        <v>369</v>
       </c>
       <c r="M4" t="n">
-        <v>627</v>
+        <v>374</v>
       </c>
       <c r="N4" t="n">
-        <v>518</v>
+        <v>456.3312018713104</v>
       </c>
     </row>
     <row r="5">
@@ -787,19 +787,19 @@
         <v>1509</v>
       </c>
       <c r="D6" t="n">
-        <v>1121</v>
+        <v>971.6153846153846</v>
       </c>
       <c r="E6" t="n">
         <v>1354</v>
       </c>
       <c r="F6" t="n">
-        <v>1444</v>
+        <v>1323.851597751836</v>
       </c>
       <c r="G6" t="n">
-        <v>1343</v>
+        <v>1116.313482216708</v>
       </c>
       <c r="H6" t="n">
-        <v>1465</v>
+        <v>1104</v>
       </c>
       <c r="I6" t="n">
         <v>1347</v>
@@ -808,16 +808,16 @@
         <v>1351</v>
       </c>
       <c r="K6" t="n">
-        <v>1595</v>
+        <v>1514.115384615385</v>
       </c>
       <c r="L6" t="n">
-        <v>1141.679855988717</v>
+        <v>1121.47715547783</v>
       </c>
       <c r="M6" t="n">
         <v>1136</v>
       </c>
       <c r="N6" t="n">
-        <v>1311.987245176469</v>
+        <v>1308.538461538461</v>
       </c>
     </row>
     <row r="7">
@@ -872,37 +872,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>518</v>
+        <v>427.1111111111111</v>
       </c>
       <c r="D8" t="n">
-        <v>467.0849671565897</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
-        <v>656</v>
+        <v>116.3703703703704</v>
       </c>
       <c r="F8" t="n">
-        <v>735</v>
+        <v>207.5185185185177</v>
       </c>
       <c r="G8" t="n">
-        <v>571.4254689487053</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>735</v>
+        <v>402</v>
       </c>
       <c r="I8" t="n">
         <v>358.5925925925926</v>
       </c>
       <c r="J8" t="n">
-        <v>278.9368190084421</v>
+        <v>325.9259259259259</v>
       </c>
       <c r="K8" t="n">
-        <v>630.1960782677008</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
         <v>267</v>
       </c>
       <c r="M8" t="n">
-        <v>247.9104911772991</v>
+        <v>59</v>
       </c>
       <c r="N8" t="n">
         <v>259</v>
@@ -1067,7 +1067,7 @@
         <v>297</v>
       </c>
       <c r="H12" t="n">
-        <v>542</v>
+        <v>510.8148148148148</v>
       </c>
       <c r="I12" t="n">
         <v>443</v>
@@ -1147,16 +1147,16 @@
         <v>4678</v>
       </c>
       <c r="D14" t="n">
-        <v>5176</v>
+        <v>5038.807692307692</v>
       </c>
       <c r="E14" t="n">
-        <v>5743.126696662613</v>
+        <v>5222.275020678247</v>
       </c>
       <c r="F14" t="n">
-        <v>5344.857465893381</v>
+        <v>4687.317385498096</v>
       </c>
       <c r="G14" t="n">
-        <v>5274.37717121588</v>
+        <v>4490.967328370554</v>
       </c>
       <c r="H14" t="n">
         <v>4371</v>
@@ -1165,13 +1165,13 @@
         <v>4761</v>
       </c>
       <c r="J14" t="n">
-        <v>5254</v>
+        <v>4184.159636062863</v>
       </c>
       <c r="K14" t="n">
         <v>3974</v>
       </c>
       <c r="L14" t="n">
-        <v>5472</v>
+        <v>5287.576923076923</v>
       </c>
       <c r="M14" t="n">
         <v>3715</v>
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>256</v>
+        <v>227.763811642566</v>
       </c>
       <c r="D15" t="n">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="E15" t="n">
-        <v>438</v>
+        <v>158</v>
       </c>
       <c r="F15" t="n">
-        <v>417</v>
+        <v>168</v>
       </c>
       <c r="G15" t="n">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c r="H15" t="n">
         <v>218</v>
@@ -1215,7 +1215,7 @@
         <v>156</v>
       </c>
       <c r="L15" t="n">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="M15" t="n">
         <v>242</v>
@@ -1232,40 +1232,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>774.8997819714045</v>
+        <v>241</v>
       </c>
       <c r="D16" t="n">
-        <v>516</v>
+        <v>209.4500199123857</v>
       </c>
       <c r="E16" t="n">
-        <v>26.42546894870544</v>
+        <v>367</v>
       </c>
       <c r="F16" t="n">
-        <v>317.9259259259259</v>
+        <v>373</v>
       </c>
       <c r="G16" t="n">
-        <v>342</v>
+        <v>282.2962962962963</v>
       </c>
       <c r="H16" t="n">
-        <v>1042.047930119553</v>
+        <v>379</v>
       </c>
       <c r="I16" t="n">
-        <v>673.1590412306638</v>
+        <v>387</v>
       </c>
       <c r="J16" t="n">
-        <v>683.2331153047379</v>
+        <v>730.2222222222222</v>
       </c>
       <c r="K16" t="n">
-        <v>1134</v>
+        <v>692</v>
       </c>
       <c r="L16" t="n">
-        <v>691</v>
+        <v>157.4870569494227</v>
       </c>
       <c r="M16" t="n">
-        <v>1267</v>
+        <v>574</v>
       </c>
       <c r="N16" t="n">
-        <v>743.9919175867764</v>
+        <v>555.8141821038624</v>
       </c>
     </row>
     <row r="17">
@@ -1324,40 +1324,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1473</v>
+        <v>1068</v>
       </c>
       <c r="D18" t="n">
-        <v>1080.972850508766</v>
+        <v>570</v>
       </c>
       <c r="E18" t="n">
-        <v>940.712013014806</v>
+        <v>531.8846153846154</v>
       </c>
       <c r="F18" t="n">
-        <v>1028.384615384615</v>
+        <v>920.1208285210663</v>
       </c>
       <c r="G18" t="n">
         <v>1127</v>
       </c>
       <c r="H18" t="n">
-        <v>1533</v>
+        <v>1228.544251447478</v>
       </c>
       <c r="I18" t="n">
-        <v>1465.269230769231</v>
+        <v>764.2365591397852</v>
       </c>
       <c r="J18" t="n">
         <v>967</v>
       </c>
       <c r="K18" t="n">
-        <v>1538</v>
+        <v>1249.159636062862</v>
       </c>
       <c r="L18" t="n">
-        <v>597.742081277997</v>
+        <v>420</v>
       </c>
       <c r="M18" t="n">
         <v>1383</v>
       </c>
       <c r="N18" t="n">
-        <v>1241</v>
+        <v>446.8141392626972</v>
       </c>
     </row>
     <row r="19">
@@ -1374,10 +1374,10 @@
         <v>261</v>
       </c>
       <c r="E19" t="n">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="F19" t="n">
-        <v>253</v>
+        <v>221.8881714874544</v>
       </c>
       <c r="G19" t="n">
         <v>343</v>
@@ -1412,10 +1412,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1424,28 +1424,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>71.72176524500159</v>
+        <v>68</v>
       </c>
       <c r="H20" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>113</v>
       </c>
       <c r="K20" t="n">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="L20" t="n">
         <v>14</v>
       </c>
       <c r="M20" t="n">
-        <v>206</v>
+        <v>176.8836466093431</v>
       </c>
       <c r="N20" t="n">
-        <v>30.27823475499842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1391.199999999999</v>
+        <v>741.428866832093</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1417.470151726886</v>
+        <v>1348.206776379648</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>738.8118721569933</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>809.1594982078846</v>
+        <v>170.1484893941081</v>
       </c>
       <c r="H3" t="n">
-        <v>460.7920908004771</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>548.236538834645</v>
+        <v>1542.445206750373</v>
       </c>
       <c r="L3" t="n">
-        <v>157.5298482731134</v>
+        <v>209.851510605892</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1666,22 +1666,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>627.8231374064408</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.61482305440768</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>569.0313401859074</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>990.7788321265639</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>565.3767234289915</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1102.500456420738</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>352.6784313070802</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>375.0666666666657</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>12.76752062742889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1710,22 +1710,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D5" t="n">
-        <v>35.74</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>122.86</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>94.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>34.68</v>
+        <v>221</v>
       </c>
       <c r="H5" t="n">
-        <v>79.72</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>117.8</v>
+        <v>235.0000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>17.93333333333333</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>32.06666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>583.2000000000007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>627.2732354636742</v>
+        <v>671.2876344086035</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>761.8817204301067</v>
+        <v>296.4666363903241</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>648.2603608478914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1988,16 +1988,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>17.55555555555557</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>132.4444444444444</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>149.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -2070,28 +2070,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>88.66666666666666</v>
+        <v>7.879012345679013</v>
       </c>
       <c r="D13" t="n">
-        <v>26.53333333333333</v>
+        <v>59.23209876543229</v>
       </c>
       <c r="E13" t="n">
-        <v>30.4</v>
+        <v>78.48888888888868</v>
       </c>
       <c r="F13" t="n">
         <v>28.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.444444444444445</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>35.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>19.2</v>
+        <v>70.2</v>
       </c>
       <c r="K13" t="n">
         <v>22.8</v>
@@ -2118,40 +2118,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>83.73004115226236</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.3836351414077</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>531.6911912749276</v>
       </c>
       <c r="F14" t="n">
-        <v>1027.280639341226</v>
+        <v>667.1795014633553</v>
       </c>
       <c r="G14" t="n">
-        <v>404.0228287841201</v>
+        <v>1003.317562177658</v>
       </c>
       <c r="H14" t="n">
-        <v>1179.108574579542</v>
+        <v>1075.725392886684</v>
       </c>
       <c r="I14" t="n">
-        <v>1428.558373311274</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1143.393879239041</v>
       </c>
       <c r="K14" t="n">
-        <v>1009.712938998673</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2054.261046193545</v>
+        <v>2082.913482216708</v>
       </c>
       <c r="N14" t="n">
-        <v>2529.92962962963</v>
+        <v>330.2284052142587</v>
       </c>
     </row>
     <row r="15">
@@ -3369,7 +3369,7 @@
         <v>788</v>
       </c>
       <c r="L18" t="n">
-        <v>1266.492307692308</v>
+        <v>1298</v>
       </c>
       <c r="M18" t="n">
         <v>451</v>
@@ -3561,7 +3561,7 @@
         <v>101</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M22" t="n">
         <v>35</v>
@@ -3739,13 +3739,13 @@
         <v>3778</v>
       </c>
       <c r="F26" t="n">
-        <v>4809</v>
+        <v>4434.85194375517</v>
       </c>
       <c r="G26" t="n">
-        <v>4344</v>
+        <v>4237.629212835427</v>
       </c>
       <c r="H26" t="n">
-        <v>4525</v>
+        <v>4524.890405293631</v>
       </c>
       <c r="I26" t="n">
         <v>4564</v>
@@ -3754,22 +3754,22 @@
         <v>4649</v>
       </c>
       <c r="K26" t="n">
-        <v>5223.989388342465</v>
+        <v>4046.198097601324</v>
       </c>
       <c r="L26" t="n">
-        <v>5031.865158201073</v>
+        <v>3945.490405293631</v>
       </c>
       <c r="M26" t="n">
         <v>2856</v>
       </c>
       <c r="N26" t="n">
-        <v>5590.985302212357</v>
+        <v>4863.259403661956</v>
       </c>
       <c r="O26" t="n">
-        <v>5768.780542816459</v>
+        <v>5040.698097601324</v>
       </c>
       <c r="P26" t="n">
-        <v>5703.677913024605</v>
+        <v>4750.123387965732</v>
       </c>
     </row>
     <row r="27">
@@ -3931,37 +3931,37 @@
         <v>144</v>
       </c>
       <c r="F30" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>186</v>
+        <v>161.8441112560484</v>
       </c>
       <c r="H30" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>170</v>
       </c>
       <c r="J30" t="n">
-        <v>192</v>
+        <v>90.00557546794126</v>
       </c>
       <c r="K30" t="n">
-        <v>33.05814875273521</v>
+        <v>184</v>
       </c>
       <c r="L30" t="n">
-        <v>200</v>
+        <v>192.5703703703707</v>
       </c>
       <c r="M30" t="n">
         <v>64</v>
       </c>
       <c r="N30" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>278</v>
+        <v>224.3312018713104</v>
       </c>
     </row>
     <row r="31">
@@ -4319,19 +4319,19 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4343,13 +4343,13 @@
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4540,7 +4540,7 @@
         <v>980</v>
       </c>
       <c r="M42" t="n">
-        <v>1264</v>
+        <v>1183.115384615385</v>
       </c>
       <c r="N42" t="n">
         <v>880</v>
@@ -4708,19 +4708,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>164</v>
+        <v>73.1111111111111</v>
       </c>
       <c r="F46" t="n">
         <v>133</v>
       </c>
       <c r="G46" t="n">
-        <v>148</v>
+        <v>94.88888888888889</v>
       </c>
       <c r="H46" t="n">
-        <v>241</v>
+        <v>191.8200570943602</v>
       </c>
       <c r="I46" t="n">
-        <v>63.4254689487053</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>402</v>
@@ -4729,16 +4729,16 @@
         <v>255</v>
       </c>
       <c r="L46" t="n">
-        <v>201.0108930825157</v>
+        <v>248</v>
       </c>
       <c r="M46" t="n">
-        <v>160.1960782677008</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>229</v>
       </c>
       <c r="O46" t="n">
-        <v>194.9104911772991</v>
+        <v>35.11111111111111</v>
       </c>
       <c r="P46" t="n">
         <v>212</v>
@@ -5683,19 +5683,19 @@
         <v>305</v>
       </c>
       <c r="F66" t="n">
-        <v>390</v>
+        <v>240.6153846153846</v>
       </c>
       <c r="G66" t="n">
         <v>326</v>
       </c>
       <c r="H66" t="n">
-        <v>359</v>
+        <v>238.8515977518364</v>
       </c>
       <c r="I66" t="n">
-        <v>327</v>
+        <v>100.3134822167082</v>
       </c>
       <c r="J66" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>391</v>
@@ -5707,13 +5707,13 @@
         <v>330</v>
       </c>
       <c r="N66" t="n">
-        <v>260.679855988717</v>
+        <v>240.4771554778299</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>166.9872451764688</v>
+        <v>163.5384615384615</v>
       </c>
     </row>
     <row r="67">
@@ -5875,25 +5875,25 @@
         <v>326</v>
       </c>
       <c r="F70" t="n">
-        <v>305.0849671565897</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>75.5925925925926</v>
       </c>
       <c r="L70" t="n">
-        <v>43.92592592592646</v>
+        <v>43.92592592592592</v>
       </c>
       <c r="M70" t="n">
         <v>440</v>
@@ -6263,19 +6263,19 @@
         <v>28</v>
       </c>
       <c r="F78" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>25</v>
+        <v>21.48148148148148</v>
       </c>
       <c r="H78" t="n">
-        <v>35</v>
+        <v>15.69846142415753</v>
       </c>
       <c r="I78" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>28</v>
@@ -6290,7 +6290,7 @@
         <v>37</v>
       </c>
       <c r="O78" t="n">
-        <v>53</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="P78" t="n">
         <v>47</v>
@@ -8219,7 +8219,7 @@
         <v>29</v>
       </c>
       <c r="J118" t="n">
-        <v>52</v>
+        <v>20.81481481481481</v>
       </c>
       <c r="K118" t="n">
         <v>29</v>
@@ -8410,13 +8410,13 @@
         <v>2078</v>
       </c>
       <c r="G122" t="n">
-        <v>3034.126696662613</v>
+        <v>2513.275020678247</v>
       </c>
       <c r="H122" t="n">
-        <v>2520.857465893382</v>
+        <v>1863.317385498096</v>
       </c>
       <c r="I122" t="n">
-        <v>2926.37717121588</v>
+        <v>2142.967328370554</v>
       </c>
       <c r="J122" t="n">
         <v>1983</v>
@@ -8425,7 +8425,7 @@
         <v>2438</v>
       </c>
       <c r="L122" t="n">
-        <v>3007</v>
+        <v>1937.159636062863</v>
       </c>
       <c r="M122" t="n">
         <v>2224</v>
@@ -8546,19 +8546,19 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>157</v>
+        <v>128.763811642566</v>
       </c>
       <c r="F125" t="n">
         <v>188</v>
       </c>
       <c r="G125" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>136</v>
@@ -8596,10 +8596,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>443.0108930825156</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -8611,25 +8611,25 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>849.6775597491823</v>
+        <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>673.1590412306638</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>691</v>
+        <v>153.9364441508562</v>
       </c>
       <c r="O126" t="n">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>659.3056544383836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8795,7 +8795,7 @@
         <v>689</v>
       </c>
       <c r="F130" t="n">
-        <v>1005</v>
+        <v>867.8076923076924</v>
       </c>
       <c r="G130" t="n">
         <v>1089</v>
@@ -8819,7 +8819,7 @@
         <v>576</v>
       </c>
       <c r="N130" t="n">
-        <v>1291</v>
+        <v>1106.576923076923</v>
       </c>
       <c r="O130" t="n">
         <v>704</v>
@@ -8937,7 +8937,7 @@
         <v>32</v>
       </c>
       <c r="F133" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>64</v>
@@ -8961,7 +8961,7 @@
         <v>27</v>
       </c>
       <c r="N133" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
         <v>62</v>
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>90.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>129</v>
+        <v>69.2962962962963</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>77.23311530473788</v>
+        <v>124.2222222222222</v>
       </c>
       <c r="M134" t="n">
         <v>70</v>
@@ -9375,22 +9375,22 @@
         <v>241</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>209.4500199123857</v>
       </c>
       <c r="G142" t="n">
-        <v>26.42546894870544</v>
+        <v>367</v>
       </c>
       <c r="H142" t="n">
-        <v>317.9259259259259</v>
+        <v>373</v>
       </c>
       <c r="I142" t="n">
         <v>213</v>
       </c>
       <c r="J142" t="n">
-        <v>192.3703703703704</v>
+        <v>379</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="L142" t="n">
         <v>606</v>
@@ -9399,13 +9399,13 @@
         <v>622</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>3.550612798566531</v>
       </c>
       <c r="O142" t="n">
         <v>461</v>
       </c>
       <c r="P142" t="n">
-        <v>84.68626314839275</v>
+        <v>555.8141821038624</v>
       </c>
     </row>
     <row r="143">
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
         <v>570</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>507</v>
+        <v>396.3519437551698</v>
       </c>
       <c r="K162" t="n">
-        <v>605</v>
+        <v>305.8519437551698</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>603</v>
+        <v>314.1596360628621</v>
       </c>
       <c r="N162" t="n">
         <v>420</v>
@@ -10381,7 +10381,7 @@
         <v>603</v>
       </c>
       <c r="P162" t="n">
-        <v>391</v>
+        <v>174.082712985939</v>
       </c>
     </row>
     <row r="163">
@@ -10496,10 +10496,10 @@
         <v>125</v>
       </c>
       <c r="G165" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>141</v>
+        <v>109.8881714874544</v>
       </c>
       <c r="I165" t="n">
         <v>220</v>
@@ -10540,10 +10540,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -10555,25 +10555,25 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N166" t="n">
         <v>14</v>
       </c>
       <c r="O166" t="n">
-        <v>46</v>
+        <v>16.88364660934312</v>
       </c>
       <c r="P166" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -10739,13 +10739,13 @@
         <v>388</v>
       </c>
       <c r="F170" t="n">
-        <v>363.957781906052</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>55.15384615384616</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>212.3846153846154</v>
+        <v>161.3131362133741</v>
       </c>
       <c r="I170" t="n">
         <v>291</v>
@@ -10754,7 +10754,7 @@
         <v>346</v>
       </c>
       <c r="K170" t="n">
-        <v>280</v>
+        <v>66.05342150876538</v>
       </c>
       <c r="L170" t="n">
         <v>183</v>
@@ -10769,7 +10769,7 @@
         <v>235</v>
       </c>
       <c r="P170" t="n">
-        <v>283</v>
+        <v>272.7314262767582</v>
       </c>
     </row>
     <row r="171">
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>3.721765245001599</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -11127,22 +11127,22 @@
         <v>680</v>
       </c>
       <c r="F178" t="n">
-        <v>147.0150686027142</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>885.5581668609598</v>
+        <v>531.8846153846154</v>
       </c>
       <c r="H178" t="n">
-        <v>816</v>
+        <v>758.8076923076923</v>
       </c>
       <c r="I178" t="n">
         <v>836</v>
       </c>
       <c r="J178" t="n">
-        <v>680</v>
+        <v>486.1923076923077</v>
       </c>
       <c r="K178" t="n">
-        <v>580.2692307692308</v>
+        <v>392.33119387585</v>
       </c>
       <c r="L178" t="n">
         <v>784</v>
@@ -11151,13 +11151,13 @@
         <v>695</v>
       </c>
       <c r="N178" t="n">
-        <v>177.742081277997</v>
+        <v>0</v>
       </c>
       <c r="O178" t="n">
         <v>545</v>
       </c>
       <c r="P178" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -11349,7 +11349,7 @@
         <v>78</v>
       </c>
       <c r="P182" t="n">
-        <v>11.27823475499849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -12699,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>687.1708577206746</v>
+        <v>741.428866832093</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -12729,10 +12729,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.4701517268866</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>170.1484893941081</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>157.5298482731134</v>
+        <v>209.851510605892</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>74.61482305440768</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -12777,10 +12777,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>990.7788321265639</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>48.91746416973226</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -12789,16 +12789,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>736.478909760815</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>352.6784313070802</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>375.0666666666657</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>12.76752062742889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -12813,16 +12813,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>35.74</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>43.52</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34.68</v>
+        <v>221</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -12834,16 +12834,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>31.46</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>17.93333333333333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>32.06666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -12949,13 +12949,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>627.8231374064408</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>569.0313401859074</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -12964,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>516.4592592592592</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -13088,7 +13088,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>828.4701517268863</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>34.7298482731137</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>267.8</v>
+        <v>422.9638116425659</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>366.0215466599229</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -13178,22 +13178,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>122.86</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>51.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>79.72</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>86.34</v>
+        <v>235.0000000000001</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>704.0291422793243</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -13272,7 +13272,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>589</v>
+        <v>1348.206776379648</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -13281,13 +13281,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>609.6118721569931</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>809.1594982078846</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>460.7920908004771</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -13296,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>280.436538834645</v>
+        <v>1119.481395107807</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -14342,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>213.0979459176422</v>
+        <v>671.2876344086035</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -14366,13 +14366,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>761.8817204301067</v>
+        <v>296.4666363903241</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>648.2603608478914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -14676,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -14942,16 +14942,16 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>17.55555555555557</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1.244444444444469</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>149.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -15026,13 +15026,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>79.39999999999999</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>24.86000000000002</v>
+        <v>78.48888888888868</v>
       </c>
       <c r="G57" t="n">
         <v>28.4</v>
@@ -15041,16 +15041,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>19.2</v>
+        <v>59.11111111111111</v>
       </c>
       <c r="L57" t="n">
-        <v>0.1400000000000053</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -15075,10 +15075,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>583.2000000000007</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>414.175289546032</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -15129,7 +15129,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>131.1999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -15210,31 +15210,31 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9.266666666666667</v>
+        <v>7.879012345679012</v>
       </c>
       <c r="E61" t="n">
-        <v>26.53333333333333</v>
+        <v>59.23209876543229</v>
       </c>
       <c r="F61" t="n">
-        <v>5.539999999999974</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.444444444444445</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>32.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>11.08888888888889</v>
       </c>
       <c r="L61" t="n">
-        <v>22.66</v>
+        <v>22.8</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>758.9277128602116</v>
+        <v>75.07301979553745</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -15999,40 +15999,40 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>83.73004115226236</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>200.3836351414077</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>531.6911912749276</v>
       </c>
       <c r="G78" t="n">
-        <v>1027.280639341226</v>
+        <v>667.1795014633553</v>
       </c>
       <c r="H78" t="n">
-        <v>404.0228287841201</v>
+        <v>1003.317562177658</v>
       </c>
       <c r="I78" t="n">
-        <v>1179.108574579542</v>
+        <v>1075.725392886684</v>
       </c>
       <c r="J78" t="n">
-        <v>1428.558373311274</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1143.393879239041</v>
       </c>
       <c r="L78" t="n">
-        <v>1009.712938998673</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1295.333333333333</v>
+        <v>2007.840462421171</v>
       </c>
       <c r="O78" t="n">
-        <v>2529.92962962963</v>
+        <v>330.2284052142587</v>
       </c>
     </row>
     <row r="79">
@@ -17292,19 +17292,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E2" t="n">
         <v>167.926627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3662516143896125</v>
+        <v>0.4047775947054293</v>
       </c>
       <c r="G2" t="n">
-        <v>442.25</v>
+        <v>359.3860628618693</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3685416666666667</v>
+        <v>0.2994883857182244</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -17325,13 +17325,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3685416666666667</v>
+        <v>0.2994883857182244</v>
       </c>
       <c r="P2" t="n">
         <v>0.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9847932810562792</v>
+        <v>0.9542659804236537</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -17340,28 +17340,28 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5163341.892499999</v>
+        <v>4217181.601690447</v>
       </c>
       <c r="U2" t="n">
-        <v>843255</v>
+        <v>687289.1335814723</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>97059.33892333893</v>
+        <v>91739.80291812283</v>
       </c>
       <c r="X2" t="n">
-        <v>5454.658543427377</v>
+        <v>6028.4336734669</v>
       </c>
       <c r="Y2" t="n">
-        <v>13160.0925</v>
+        <v>11690.91489454095</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>842581.76925</v>
+        <v>689570.9735000001</v>
       </c>
     </row>
     <row r="3">
@@ -17379,19 +17379,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E3" t="n">
         <v>1259.179724</v>
       </c>
       <c r="F3" t="n">
-        <v>2.746298278960052</v>
+        <v>3.035181192453573</v>
       </c>
       <c r="G3" t="n">
-        <v>1423.261982529888</v>
+        <v>1257.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.18605165210824</v>
+        <v>1.047916666666667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -17412,43 +17412,43 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18605165210824</v>
+        <v>1.047916666666667</v>
       </c>
       <c r="P3" t="n">
         <v>0.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.182349931068293</v>
+        <v>4.33309785912024</v>
       </c>
       <c r="R3" t="n">
-        <v>875.75</v>
+        <v>716.7721257237388</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2326992857142857</v>
+        <v>0.1904565934065935</v>
       </c>
       <c r="T3" t="n">
-        <v>16379832.17267299</v>
+        <v>14178389.5925</v>
       </c>
       <c r="U3" t="n">
-        <v>2244130.700377626</v>
+        <v>2026478.5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>727788.997971789</v>
+        <v>687901.0302413584</v>
       </c>
       <c r="X3" t="n">
-        <v>40901.16952820786</v>
+        <v>45203.56053544956</v>
       </c>
       <c r="Y3" t="n">
-        <v>30553.43495025492</v>
+        <v>27614.475</v>
       </c>
       <c r="Z3" t="n">
         <v>135000</v>
       </c>
       <c r="AA3" t="n">
-        <v>2611892.363911253</v>
+        <v>2386482.267</v>
       </c>
     </row>
     <row r="4">
@@ -17466,13 +17466,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E4" t="n">
         <v>478</v>
       </c>
       <c r="F4" t="n">
-        <v>1.042528363761125</v>
+        <v>1.152191845484964</v>
       </c>
       <c r="G4" t="n">
         <v>560.25</v>
@@ -17481,10 +17481,10 @@
         <v>0.51875</v>
       </c>
       <c r="I4" t="n">
-        <v>642.0925925925926</v>
+        <v>640.2980769230769</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5945301783264747</v>
+        <v>0.5928685897435898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -17499,19 +17499,19 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.113280178326475</v>
+        <v>1.11161858974359</v>
       </c>
       <c r="P4" t="n">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.364141875420933</v>
+        <v>2.472143768561887</v>
       </c>
       <c r="R4" t="n">
-        <v>3446.261982529888</v>
+        <v>3121.522125723739</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9157210410722274</v>
+        <v>0.829433021978022</v>
       </c>
       <c r="T4" t="n">
         <v>5888227.762499999</v>
@@ -17523,13 +17523,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276277.5911967552</v>
+        <v>261135.6315449766</v>
       </c>
       <c r="X4" t="n">
-        <v>15526.58342716719</v>
+        <v>17159.82359317667</v>
       </c>
       <c r="Y4" t="n">
-        <v>28118.64907407408</v>
+        <v>28083.29711538462</v>
       </c>
       <c r="Z4" t="n">
         <v>108000</v>
@@ -17553,13 +17553,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E5" t="n">
         <v>1569</v>
       </c>
       <c r="F5" t="n">
-        <v>3.42202301828704</v>
+        <v>3.781985367292696</v>
       </c>
       <c r="G5" t="n">
         <v>391.25</v>
@@ -17592,13 +17592,13 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.36499176828704</v>
+        <v>4.724954117292696</v>
       </c>
       <c r="R5" t="n">
-        <v>3283.169389937295</v>
+        <v>3008.675971877585</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8723850093261957</v>
+        <v>0.7994481868131869</v>
       </c>
       <c r="T5" t="n">
         <v>3632107.51</v>
@@ -17610,10 +17610,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>906860.9635726131</v>
+        <v>857158.5897365445</v>
       </c>
       <c r="X5" t="n">
-        <v>50964.87321595255</v>
+        <v>56325.86447216359</v>
       </c>
       <c r="Y5" t="n">
         <v>20062.603125</v>
@@ -17640,7 +17640,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -17655,10 +17655,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1860.919389937296</v>
+        <v>1614.087985938792</v>
       </c>
       <c r="J6" t="n">
-        <v>2.215380226115828</v>
+        <v>1.921533316593801</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -17673,19 +17673,19 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.215380226115828</v>
+        <v>1.921533316593801</v>
       </c>
       <c r="P6" t="n">
         <v>0.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.465380226115828</v>
+        <v>2.171533316593801</v>
       </c>
       <c r="R6" t="n">
-        <v>3336.419389937295</v>
+        <v>3061.925971877585</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8865342950404813</v>
+        <v>0.8135974725274726</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -17703,7 +17703,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>52453.42969084036</v>
+        <v>46201.5428438497</v>
       </c>
       <c r="Z6" t="n">
         <v>756000</v>
@@ -17727,19 +17727,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E7" t="n">
         <v>1569</v>
       </c>
       <c r="F7" t="n">
-        <v>3.42202301828704</v>
+        <v>3.781985367292696</v>
       </c>
       <c r="G7" t="n">
-        <v>1641</v>
+        <v>1614.501393866985</v>
       </c>
       <c r="H7" t="n">
-        <v>1.953571428571429</v>
+        <v>1.922025468889268</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -17748,10 +17748,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>276.4722035573672</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3291335756635324</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -17760,13 +17760,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.282705004234961</v>
+        <v>1.922025468889268</v>
       </c>
       <c r="P7" t="n">
         <v>0.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.954728022522001</v>
+        <v>5.954010836181965</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -17775,28 +17775,28 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>10705743.9</v>
+        <v>10579594.71215452</v>
       </c>
       <c r="U7" t="n">
-        <v>2491183</v>
+        <v>2453314.979291119</v>
       </c>
       <c r="V7" t="n">
-        <v>368832.0884108806</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>906860.9635726131</v>
+        <v>857158.5897365445</v>
       </c>
       <c r="X7" t="n">
-        <v>50964.87321595255</v>
+        <v>56325.86447216359</v>
       </c>
       <c r="Y7" t="n">
-        <v>53885.83167010303</v>
+        <v>46212.01387608807</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>3376095.138</v>
+        <v>3318047.865252091</v>
       </c>
     </row>
     <row r="8">
@@ -17814,19 +17814,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E8" t="n">
         <v>478</v>
       </c>
       <c r="F8" t="n">
-        <v>1.042528363761125</v>
+        <v>1.152191845484964</v>
       </c>
       <c r="G8" t="n">
-        <v>189.25</v>
+        <v>15.75</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1971354166666667</v>
+        <v>0.01640625</v>
       </c>
       <c r="I8" t="n">
         <v>65.5</v>
@@ -17841,49 +17841,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>12.22936604243306</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01273892296086777</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2781035062942011</v>
+        <v>0.08463541666666666</v>
       </c>
       <c r="P8" t="n">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.528965203388659</v>
+        <v>1.445160595484964</v>
       </c>
       <c r="R8" t="n">
-        <v>3584.670226257486</v>
+        <v>3166.501393866985</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9524980886912749</v>
+        <v>0.8413846560846562</v>
       </c>
       <c r="T8" t="n">
-        <v>784735.4475000002</v>
+        <v>91702.37</v>
       </c>
       <c r="U8" t="n">
-        <v>278463.5</v>
+        <v>29158.5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>276277.5911967552</v>
+        <v>261135.6315449766</v>
       </c>
       <c r="X8" t="n">
-        <v>15526.58342716719</v>
+        <v>17159.82359317667</v>
       </c>
       <c r="Y8" t="n">
-        <v>10349.43019991542</v>
+        <v>6233.203125</v>
       </c>
       <c r="Z8" t="n">
         <v>108000</v>
       </c>
       <c r="AA8" t="n">
-        <v>484251.7875</v>
+        <v>40128.95250000001</v>
       </c>
     </row>
     <row r="9">
@@ -17901,19 +17901,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E9" t="n">
         <v>1259.179724</v>
       </c>
       <c r="F9" t="n">
-        <v>2.746298278960052</v>
+        <v>3.035181192453573</v>
       </c>
       <c r="G9" t="n">
-        <v>304.25</v>
+        <v>296.4537037037037</v>
       </c>
       <c r="H9" t="n">
-        <v>0.281712962962963</v>
+        <v>0.2744941700960219</v>
       </c>
       <c r="I9" t="n">
         <v>246.5</v>
@@ -17922,55 +17922,55 @@
         <v>0.2282407407407407</v>
       </c>
       <c r="K9" t="n">
-        <v>46.38888888888887</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04295267489711933</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>129.1148148148148</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1195507544581619</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6724571330589849</v>
+        <v>0.5027349108367627</v>
       </c>
       <c r="P9" t="n">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.627088745352371</v>
+        <v>3.746249436623669</v>
       </c>
       <c r="R9" t="n">
-        <v>3763.440860215053</v>
+        <v>3093.751393866985</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0.8220539417989419</v>
       </c>
       <c r="T9" t="n">
-        <v>1665650.495</v>
+        <v>1625814.851296296</v>
       </c>
       <c r="U9" t="n">
-        <v>561077</v>
+        <v>545172.5555555555</v>
       </c>
       <c r="V9" t="n">
-        <v>64993.33333333331</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>727788.997971789</v>
+        <v>687901.0302413584</v>
       </c>
       <c r="X9" t="n">
-        <v>40901.16952820786</v>
+        <v>45203.56053544956</v>
       </c>
       <c r="Y9" t="n">
-        <v>18739.69796296296</v>
+        <v>15128.68796296296</v>
       </c>
       <c r="Z9" t="n">
         <v>108000</v>
       </c>
       <c r="AA9" t="n">
-        <v>755942.0992500001</v>
+        <v>737060.5533055556</v>
       </c>
     </row>
     <row r="10">
@@ -17988,13 +17988,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E10" t="n">
         <v>167.926627</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3662516143896125</v>
+        <v>0.4047775947054293</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -18003,37 +18003,37 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1680.75</v>
+        <v>1486.751393866985</v>
       </c>
       <c r="J10" t="n">
-        <v>1.400625</v>
+        <v>1.238959494889154</v>
       </c>
       <c r="K10" t="n">
-        <v>294.7771436448855</v>
+        <v>268.931348221671</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2456476197040713</v>
+        <v>0.2241094568513925</v>
       </c>
       <c r="M10" t="n">
-        <v>58.17999999999998</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04848333333333332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.694755953037405</v>
+        <v>1.463068951740547</v>
       </c>
       <c r="P10" t="n">
         <v>0.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.311007567427017</v>
+        <v>2.117846546445977</v>
       </c>
       <c r="R10" t="n">
-        <v>3757.964934289127</v>
+        <v>3125.705097570689</v>
       </c>
       <c r="S10" t="n">
-        <v>0.998544968253968</v>
+        <v>0.8305444973544975</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -18042,16 +18042,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>383210.2867383511</v>
+        <v>349610.7526881723</v>
       </c>
       <c r="W10" t="n">
-        <v>97059.33892333893</v>
+        <v>91739.80291812283</v>
       </c>
       <c r="X10" t="n">
-        <v>5454.658543427377</v>
+        <v>6028.4336734669</v>
       </c>
       <c r="Y10" t="n">
-        <v>41376.62765682382</v>
+        <v>36447.25501723189</v>
       </c>
       <c r="Z10" t="n">
         <v>135000</v>
@@ -18075,7 +18075,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19.10419645064945</v>
+        <v>17.28589448425026</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -18090,10 +18090,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>141.75</v>
+        <v>127.9537037037037</v>
       </c>
       <c r="J11" t="n">
-        <v>0.118125</v>
+        <v>0.1066280864197531</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -18102,25 +18102,25 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>418.1140552338936</v>
+        <v>268.931348221671</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3484283793615781</v>
+        <v>0.2241094568513925</v>
       </c>
       <c r="O11" t="n">
-        <v>0.466553379361578</v>
+        <v>0.3307375432711456</v>
       </c>
       <c r="P11" t="n">
         <v>0.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.716553379361578</v>
+        <v>0.5807375432711456</v>
       </c>
       <c r="R11" t="n">
-        <v>1092.589221578899</v>
+        <v>788.5664001470457</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2903165645909644</v>
+        <v>0.2095333577533579</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>15245.38969929693</v>
+        <v>12355.77197063689</v>
       </c>
       <c r="Z11" t="n">
         <v>108000</v>
@@ -18233,16 +18233,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>172464233.4195809</v>
+        <v>159178108.8951367</v>
       </c>
       <c r="C2" t="n">
-        <v>31037312.57928829</v>
+        <v>29363578.66246447</v>
       </c>
       <c r="D2" t="n">
-        <v>3737264.69504789</v>
+        <v>1889829.395575857</v>
       </c>
       <c r="E2" t="n">
-        <v>13409.56484604624</v>
+        <v>10518.44635118113</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -18251,22 +18251,22 @@
         <v>6264000</v>
       </c>
       <c r="H2" t="n">
-        <v>34436317.55642279</v>
+        <v>32749000.68256545</v>
       </c>
       <c r="I2" t="n">
-        <v>15919309.47594658</v>
+        <v>15262847.13450356</v>
       </c>
       <c r="J2" t="n">
-        <v>1990672.058818914</v>
+        <v>1960087.712141163</v>
       </c>
       <c r="K2" t="n">
         <v>16740000</v>
       </c>
       <c r="L2" t="n">
-        <v>110138285.9303705</v>
+        <v>104239862.0336017</v>
       </c>
       <c r="M2" t="n">
-        <v>62325947.48921037</v>
+        <v>54938246.86153498</v>
       </c>
     </row>
     <row r="3">
@@ -18274,16 +18274,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>176563302.9391265</v>
+        <v>160523430.8415522</v>
       </c>
       <c r="C3" t="n">
-        <v>31876481.73876656</v>
+        <v>28890158.79597464</v>
       </c>
       <c r="D3" t="n">
-        <v>1090246.640925132</v>
+        <v>1282436.685659937</v>
       </c>
       <c r="E3" t="n">
-        <v>13288.78413851123</v>
+        <v>10830.40274099355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -18292,22 +18292,22 @@
         <v>6264000</v>
       </c>
       <c r="H3" t="n">
-        <v>36401320.08573348</v>
+        <v>32151762.73825568</v>
       </c>
       <c r="I3" t="n">
-        <v>15504637.37199007</v>
+        <v>15106069.64327689</v>
       </c>
       <c r="J3" t="n">
-        <v>1972893.010436421</v>
+        <v>1950290.535545807</v>
       </c>
       <c r="K3" t="n">
         <v>16740000</v>
       </c>
       <c r="L3" t="n">
-        <v>109862867.6319902</v>
+        <v>102395548.8014539</v>
       </c>
       <c r="M3" t="n">
-        <v>66700435.30713628</v>
+        <v>58127882.04009828</v>
       </c>
     </row>
     <row r="4">
@@ -18315,16 +18315,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>181635090.5760965</v>
+        <v>162898144.3922016</v>
       </c>
       <c r="C4" t="n">
-        <v>32799055.33684186</v>
+        <v>29989044.22792058</v>
       </c>
       <c r="D4" t="n">
-        <v>979773.7628584114</v>
+        <v>823739.8819907389</v>
       </c>
       <c r="E4" t="n">
-        <v>12940.19306007572</v>
+        <v>10254.8136555655</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -18333,22 +18333,22 @@
         <v>6264000</v>
       </c>
       <c r="H4" t="n">
-        <v>36986266.19825631</v>
+        <v>33847329.30957194</v>
       </c>
       <c r="I4" t="n">
-        <v>15633246.38447976</v>
+        <v>15179162.34448289</v>
       </c>
       <c r="J4" t="n">
-        <v>1978873.778624572</v>
+        <v>1955038.460852619</v>
       </c>
       <c r="K4" t="n">
         <v>16740000</v>
       </c>
       <c r="L4" t="n">
-        <v>111394155.654121</v>
+        <v>104808569.0384743</v>
       </c>
       <c r="M4" t="n">
-        <v>70240934.92197551</v>
+        <v>58089575.3537273</v>
       </c>
     </row>
     <row r="5">
@@ -18356,16 +18356,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>184809767.6266214</v>
+        <v>166813380.5379614</v>
       </c>
       <c r="C5" t="n">
-        <v>33927842.57592758</v>
+        <v>31090533.01100283</v>
       </c>
       <c r="D5" t="n">
-        <v>2441640.235945159</v>
+        <v>1105042.685235695</v>
       </c>
       <c r="E5" t="n">
-        <v>12254.10976295102</v>
+        <v>9882.289132291098</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -18374,22 +18374,22 @@
         <v>6264000</v>
       </c>
       <c r="H5" t="n">
-        <v>38068000.64698179</v>
+        <v>34552794.33002692</v>
       </c>
       <c r="I5" t="n">
-        <v>16132754.95247064</v>
+        <v>15301958.2258466</v>
       </c>
       <c r="J5" t="n">
-        <v>1998424.710520638</v>
+        <v>1962324.657067673</v>
       </c>
       <c r="K5" t="n">
         <v>16740000</v>
       </c>
       <c r="L5" t="n">
-        <v>115584917.2316088</v>
+        <v>107026535.198312</v>
       </c>
       <c r="M5" t="n">
-        <v>69224850.3950126</v>
+        <v>59786845.33964941</v>
       </c>
     </row>
     <row r="6">
@@ -18397,16 +18397,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>177974268.2588907</v>
+        <v>160969722.5269442</v>
       </c>
       <c r="C6" t="n">
-        <v>32225861.86106132</v>
+        <v>29531171.58955979</v>
       </c>
       <c r="D6" t="n">
-        <v>2827573.179450861</v>
+        <v>1775646.760550856</v>
       </c>
       <c r="E6" t="n">
-        <v>12912.2567952043</v>
+        <v>10490.23932053871</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -18415,22 +18415,22 @@
         <v>6264000</v>
       </c>
       <c r="H6" t="n">
-        <v>36730443.71178365</v>
+        <v>33194327.53605735</v>
       </c>
       <c r="I6" t="n">
-        <v>15982382.42155973</v>
+        <v>15216135.63104353</v>
       </c>
       <c r="J6" t="n">
-        <v>1993044.664323546</v>
+        <v>1957316.149702254</v>
       </c>
       <c r="K6" t="n">
         <v>16740000</v>
       </c>
       <c r="L6" t="n">
-        <v>112776218.0949743</v>
+        <v>104689087.9062343</v>
       </c>
       <c r="M6" t="n">
-        <v>65198050.16391641</v>
+        <v>56280634.6207099</v>
       </c>
     </row>
     <row r="7">
@@ -18438,16 +18438,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>176878556.720692</v>
+        <v>160852073.6005651</v>
       </c>
       <c r="C7" t="n">
-        <v>32141398.80151051</v>
+        <v>29434616.67371259</v>
       </c>
       <c r="D7" t="n">
-        <v>3268142.833930261</v>
+        <v>1398443.010752689</v>
       </c>
       <c r="E7" t="n">
-        <v>12750.71373804525</v>
+        <v>10459.32665516762</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -18456,22 +18456,22 @@
         <v>6264000</v>
       </c>
       <c r="H7" t="n">
-        <v>36847085.31264502</v>
+        <v>33249195.12723059</v>
       </c>
       <c r="I7" t="n">
-        <v>16063895.13331597</v>
+        <v>15183480.43552802</v>
       </c>
       <c r="J7" t="n">
-        <v>1996007.023835126</v>
+        <v>1955308.517916834</v>
       </c>
       <c r="K7" t="n">
         <v>16740000</v>
       </c>
       <c r="L7" t="n">
-        <v>113333279.8189749</v>
+        <v>104235503.0917959</v>
       </c>
       <c r="M7" t="n">
-        <v>63545276.90171704</v>
+        <v>56616570.50876921</v>
       </c>
     </row>
     <row r="8">
@@ -18479,16 +18479,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>179542869.0038587</v>
+        <v>159423721.2985964</v>
       </c>
       <c r="C8" t="n">
-        <v>32287385.97939936</v>
+        <v>29296183.78206124</v>
       </c>
       <c r="D8" t="n">
-        <v>1872470.885304656</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12832.89627500141</v>
+        <v>10718.74164766218</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -18497,22 +18497,22 @@
         <v>6264000</v>
       </c>
       <c r="H8" t="n">
-        <v>36970472.9206637</v>
+        <v>33163454.16510267</v>
       </c>
       <c r="I8" t="n">
-        <v>15778382.863518</v>
+        <v>15008104.34293474</v>
       </c>
       <c r="J8" t="n">
-        <v>1985089.533229302</v>
+        <v>1943320.756688376</v>
       </c>
       <c r="K8" t="n">
         <v>16740000</v>
       </c>
       <c r="L8" t="n">
-        <v>111910635.07839</v>
+        <v>102425781.7884347</v>
       </c>
       <c r="M8" t="n">
-        <v>67632233.92546864</v>
+        <v>56997939.51016173</v>
       </c>
     </row>
     <row r="9">
@@ -18520,16 +18520,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>183587767.2786661</v>
+        <v>163602484.6321071</v>
       </c>
       <c r="C9" t="n">
-        <v>33667615.74857502</v>
+        <v>30860712.836504</v>
       </c>
       <c r="D9" t="n">
-        <v>26496</v>
+        <v>1584618.70967742</v>
       </c>
       <c r="E9" t="n">
-        <v>12583.80075084856</v>
+        <v>9912.549823381323</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -18538,22 +18538,22 @@
         <v>6264000</v>
       </c>
       <c r="H9" t="n">
-        <v>37922177.95896771</v>
+        <v>34156000.72551972</v>
       </c>
       <c r="I9" t="n">
-        <v>15613078.36723142</v>
+        <v>15349549.43541069</v>
       </c>
       <c r="J9" t="n">
-        <v>1977967.506336565</v>
+        <v>1964952.363428714</v>
       </c>
       <c r="K9" t="n">
         <v>16740000</v>
       </c>
       <c r="L9" t="n">
-        <v>112223919.3818616</v>
+        <v>106929746.6203639</v>
       </c>
       <c r="M9" t="n">
-        <v>71363847.89680459</v>
+        <v>56672738.01174316</v>
       </c>
     </row>
     <row r="10">
@@ -18561,16 +18561,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155309204.0089114</v>
+        <v>143518514.1990695</v>
       </c>
       <c r="C10" t="n">
-        <v>27509172.31348817</v>
+        <v>26010990.30355666</v>
       </c>
       <c r="D10" t="n">
-        <v>5246859.573298078</v>
+        <v>3177119.347978553</v>
       </c>
       <c r="E10" t="n">
-        <v>14789.45582154884</v>
+        <v>11886.20861587005</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -18579,22 +18579,22 @@
         <v>6264000</v>
       </c>
       <c r="H10" t="n">
-        <v>30383507.10715079</v>
+        <v>28940894.615</v>
       </c>
       <c r="I10" t="n">
-        <v>15720268.29972028</v>
+        <v>15094337.63960023</v>
       </c>
       <c r="J10" t="n">
-        <v>1982662.215044478</v>
+        <v>1949495.103032696</v>
       </c>
       <c r="K10" t="n">
         <v>16740000</v>
       </c>
       <c r="L10" t="n">
-        <v>103861258.9645234</v>
+        <v>98188723.217784</v>
       </c>
       <c r="M10" t="n">
-        <v>51447945.04438804</v>
+        <v>45329790.9812855</v>
       </c>
     </row>
     <row r="11">
@@ -18602,16 +18602,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>175306104.2218712</v>
+        <v>158175650.8375287</v>
       </c>
       <c r="C11" t="n">
-        <v>31223793.16901252</v>
+        <v>28226758.53926491</v>
       </c>
       <c r="D11" t="n">
-        <v>1691409.568291982</v>
+        <v>664959.6948626505</v>
       </c>
       <c r="E11" t="n">
-        <v>13211.19887942851</v>
+        <v>10936.85938639699</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -18620,22 +18620,22 @@
         <v>6264000</v>
       </c>
       <c r="H11" t="n">
-        <v>36603950.58425416</v>
+        <v>32561257.73101604</v>
       </c>
       <c r="I11" t="n">
-        <v>15690130.98847957</v>
+        <v>15035271.78292097</v>
       </c>
       <c r="J11" t="n">
-        <v>1981371.870598423</v>
+        <v>1945332.28331559</v>
       </c>
       <c r="K11" t="n">
         <v>16740000</v>
       </c>
       <c r="L11" t="n">
-        <v>110207867.3795161</v>
+        <v>101448516.8907665</v>
       </c>
       <c r="M11" t="n">
-        <v>65098236.84235515</v>
+        <v>56727133.94676216</v>
       </c>
     </row>
     <row r="12">
@@ -18643,16 +18643,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>177484557.6252677</v>
+        <v>161168011.9922698</v>
       </c>
       <c r="C12" t="n">
-        <v>32279764.58300646</v>
+        <v>29573669.70752094</v>
       </c>
       <c r="D12" t="n">
-        <v>3060622.311636984</v>
+        <v>2699529.494704211</v>
       </c>
       <c r="E12" t="n">
-        <v>12702.05763458011</v>
+        <v>10257.71535531726</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -18661,22 +18661,22 @@
         <v>6264000</v>
       </c>
       <c r="H12" t="n">
-        <v>36790633.11235973</v>
+        <v>33265289.28136196</v>
       </c>
       <c r="I12" t="n">
-        <v>16108774.09241142</v>
+        <v>15371121.60915905</v>
       </c>
       <c r="J12" t="n">
-        <v>1997591.187503754</v>
+        <v>1966111.599407198</v>
       </c>
       <c r="K12" t="n">
         <v>16740000</v>
       </c>
       <c r="L12" t="n">
-        <v>113254087.3445529</v>
+        <v>105889979.4075087</v>
       </c>
       <c r="M12" t="n">
-        <v>64230470.28071475</v>
+        <v>55278032.58476114</v>
       </c>
     </row>
     <row r="13">
@@ -18684,16 +18684,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>179815350.7468731</v>
+        <v>160073259.547327</v>
       </c>
       <c r="C13" t="n">
-        <v>32124541.2989671</v>
+        <v>28999429.83079439</v>
       </c>
       <c r="D13" t="n">
-        <v>4244015.615786473</v>
+        <v>429296.9267785363</v>
       </c>
       <c r="E13" t="n">
-        <v>12533.90958702521</v>
+        <v>10706.62066789264</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -18702,22 +18702,22 @@
         <v>6264000</v>
       </c>
       <c r="H13" t="n">
-        <v>36889447.68198991</v>
+        <v>33063192.68878782</v>
       </c>
       <c r="I13" t="n">
-        <v>16324546.66029053</v>
+        <v>15043785.72680348</v>
       </c>
       <c r="J13" t="n">
-        <v>2004791.46779814</v>
+        <v>1945949.524823009</v>
       </c>
       <c r="K13" t="n">
         <v>16740000</v>
       </c>
       <c r="L13" t="n">
-        <v>114603876.6344192</v>
+        <v>102496361.3186551</v>
       </c>
       <c r="M13" t="n">
-        <v>65211474.11245388</v>
+        <v>57576898.22867182</v>
       </c>
     </row>
     <row r="15">
@@ -19636,22 +19636,22 @@
         <v>680</v>
       </c>
       <c r="F18" t="n">
-        <v>147.0150686027142</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>885.5581668609598</v>
+        <v>531.8846153846154</v>
       </c>
       <c r="H18" t="n">
-        <v>816</v>
+        <v>758.8076923076923</v>
       </c>
       <c r="I18" t="n">
         <v>836</v>
       </c>
       <c r="J18" t="n">
-        <v>680</v>
+        <v>486.1923076923077</v>
       </c>
       <c r="K18" t="n">
-        <v>580.2692307692307</v>
+        <v>392.33119387585</v>
       </c>
       <c r="L18" t="n">
         <v>784</v>
@@ -19660,13 +19660,13 @@
         <v>695</v>
       </c>
       <c r="N18" t="n">
-        <v>177.742081277997</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>545</v>
       </c>
       <c r="P18" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -19858,7 +19858,7 @@
         <v>78</v>
       </c>
       <c r="P22" t="n">
-        <v>11.27823475499849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -20024,13 +20024,13 @@
         <v>388</v>
       </c>
       <c r="F26" t="n">
-        <v>363.957781906052</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>55.15384615384615</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>212.3846153846154</v>
+        <v>161.3131362133741</v>
       </c>
       <c r="I26" t="n">
         <v>291</v>
@@ -20039,7 +20039,7 @@
         <v>346</v>
       </c>
       <c r="K26" t="n">
-        <v>280</v>
+        <v>66.05342150876535</v>
       </c>
       <c r="L26" t="n">
         <v>183</v>
@@ -20054,7 +20054,7 @@
         <v>235</v>
       </c>
       <c r="P26" t="n">
-        <v>283</v>
+        <v>272.7314262767582</v>
       </c>
     </row>
     <row r="27">
@@ -20225,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.721765245001599</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -20409,7 +20409,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>570</v>
@@ -20424,16 +20424,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>507</v>
+        <v>396.3519437551698</v>
       </c>
       <c r="K34" t="n">
-        <v>605</v>
+        <v>305.8519437551698</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>603</v>
+        <v>314.1596360628621</v>
       </c>
       <c r="N34" t="n">
         <v>420</v>
@@ -20442,7 +20442,7 @@
         <v>603</v>
       </c>
       <c r="P34" t="n">
-        <v>391</v>
+        <v>174.082712985939</v>
       </c>
     </row>
     <row r="35">
@@ -20557,10 +20557,10 @@
         <v>125</v>
       </c>
       <c r="G37" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141</v>
+        <v>109.8881714874544</v>
       </c>
       <c r="I37" t="n">
         <v>220</v>
@@ -20601,10 +20601,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -20616,25 +20616,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>14</v>
       </c>
       <c r="O38" t="n">
-        <v>46</v>
+        <v>16.88364660934312</v>
       </c>
       <c r="P38" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -23712,22 +23712,22 @@
         <v>241</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>209.4500199123857</v>
       </c>
       <c r="G102" t="n">
-        <v>26.42546894870544</v>
+        <v>367</v>
       </c>
       <c r="H102" t="n">
-        <v>317.9259259259259</v>
+        <v>373</v>
       </c>
       <c r="I102" t="n">
         <v>213</v>
       </c>
       <c r="J102" t="n">
-        <v>192.3703703703704</v>
+        <v>379</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="L102" t="n">
         <v>606</v>
@@ -23736,13 +23736,13 @@
         <v>622</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>3.550612798566531</v>
       </c>
       <c r="O102" t="n">
         <v>461</v>
       </c>
       <c r="P102" t="n">
-        <v>84.68626314839278</v>
+        <v>555.8141821038625</v>
       </c>
     </row>
     <row r="103">
@@ -23908,7 +23908,7 @@
         <v>689</v>
       </c>
       <c r="F106" t="n">
-        <v>1005</v>
+        <v>867.8076923076923</v>
       </c>
       <c r="G106" t="n">
         <v>1089</v>
@@ -23932,7 +23932,7 @@
         <v>576</v>
       </c>
       <c r="N106" t="n">
-        <v>1291</v>
+        <v>1106.576923076923</v>
       </c>
       <c r="O106" t="n">
         <v>704</v>
@@ -24050,7 +24050,7 @@
         <v>32</v>
       </c>
       <c r="F109" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>64</v>
@@ -24074,7 +24074,7 @@
         <v>27</v>
       </c>
       <c r="N109" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
         <v>62</v>
@@ -24097,7 +24097,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>90.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -24109,7 +24109,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>129</v>
+        <v>69.29629629629629</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -24118,7 +24118,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>77.23311530473789</v>
+        <v>124.2222222222222</v>
       </c>
       <c r="M110" t="n">
         <v>70</v>
@@ -24299,13 +24299,13 @@
         <v>2078</v>
       </c>
       <c r="G114" t="n">
-        <v>3034.126696662613</v>
+        <v>2513.275020678247</v>
       </c>
       <c r="H114" t="n">
-        <v>2520.857465893382</v>
+        <v>1863.317385498096</v>
       </c>
       <c r="I114" t="n">
-        <v>2926.37717121588</v>
+        <v>2142.967328370554</v>
       </c>
       <c r="J114" t="n">
         <v>1983</v>
@@ -24314,7 +24314,7 @@
         <v>2438</v>
       </c>
       <c r="L114" t="n">
-        <v>3007</v>
+        <v>1937.159636062862</v>
       </c>
       <c r="M114" t="n">
         <v>2224</v>
@@ -24435,19 +24435,19 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>157</v>
+        <v>128.763811642566</v>
       </c>
       <c r="F117" t="n">
         <v>188</v>
       </c>
       <c r="G117" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
         <v>136</v>
@@ -24485,10 +24485,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>443.0108930825157</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -24500,25 +24500,25 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>849.6775597491824</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>673.1590412306638</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>691</v>
+        <v>153.9364441508562</v>
       </c>
       <c r="O118" t="n">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="P118" t="n">
-        <v>659.3056544383836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -32085,7 +32085,7 @@
         <v>980</v>
       </c>
       <c r="M274" t="n">
-        <v>1264</v>
+        <v>1183.115384615385</v>
       </c>
       <c r="N274" t="n">
         <v>880</v>
@@ -32253,19 +32253,19 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>164</v>
+        <v>73.11111111111111</v>
       </c>
       <c r="F278" t="n">
         <v>133</v>
       </c>
       <c r="G278" t="n">
-        <v>148</v>
+        <v>94.88888888888889</v>
       </c>
       <c r="H278" t="n">
-        <v>241</v>
+        <v>191.8200570943602</v>
       </c>
       <c r="I278" t="n">
-        <v>63.4254689487053</v>
+        <v>0</v>
       </c>
       <c r="J278" t="n">
         <v>402</v>
@@ -32274,16 +32274,16 @@
         <v>255</v>
       </c>
       <c r="L278" t="n">
-        <v>201.0108930825157</v>
+        <v>248</v>
       </c>
       <c r="M278" t="n">
-        <v>160.1960782677008</v>
+        <v>0</v>
       </c>
       <c r="N278" t="n">
         <v>229</v>
       </c>
       <c r="O278" t="n">
-        <v>194.9104911772991</v>
+        <v>35.11111111111111</v>
       </c>
       <c r="P278" t="n">
         <v>212</v>
@@ -41014,7 +41014,7 @@
         <v>788</v>
       </c>
       <c r="L458" t="n">
-        <v>1266.492307692308</v>
+        <v>1298</v>
       </c>
       <c r="M458" t="n">
         <v>451</v>
@@ -41206,7 +41206,7 @@
         <v>101</v>
       </c>
       <c r="L462" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M462" t="n">
         <v>35</v>
@@ -41384,13 +41384,13 @@
         <v>3778</v>
       </c>
       <c r="F466" t="n">
-        <v>4809</v>
+        <v>4434.851943755169</v>
       </c>
       <c r="G466" t="n">
-        <v>4344</v>
+        <v>4237.629212835427</v>
       </c>
       <c r="H466" t="n">
-        <v>4525</v>
+        <v>4524.890405293631</v>
       </c>
       <c r="I466" t="n">
         <v>4564</v>
@@ -41399,22 +41399,22 @@
         <v>4649</v>
       </c>
       <c r="K466" t="n">
-        <v>5223.989388342465</v>
+        <v>4046.198097601324</v>
       </c>
       <c r="L466" t="n">
-        <v>5031.865158201073</v>
+        <v>3945.490405293631</v>
       </c>
       <c r="M466" t="n">
         <v>2856</v>
       </c>
       <c r="N466" t="n">
-        <v>5590.985302212357</v>
+        <v>4863.259403661956</v>
       </c>
       <c r="O466" t="n">
-        <v>5768.780542816458</v>
+        <v>5040.698097601324</v>
       </c>
       <c r="P466" t="n">
-        <v>5703.677913024605</v>
+        <v>4750.123387965732</v>
       </c>
     </row>
     <row r="467">
@@ -41576,37 +41576,37 @@
         <v>144</v>
       </c>
       <c r="F470" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="G470" t="n">
-        <v>186</v>
+        <v>161.8441112560486</v>
       </c>
       <c r="H470" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>170</v>
       </c>
       <c r="J470" t="n">
-        <v>192</v>
+        <v>90.00557546794126</v>
       </c>
       <c r="K470" t="n">
-        <v>33.05814875273521</v>
+        <v>184</v>
       </c>
       <c r="L470" t="n">
-        <v>200</v>
+        <v>192.5703703703706</v>
       </c>
       <c r="M470" t="n">
         <v>64</v>
       </c>
       <c r="N470" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="O470" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="P470" t="n">
-        <v>278</v>
+        <v>224.3312018713106</v>
       </c>
     </row>
     <row r="471">
@@ -41964,19 +41964,19 @@
         <v>1</v>
       </c>
       <c r="F478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G478" t="n">
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
       <c r="J478" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K478" t="n">
         <v>0</v>
@@ -41988,13 +41988,13 @@
         <v>1</v>
       </c>
       <c r="N478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P478" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -45268,19 +45268,19 @@
         <v>305</v>
       </c>
       <c r="F546" t="n">
-        <v>390</v>
+        <v>240.6153846153846</v>
       </c>
       <c r="G546" t="n">
         <v>326</v>
       </c>
       <c r="H546" t="n">
-        <v>359</v>
+        <v>238.8515977518364</v>
       </c>
       <c r="I546" t="n">
-        <v>327</v>
+        <v>100.3134822167082</v>
       </c>
       <c r="J546" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="K546" t="n">
         <v>391</v>
@@ -45292,13 +45292,13 @@
         <v>330</v>
       </c>
       <c r="N546" t="n">
-        <v>260.6798559887169</v>
+        <v>240.4771554778294</v>
       </c>
       <c r="O546" t="n">
         <v>0</v>
       </c>
       <c r="P546" t="n">
-        <v>166.9872451764688</v>
+        <v>163.5384615384615</v>
       </c>
     </row>
     <row r="547">
@@ -45460,25 +45460,25 @@
         <v>326</v>
       </c>
       <c r="F550" t="n">
-        <v>305.0849671565898</v>
+        <v>0</v>
       </c>
       <c r="G550" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="H550" t="n">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="J550" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="K550" t="n">
         <v>75.5925925925926</v>
       </c>
       <c r="L550" t="n">
-        <v>43.92592592592646</v>
+        <v>43.92592592592592</v>
       </c>
       <c r="M550" t="n">
         <v>440</v>
@@ -45848,19 +45848,19 @@
         <v>28</v>
       </c>
       <c r="F558" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G558" t="n">
-        <v>25</v>
+        <v>21.48148148148148</v>
       </c>
       <c r="H558" t="n">
-        <v>35</v>
+        <v>15.69846142415753</v>
       </c>
       <c r="I558" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K558" t="n">
         <v>28</v>
@@ -45875,7 +45875,7 @@
         <v>37</v>
       </c>
       <c r="O558" t="n">
-        <v>53</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="P558" t="n">
         <v>47</v>
@@ -49744,7 +49744,7 @@
         <v>29</v>
       </c>
       <c r="J638" t="n">
-        <v>52</v>
+        <v>20.81481481481481</v>
       </c>
       <c r="K638" t="n">
         <v>29</v>
@@ -60886,7 +60886,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>758.9277128602116</v>
+        <v>75.07301979553745</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -62669,7 +62669,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -62703,7 +62703,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>213.0979459176422</v>
+        <v>671.2876344086035</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -62727,13 +62727,13 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>761.8817204301067</v>
+        <v>296.4666363903241</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>648.2603608478914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -68624,7 +68624,7 @@
         <v>0</v>
       </c>
       <c r="L226" t="n">
-        <v>687.1708577206746</v>
+        <v>741.428866832093</v>
       </c>
       <c r="M226" t="n">
         <v>0</v>
@@ -68654,10 +68654,10 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>94.4701517268866</v>
+        <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>170.1484893941081</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -68672,7 +68672,7 @@
         <v>0</v>
       </c>
       <c r="M227" t="n">
-        <v>157.5298482731134</v>
+        <v>209.851510605892</v>
       </c>
       <c r="N227" t="n">
         <v>0</v>
@@ -68693,7 +68693,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>74.61482305440768</v>
+        <v>0</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -68702,10 +68702,10 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>990.7788321265639</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>48.91746416973226</v>
+        <v>0</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -68714,16 +68714,16 @@
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>736.478909760815</v>
+        <v>0</v>
       </c>
       <c r="M228" t="n">
-        <v>352.6784313070802</v>
+        <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>375.0666666666657</v>
+        <v>0</v>
       </c>
       <c r="O228" t="n">
-        <v>12.76752062742889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -68738,16 +68738,16 @@
         <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>35.74</v>
+        <v>0</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>43.52</v>
+        <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>34.68</v>
+        <v>221</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -68759,16 +68759,16 @@
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>31.46</v>
+        <v>0</v>
       </c>
       <c r="M229" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>17.93333333333333</v>
+        <v>0</v>
       </c>
       <c r="O229" t="n">
-        <v>32.06666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -68874,13 +68874,13 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>627.8231374064408</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>569.0313401859074</v>
+        <v>0</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -68889,7 +68889,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>516.4592592592592</v>
+        <v>0</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -69013,7 +69013,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>828.4701517268863</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -69022,7 +69022,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>34.7298482731137</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -69037,7 +69037,7 @@
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>267.8</v>
+        <v>422.9638116425659</v>
       </c>
       <c r="M235" t="n">
         <v>0</v>
@@ -69082,7 +69082,7 @@
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>366.0215466599229</v>
+        <v>0</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
@@ -69103,22 +69103,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>122.86</v>
+        <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>51.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>79.72</v>
+        <v>0</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -69127,7 +69127,7 @@
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>86.34</v>
+        <v>235.0000000000001</v>
       </c>
       <c r="M237" t="n">
         <v>0</v>
@@ -69176,7 +69176,7 @@
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>704.0291422793243</v>
+        <v>0</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -69197,7 +69197,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>589</v>
+        <v>1348.206776379648</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
@@ -69206,13 +69206,13 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>609.6118721569931</v>
+        <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>809.1594982078846</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>460.7920908004771</v>
+        <v>0</v>
       </c>
       <c r="J239" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>0</v>
       </c>
       <c r="L239" t="n">
-        <v>280.436538834645</v>
+        <v>1119.481395107807</v>
       </c>
       <c r="M239" t="n">
         <v>0</v>
@@ -72707,16 +72707,16 @@
         <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>17.55555555555557</v>
       </c>
       <c r="G315" t="n">
-        <v>0</v>
+        <v>1.244444444444469</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>149.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="J315" t="n">
         <v>0</v>
@@ -72791,13 +72791,13 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>79.39999999999999</v>
+        <v>0</v>
       </c>
       <c r="E317" t="n">
         <v>0</v>
       </c>
       <c r="F317" t="n">
-        <v>24.86000000000002</v>
+        <v>78.48888888888868</v>
       </c>
       <c r="G317" t="n">
         <v>28.4</v>
@@ -72806,16 +72806,16 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J317" t="n">
         <v>0</v>
       </c>
       <c r="K317" t="n">
-        <v>19.2</v>
+        <v>59.11111111111111</v>
       </c>
       <c r="L317" t="n">
-        <v>0.1400000000000053</v>
+        <v>0</v>
       </c>
       <c r="M317" t="n">
         <v>0</v>
@@ -72840,10 +72840,10 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>583.2000000000007</v>
+        <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>414.175289546032</v>
+        <v>0</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>131.1999999999999</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -72975,31 +72975,31 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>9.266666666666667</v>
+        <v>7.879012345679013</v>
       </c>
       <c r="E321" t="n">
-        <v>26.53333333333333</v>
+        <v>59.23209876543229</v>
       </c>
       <c r="F321" t="n">
-        <v>5.539999999999974</v>
+        <v>0</v>
       </c>
       <c r="G321" t="n">
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>4.444444444444445</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
-        <v>32.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="J321" t="n">
         <v>0</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>11.08888888888889</v>
       </c>
       <c r="L321" t="n">
-        <v>22.66</v>
+        <v>22.8</v>
       </c>
       <c r="M321" t="n">
         <v>0</v>
@@ -74684,40 +74684,40 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>83.73004115226236</v>
+        <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>200.3836351414077</v>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>531.6911912749276</v>
       </c>
       <c r="G358" t="n">
-        <v>1027.280639341226</v>
+        <v>667.1795014633553</v>
       </c>
       <c r="H358" t="n">
-        <v>404.0228287841201</v>
+        <v>1003.317562177658</v>
       </c>
       <c r="I358" t="n">
-        <v>1179.108574579542</v>
+        <v>1075.725392886684</v>
       </c>
       <c r="J358" t="n">
-        <v>1428.558373311274</v>
+        <v>0</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>1143.393879239041</v>
       </c>
       <c r="L358" t="n">
-        <v>1009.712938998673</v>
+        <v>0</v>
       </c>
       <c r="M358" t="n">
         <v>0</v>
       </c>
       <c r="N358" t="n">
-        <v>1295.333333333333</v>
+        <v>2007.840462421171</v>
       </c>
       <c r="O358" t="n">
-        <v>2529.92962962963</v>
+        <v>330.2284052142587</v>
       </c>
     </row>
     <row r="359">
@@ -76890,25 +76890,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>767.4260360847895</v>
+        <v>771.4514882140875</v>
       </c>
       <c r="D2" t="n">
-        <v>83.41418741066821</v>
+        <v>711.9584154266613</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>468.2229784390425</v>
       </c>
       <c r="F2" t="n">
-        <v>265.3651582010743</v>
+        <v>130.8330127155679</v>
       </c>
       <c r="G2" t="n">
-        <v>1265.411370364878</v>
+        <v>397.8172870140617</v>
       </c>
       <c r="H2" t="n">
-        <v>1247.346854235846</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>350.3574658933821</v>
+        <v>57.05384615384537</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -76917,13 +76917,13 @@
         <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1163.108246174739</v>
+        <v>1324.070577360635</v>
       </c>
       <c r="M2" t="n">
-        <v>614.3508169754816</v>
+        <v>841.3848612143277</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>398.6184030197119</v>
       </c>
     </row>
     <row r="3">
@@ -76937,37 +76937,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>399</v>
+        <v>387.7055246570264</v>
       </c>
       <c r="E3" t="n">
-        <v>818.5999999999999</v>
+        <v>567.9055246570264</v>
       </c>
       <c r="F3" t="n">
-        <v>434.1881278430067</v>
+        <v>594.6384275494989</v>
       </c>
       <c r="G3" t="n">
-        <v>216.2286296351222</v>
+        <v>811.2452067503726</v>
       </c>
       <c r="H3" t="n">
-        <v>48.63653883464502</v>
+        <v>1042.845206750373</v>
       </c>
       <c r="I3" t="n">
-        <v>155.636538834645</v>
+        <v>1149.845206750373</v>
       </c>
       <c r="J3" t="n">
-        <v>336.236538834645</v>
+        <v>1330.445206750373</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>199.6701517268864</v>
+        <v>147.3484893941079</v>
       </c>
       <c r="M3" t="n">
-        <v>647.0701517268864</v>
+        <v>594.748489394108</v>
       </c>
       <c r="N3" t="n">
-        <v>1120.670151726886</v>
+        <v>1068.348489394108</v>
       </c>
     </row>
     <row r="4">
@@ -76978,40 +76978,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>751.5653567646493</v>
+        <v>11.66666666666669</v>
       </c>
       <c r="D4" t="n">
-        <v>1221.554890943248</v>
+        <v>156.9111111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>913.7235507573405</v>
+        <v>197.6003331883959</v>
       </c>
       <c r="F4" t="n">
-        <v>1059.123550757341</v>
+        <v>462.2479230005676</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>336.175945838312</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>456.1703703703707</v>
       </c>
       <c r="I4" t="n">
-        <v>735.5082998853361</v>
+        <v>272.9703703703707</v>
       </c>
       <c r="J4" t="n">
-        <v>863.578452227111</v>
+        <v>118.6</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>42.56186649051376</v>
       </c>
       <c r="M4" t="n">
-        <v>161.0796280397138</v>
+        <v>87.73329878312879</v>
       </c>
       <c r="N4" t="n">
-        <v>758.6596965462272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -77022,40 +77022,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29.4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>46.85999999999999</v>
+        <v>53.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>129.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>223.8</v>
       </c>
       <c r="G5" t="n">
-        <v>36.72000000000001</v>
+        <v>74.20000000000005</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>117.2</v>
       </c>
       <c r="I5" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M5" t="n">
         <v>40</v>
       </c>
-      <c r="J5" t="n">
-        <v>86</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7.466666666666669</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -77073,37 +77073,37 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>344.3746691436314</v>
+        <v>193.0692307692308</v>
       </c>
       <c r="E6" t="n">
-        <v>452.0500895983602</v>
+        <v>67.19230769230774</v>
       </c>
       <c r="F6" t="n">
-        <v>479.7423972906681</v>
+        <v>162.3285916684958</v>
       </c>
       <c r="G6" t="n">
-        <v>397.0962434445143</v>
+        <v>285.9403639371372</v>
       </c>
       <c r="H6" t="n">
-        <v>165.2962434445143</v>
+        <v>415.1403639371373</v>
       </c>
       <c r="I6" t="n">
-        <v>110.696243444514</v>
+        <v>232.1724168423966</v>
       </c>
       <c r="J6" t="n">
-        <v>25.09624344451407</v>
+        <v>60.99378544590286</v>
       </c>
       <c r="K6" t="n">
-        <v>136.550015393121</v>
+        <v>302.1643809794016</v>
       </c>
       <c r="L6" t="n">
-        <v>320.9872451764704</v>
+        <v>401.5762660309342</v>
       </c>
       <c r="M6" t="n">
-        <v>417.3872451764701</v>
+        <v>424.2070352617034</v>
       </c>
       <c r="N6" t="n">
-        <v>246.8000000000002</v>
+        <v>250.9074294892967</v>
       </c>
     </row>
     <row r="7">
@@ -77114,40 +77114,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51.72984827311342</v>
+        <v>61.60000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>48.72984827311342</v>
+        <v>38.2</v>
       </c>
       <c r="E7" t="n">
-        <v>53.92984827311341</v>
+        <v>29.8</v>
       </c>
       <c r="F7" t="n">
-        <v>109.1529848273113</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>47.2</v>
+        <v>81.73364045469731</v>
       </c>
       <c r="H7" t="n">
-        <v>2.400000000000006</v>
+        <v>53.94848939410807</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>51.54848939410803</v>
       </c>
       <c r="J7" t="n">
-        <v>13.2</v>
+        <v>64.74848939410802</v>
       </c>
       <c r="K7" t="n">
-        <v>17.4</v>
+        <v>68.94848939410801</v>
       </c>
       <c r="L7" t="n">
-        <v>141.9768634458021</v>
+        <v>184.2148489394108</v>
       </c>
       <c r="M7" t="n">
-        <v>101.3298482731134</v>
+        <v>111.2</v>
       </c>
       <c r="N7" t="n">
-        <v>60.32984827311341</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="8">
@@ -77158,40 +77158,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1420.914588546626</v>
+        <v>329.3851851851844</v>
       </c>
       <c r="D8" t="n">
-        <v>1156.938517694559</v>
+        <v>295.9851851851843</v>
       </c>
       <c r="E8" t="n">
-        <v>620</v>
+        <v>291.214814814814</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>198.6962962962963</v>
       </c>
       <c r="G8" t="n">
-        <v>504.3085391122032</v>
+        <v>344.674074074074</v>
       </c>
       <c r="H8" t="n">
-        <v>76.10084617561935</v>
+        <v>80.99259259259259</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>95.20305017440063</v>
+        <v>76.40740740740739</v>
       </c>
       <c r="K8" t="n">
-        <v>529.3312368133285</v>
+        <v>26.69629629629628</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.58971596579</v>
+        <v>137.8962962962954</v>
       </c>
       <c r="M8" t="n">
-        <v>1614.507067919198</v>
+        <v>536.8962962962954</v>
       </c>
       <c r="N8" t="n">
-        <v>1732.50450315055</v>
+        <v>605.8962962962954</v>
       </c>
     </row>
     <row r="9">
@@ -77202,40 +77202,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.260000000000002</v>
+        <v>53.2</v>
       </c>
       <c r="D9" t="n">
-        <v>5.226000000000001</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="F9" t="n">
-        <v>26.968</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>17.532</v>
+        <v>153.9</v>
       </c>
       <c r="H9" t="n">
-        <v>7.6</v>
+        <v>162.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.9</v>
+        <v>151</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K9" t="n">
-        <v>13.914</v>
+        <v>129.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="N9" t="n">
-        <v>22.05333333333333</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="10">
@@ -77250,40 +77250,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>375.0000000000009</v>
       </c>
       <c r="D10" t="n">
-        <v>253.5358056979539</v>
+        <v>496.3123655913969</v>
       </c>
       <c r="E10" t="n">
-        <v>886.6767332556155</v>
+        <v>858.443134822166</v>
       </c>
       <c r="F10" t="n">
-        <v>1103.1</v>
+        <v>899.0815963606274</v>
       </c>
       <c r="G10" t="n">
-        <v>663.6384615384613</v>
+        <v>436.7431348221652</v>
       </c>
       <c r="H10" t="n">
-        <v>968.4384615384615</v>
+        <v>625.25851943755</v>
       </c>
       <c r="I10" t="n">
-        <v>1367.4</v>
+        <v>833.9341588399832</v>
       </c>
       <c r="J10" t="n">
-        <v>1069.403076923077</v>
+        <v>479.6666363903235</v>
       </c>
       <c r="K10" t="n">
-        <v>1126.6</v>
+        <v>549.4666363903236</v>
       </c>
       <c r="L10" t="n">
-        <v>506.7635283366919</v>
+        <v>288.3999999999996</v>
       </c>
       <c r="M10" t="n">
-        <v>289.4603608478913</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>18.60000000000036</v>
       </c>
     </row>
     <row r="11">
@@ -77300,13 +77300,13 @@
         <v>7.400000000000006</v>
       </c>
       <c r="E11" t="n">
-        <v>44.99999999999997</v>
+        <v>27.4444444444444</v>
       </c>
       <c r="F11" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>168.8</v>
+        <v>18.80000000000004</v>
       </c>
       <c r="H11" t="n">
         <v>90.60000000000002</v>
@@ -77338,40 +77338,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>511.6053215691878</v>
+        <v>621.364794902429</v>
       </c>
       <c r="D12" t="n">
-        <v>273.7876353098319</v>
+        <v>446.4348068498605</v>
       </c>
       <c r="E12" t="n">
-        <v>252.1711228463716</v>
+        <v>200.8148148148148</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>61.01481481481483</v>
       </c>
       <c r="G12" t="n">
-        <v>49.17037037037039</v>
+        <v>132.2148148148148</v>
       </c>
       <c r="H12" t="n">
-        <v>238.6059259259259</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.59999999999997</v>
       </c>
       <c r="J12" t="n">
-        <v>192.4</v>
+        <v>387.8</v>
       </c>
       <c r="K12" t="n">
-        <v>501.1999999999999</v>
+        <v>712.5999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>438.1999999999999</v>
+        <v>651.7303676791398</v>
       </c>
       <c r="M12" t="n">
-        <v>220.5999999999999</v>
+        <v>435.5506127985665</v>
       </c>
       <c r="N12" t="n">
-        <v>134.1786987420347</v>
+        <v>625.039122060884</v>
       </c>
     </row>
     <row r="13">
@@ -77382,10 +77382,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.533333333333331</v>
+        <v>82.32098765432097</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>48.08888888888868</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -77394,13 +77394,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>20.15555555555556</v>
+        <v>24.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -77430,13 +77430,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>947.8648018972203</v>
+        <v>706.3126833304636</v>
       </c>
       <c r="D14" t="n">
-        <v>1102.86480189722</v>
+        <v>484.0017529036961</v>
       </c>
       <c r="E14" t="n">
-        <v>902.9381052346075</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -77445,25 +77445,25 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>203.8914254204581</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>48.52668511466368</v>
+        <v>422.1188585607943</v>
       </c>
       <c r="J14" t="n">
-        <v>932.2415353722927</v>
+        <v>109.3388254755992</v>
       </c>
       <c r="K14" t="n">
-        <v>569.8746596540491</v>
+        <v>322.1349875930509</v>
       </c>
       <c r="L14" t="n">
-        <v>512.0737545746942</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1276.747097351455</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>370.9287797690531</v>
+        <v>428.4479435287867</v>
       </c>
     </row>
     <row r="15">
@@ -77474,40 +77474,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>675.8231365541976</v>
+        <v>147.2</v>
       </c>
       <c r="D15" t="n">
-        <v>577.4701517268863</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>281.6701517268863</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>104.5270151726886</v>
+        <v>43.47555555555557</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>89.60000000000002</v>
       </c>
       <c r="H15" t="n">
-        <v>45.39999999999989</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>123.5999999999999</v>
+        <v>63.20000000000002</v>
       </c>
       <c r="J15" t="n">
-        <v>177.1999999999999</v>
+        <v>116.8</v>
       </c>
       <c r="K15" t="n">
-        <v>440.82</v>
+        <v>520.0674304783095</v>
       </c>
       <c r="L15" t="n">
-        <v>301</v>
+        <v>489.763811642566</v>
       </c>
       <c r="M15" t="n">
-        <v>203.8</v>
+        <v>392.563811642566</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>188.763811642566</v>
       </c>
     </row>
     <row r="16">
@@ -77518,40 +77518,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>372.9324807485241</v>
       </c>
       <c r="D16" t="n">
-        <v>209.4509802939538</v>
+        <v>619.4824608361384</v>
       </c>
       <c r="E16" t="n">
-        <v>1031.859498207884</v>
+        <v>617.3889275897675</v>
       </c>
       <c r="F16" t="n">
-        <v>1624.933572281958</v>
+        <v>576.3265720921869</v>
       </c>
       <c r="G16" t="n">
-        <v>2187.933572281958</v>
+        <v>662.0302757958906</v>
       </c>
       <c r="H16" t="n">
-        <v>1986.285642162406</v>
+        <v>683.6336210766553</v>
       </c>
       <c r="I16" t="n">
-        <v>1851.117045738938</v>
+        <v>759.1914068193873</v>
       </c>
       <c r="J16" t="n">
-        <v>1551.699782527888</v>
+        <v>468.7039994119801</v>
       </c>
       <c r="K16" t="n">
-        <v>1309.089544892189</v>
+        <v>335.7025179304989</v>
       </c>
       <c r="L16" t="n">
-        <v>1191.891699558181</v>
+        <v>559.4154609810762</v>
       </c>
       <c r="M16" t="n">
-        <v>399.691699558181</v>
+        <v>205.0154609810762</v>
       </c>
       <c r="N16" t="n">
-        <v>139.4997819714046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -77562,40 +77562,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>41.66</v>
+        <v>207.3111111111112</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>167.1111111111112</v>
       </c>
       <c r="E17" t="n">
-        <v>38.94800000000001</v>
+        <v>143.7511111111111</v>
       </c>
       <c r="F17" t="n">
-        <v>3.851999999999996</v>
+        <v>55.75999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="H17" t="n">
-        <v>43.44800000000001</v>
+        <v>15.8</v>
       </c>
       <c r="I17" t="n">
-        <v>35.92</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>58.35200000000001</v>
+        <v>196.0111111111111</v>
       </c>
       <c r="L17" t="n">
-        <v>47.40000000000001</v>
+        <v>199.9111111111112</v>
       </c>
       <c r="M17" t="n">
-        <v>10.2</v>
+        <v>162.7111111111112</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>152.5111111111112</v>
       </c>
     </row>
     <row r="18">
@@ -77610,40 +77610,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1081.7</v>
+        <v>193.4547283727325</v>
       </c>
       <c r="D18" t="n">
-        <v>636.377914197884</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>79.28343013768131</v>
+        <v>308.8758202769603</v>
       </c>
       <c r="F18" t="n">
-        <v>321.8513901601693</v>
+        <v>388.7856622004066</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>570.2894183066344</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>841.6297766749382</v>
       </c>
       <c r="I18" t="n">
-        <v>409.7441626688725</v>
+        <v>656.3657568238214</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1132.820248138958</v>
       </c>
       <c r="K18" t="n">
-        <v>252.1678731501972</v>
+        <v>245.8</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>641.2564161790538</v>
       </c>
       <c r="N18" t="n">
-        <v>1471.47</v>
+        <v>998.4318878513066</v>
       </c>
     </row>
     <row r="19">
@@ -77654,40 +77654,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>418.3000000000001</v>
+        <v>1287.06749384949</v>
       </c>
       <c r="D19" t="n">
-        <v>219.4</v>
+        <v>1164.088171487454</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1063.688171487454</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8506849412938</v>
+        <v>972.0799999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>758.0554205440892</v>
+        <v>646.1999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1063.084252085307</v>
+        <v>455.5999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>829.3634611653551</v>
+        <v>175.8</v>
       </c>
       <c r="J19" t="n">
-        <v>653.5634611653551</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>736.1563461165356</v>
+        <v>837.7332555970261</v>
       </c>
       <c r="L19" t="n">
-        <v>490</v>
+        <v>675.4813951078067</v>
       </c>
       <c r="M19" t="n">
-        <v>219</v>
+        <v>404.4813951078067</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>185.4813951078067</v>
       </c>
     </row>
     <row r="20">
@@ -77698,40 +77698,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>38.95555555555556</v>
       </c>
       <c r="D20" t="n">
-        <v>37.2</v>
+        <v>74.15555555555557</v>
       </c>
       <c r="E20" t="n">
-        <v>84.80000000000001</v>
+        <v>107.6444444444444</v>
       </c>
       <c r="F20" t="n">
-        <v>136.4</v>
+        <v>145.056113891532</v>
       </c>
       <c r="G20" t="n">
-        <v>123.8782347549984</v>
+        <v>109.135498461195</v>
       </c>
       <c r="H20" t="n">
-        <v>166.4782347549984</v>
+        <v>133.2243873500839</v>
       </c>
       <c r="I20" t="n">
-        <v>209.0782347549984</v>
+        <v>175.7503132760098</v>
       </c>
       <c r="J20" t="n">
-        <v>161.4782347549984</v>
+        <v>128.1503132760098</v>
       </c>
       <c r="K20" t="n">
-        <v>66.07823475499842</v>
+        <v>57.7503132760098</v>
       </c>
       <c r="L20" t="n">
-        <v>117.8782347549984</v>
+        <v>107.7503132760098</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2782347549984081</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>55.4</v>
+        <v>68.55555555555556</v>
       </c>
     </row>
     <row r="21">
@@ -77745,37 +77745,37 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>20.80666666666666</v>
+        <v>50.09679012345697</v>
       </c>
       <c r="E21" t="n">
-        <v>8.445999999999975</v>
+        <v>36.02000000000019</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>27.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>23.02</v>
       </c>
       <c r="H21" t="n">
-        <v>21.74444444444444</v>
+        <v>15.02</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>1.02</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>14.394</v>
+        <v>15.62888888888889</v>
       </c>
       <c r="L21" t="n">
-        <v>10.66</v>
+        <v>11.90888888888889</v>
       </c>
       <c r="M21" t="n">
-        <v>4.659999999999998</v>
+        <v>5.908888888888889</v>
       </c>
       <c r="N21" t="n">
-        <v>1.659999999999998</v>
+        <v>2.908888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -77897,40 +77897,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3296</v>
+        <v>2457</v>
       </c>
       <c r="C3" t="n">
-        <v>2703.945701017533</v>
+        <v>1666</v>
       </c>
       <c r="D3" t="n">
-        <v>2367.424026029612</v>
+        <v>1311.769230769231</v>
       </c>
       <c r="E3" t="n">
-        <v>2571.769230769231</v>
+        <v>2293.018000017041</v>
       </c>
       <c r="F3" t="n">
-        <v>3015.721765245002</v>
+        <v>3012</v>
       </c>
       <c r="G3" t="n">
-        <v>3503</v>
+        <v>2867.088502894955</v>
       </c>
       <c r="H3" t="n">
-        <v>3554.538461538462</v>
+        <v>2130.47311827957</v>
       </c>
       <c r="I3" t="n">
         <v>2444</v>
       </c>
       <c r="J3" t="n">
-        <v>3622</v>
+        <v>3019.319272125724</v>
       </c>
       <c r="K3" t="n">
-        <v>1777.484162555994</v>
+        <v>1422</v>
       </c>
       <c r="L3" t="n">
-        <v>3520</v>
+        <v>3490.883646609343</v>
       </c>
       <c r="M3" t="n">
-        <v>2953.278234754998</v>
+        <v>1334.628278525394</v>
       </c>
     </row>
     <row r="4">
@@ -77940,40 +77940,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13986.8997819714</v>
+        <v>12557.52762328513</v>
       </c>
       <c r="C4" t="n">
-        <v>14322.94570101753</v>
+        <v>12636.06540452777</v>
       </c>
       <c r="D4" t="n">
-        <v>14869.10288830354</v>
+        <v>12552.31927212572</v>
       </c>
       <c r="E4" t="n">
-        <v>14563.41008848192</v>
+        <v>12526.65277101323</v>
       </c>
       <c r="F4" t="n">
-        <v>14449.47610767676</v>
+        <v>12511.2309530374</v>
       </c>
       <c r="G4" t="n">
-        <v>13785.04793011955</v>
+        <v>12486.08850289495</v>
       </c>
       <c r="H4" t="n">
-        <v>14165.69750276912</v>
+        <v>12455.47311827957</v>
       </c>
       <c r="I4" t="n">
-        <v>14089.23311530474</v>
+        <v>11996.54149434795</v>
       </c>
       <c r="J4" t="n">
-        <v>13053</v>
+        <v>12008.31927212572</v>
       </c>
       <c r="K4" t="n">
-        <v>14127.48416255599</v>
+        <v>12681.64090310327</v>
       </c>
       <c r="L4" t="n">
-        <v>14279.85542572042</v>
+        <v>12190.02968620042</v>
       </c>
       <c r="M4" t="n">
-        <v>14056.27015234177</v>
+        <v>12249.44246062926</v>
       </c>
     </row>
     <row r="5">
@@ -77983,40 +77983,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13680.8997819714</v>
+        <v>12251.52762328513</v>
       </c>
       <c r="C5" t="n">
-        <v>14496.11145564739</v>
+        <v>13810.19065343259</v>
       </c>
       <c r="D5" t="n">
-        <v>14573.56108563292</v>
+        <v>12623.55004135649</v>
       </c>
       <c r="E5" t="n">
-        <v>14621.48416255599</v>
+        <v>12644.03738639785</v>
       </c>
       <c r="F5" t="n">
-        <v>14741.39918459984</v>
+        <v>12803.15402996048</v>
       </c>
       <c r="G5" t="n">
-        <v>13132.67755974918</v>
+        <v>12034.70388751034</v>
       </c>
       <c r="H5" t="n">
-        <v>13694.15904123066</v>
+        <v>11961.81073052787</v>
       </c>
       <c r="I5" t="n">
-        <v>14751.23311530474</v>
+        <v>12658.54149434795</v>
       </c>
       <c r="J5" t="n">
-        <v>13184</v>
+        <v>12139.31927212572</v>
       </c>
       <c r="K5" t="n">
-        <v>15053.76344086021</v>
+        <v>13029.02356308535</v>
       </c>
       <c r="L5" t="n">
-        <v>14531.85542572042</v>
+        <v>12442.02968620042</v>
       </c>
       <c r="M5" t="n">
-        <v>14432.82637613417</v>
+        <v>12003.62827852539</v>
       </c>
     </row>
     <row r="6">
@@ -78026,40 +78026,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14061.01089308252</v>
+        <v>12631.63873439624</v>
       </c>
       <c r="C6" t="n">
-        <v>13289.19589183528</v>
+        <v>13673.57526881721</v>
       </c>
       <c r="D6" t="n">
-        <v>14416.25339332523</v>
+        <v>12523.43893024538</v>
       </c>
       <c r="E6" t="n">
-        <v>14366.71493178676</v>
+        <v>12442.23117106546</v>
       </c>
       <c r="F6" t="n">
-        <v>14808.10288830354</v>
+        <v>12869.85773366419</v>
       </c>
       <c r="G6" t="n">
-        <v>13345.67755974918</v>
+        <v>12247.70388751034</v>
       </c>
       <c r="H6" t="n">
-        <v>13747.15904123066</v>
+        <v>12453.70388751034</v>
       </c>
       <c r="I6" t="n">
-        <v>14624.01089308252</v>
+        <v>12531.31927212572</v>
       </c>
       <c r="J6" t="n">
-        <v>14049.1960782677</v>
+        <v>12682.55004135649</v>
       </c>
       <c r="K6" t="n">
-        <v>14251.76344086021</v>
+        <v>12783.86971693151</v>
       </c>
       <c r="L6" t="n">
-        <v>14880.76591689772</v>
+        <v>12631.14079731153</v>
       </c>
       <c r="M6" t="n">
-        <v>14844.82637613417</v>
+        <v>12436.16542597188</v>
       </c>
     </row>
     <row r="7">
@@ -78112,40 +78112,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14669.76344086021</v>
+        <v>13997.4135527593</v>
       </c>
       <c r="C8" t="n">
-        <v>13808.35482305441</v>
+        <v>12804.70388751034</v>
       </c>
       <c r="D8" t="n">
-        <v>13519.89134018591</v>
+        <v>12591.1025369269</v>
       </c>
       <c r="E8" t="n">
-        <v>14479.22374431399</v>
+        <v>12736.78081058726</v>
       </c>
       <c r="F8" t="n">
-        <v>14089.77782854233</v>
+        <v>12007.29697878822</v>
       </c>
       <c r="G8" t="n">
-        <v>14338.68090502995</v>
+        <v>12666.00557546794</v>
       </c>
       <c r="H8" t="n">
-        <v>14391.03692543767</v>
+        <v>12186.39619520265</v>
       </c>
       <c r="I8" t="n">
-        <v>14438.71493178676</v>
+        <v>12361.55118095763</v>
       </c>
       <c r="J8" t="n">
-        <v>12901.17353409002</v>
+        <v>12604.74814716493</v>
       </c>
       <c r="K8" t="n">
-        <v>14902.30873227802</v>
+        <v>12921.2218285357</v>
       </c>
       <c r="L8" t="n">
-        <v>14661.56108563292</v>
+        <v>12559.39619520265</v>
       </c>
       <c r="M8" t="n">
-        <v>14484.1900133433</v>
+        <v>12470.57797780278</v>
       </c>
     </row>
     <row r="9">
@@ -78155,40 +78155,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15053.76344086021</v>
+        <v>14381.4135527593</v>
       </c>
       <c r="C9" t="n">
-        <v>14419.08496715659</v>
+        <v>12892.93465674111</v>
       </c>
       <c r="D9" t="n">
-        <v>14122.89134018591</v>
+        <v>12707.58401840838</v>
       </c>
       <c r="E9" t="n">
-        <v>15053.76344086021</v>
+        <v>12825.18246751509</v>
       </c>
       <c r="F9" t="n">
-        <v>14059.31899641577</v>
+        <v>11479.62696443342</v>
       </c>
       <c r="G9" t="n">
-        <v>15053.76344086021</v>
+        <v>12375.00557546794</v>
       </c>
       <c r="H9" t="n">
-        <v>14457.62951803026</v>
+        <v>12252.98878779524</v>
       </c>
       <c r="I9" t="n">
-        <v>14661.64085771269</v>
+        <v>12584.47710688356</v>
       </c>
       <c r="J9" t="n">
-        <v>11362.89290888786</v>
+        <v>11725.89041350075</v>
       </c>
       <c r="K9" t="n">
-        <v>14328.33031640215</v>
+        <v>12569.47311827957</v>
       </c>
       <c r="L9" t="n">
-        <v>13897.56108563292</v>
+        <v>12159.28508409154</v>
       </c>
       <c r="M9" t="n">
-        <v>14423.33031640215</v>
+        <v>12447.6549008797</v>
       </c>
     </row>
     <row r="10">
@@ -78198,40 +78198,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14871.00697012044</v>
+        <v>13579.29256510497</v>
       </c>
       <c r="C10" t="n">
-        <v>13964.96887958199</v>
+        <v>11643.16675550654</v>
       </c>
       <c r="D10" t="n">
-        <v>13076.26</v>
+        <v>12313.18401840838</v>
       </c>
       <c r="E10" t="n">
-        <v>14526.16344086021</v>
+        <v>12562.47135640398</v>
       </c>
       <c r="F10" t="n">
-        <v>15053.76344086021</v>
+        <v>12469.62696443342</v>
       </c>
       <c r="G10" t="n">
-        <v>15031.85973715651</v>
+        <v>12502.82039028276</v>
       </c>
       <c r="H10" t="n">
-        <v>14484.62951803026</v>
+        <v>12279.98878779524</v>
       </c>
       <c r="I10" t="n">
-        <v>13855.85624232807</v>
+        <v>11726.67710688356</v>
       </c>
       <c r="J10" t="n">
-        <v>11718.69290888786</v>
+        <v>12081.69041350074</v>
       </c>
       <c r="K10" t="n">
-        <v>14433.33031640215</v>
+        <v>12674.47311827957</v>
       </c>
       <c r="L10" t="n">
-        <v>14342.56108563292</v>
+        <v>12604.28508409154</v>
       </c>
       <c r="M10" t="n">
-        <v>14389.33031640215</v>
+        <v>12413.6549008797</v>
       </c>
     </row>
     <row r="11">
@@ -78241,40 +78241,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2874.126748971193</v>
+        <v>3057.292565104975</v>
       </c>
       <c r="C11" t="n">
-        <v>1372.883912425397</v>
+        <v>947.9993690482477</v>
       </c>
       <c r="D11" t="n">
-        <v>925.54</v>
+        <v>1979.863864031337</v>
       </c>
       <c r="E11" t="n">
-        <v>3941.785022996438</v>
+        <v>2243.457464350868</v>
       </c>
       <c r="F11" t="n">
-        <v>3226.809098428454</v>
+        <v>2771.635124355316</v>
       </c>
       <c r="G11" t="n">
-        <v>4370.356886315594</v>
+        <v>3154.265600588183</v>
       </c>
       <c r="H11" t="n">
-        <v>3878.116746622548</v>
+        <v>1021</v>
       </c>
       <c r="I11" t="n">
-        <v>867</v>
+        <v>3164.87664736697</v>
       </c>
       <c r="J11" t="n">
-        <v>4434.017240225284</v>
+        <v>2684.762790215614</v>
       </c>
       <c r="K11" t="n">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L11" t="n">
-        <v>3174.666666666667</v>
+        <v>4569.56981373123</v>
       </c>
       <c r="M11" t="n">
-        <v>5832.859259259259</v>
+        <v>1425.456810428517</v>
       </c>
     </row>
   </sheetData>
@@ -78356,40 +78356,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5970.6</v>
+        <v>5640.833085194376</v>
       </c>
       <c r="D2" t="n">
-        <v>5723.200000000001</v>
+        <v>5561.200000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>5976.276017997568</v>
+        <v>5663.765012406948</v>
       </c>
       <c r="F2" t="n">
-        <v>6305.365158201074</v>
+        <v>5702.500439570156</v>
       </c>
       <c r="G2" t="n">
-        <v>6550.046212163804</v>
+        <v>5816.984274298494</v>
       </c>
       <c r="H2" t="n">
-        <v>5999.935483870968</v>
+        <v>5620.182712985938</v>
       </c>
       <c r="I2" t="n">
-        <v>5758.000000000001</v>
+        <v>5534.251943755169</v>
       </c>
       <c r="J2" t="n">
-        <v>6419</v>
+        <v>5657.436559139785</v>
       </c>
       <c r="K2" t="n">
-        <v>6472.199999999999</v>
+        <v>5822.428866832093</v>
       </c>
       <c r="L2" t="n">
-        <v>5738.400000000001</v>
+        <v>5590.510008271299</v>
       </c>
       <c r="M2" t="n">
         <v>5477.8</v>
       </c>
       <c r="N2" t="n">
-        <v>5655</v>
+        <v>5524.849627791563</v>
       </c>
     </row>
     <row r="3">
@@ -78400,22 +78400,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>488.8</v>
+        <v>471.8582869855396</v>
       </c>
       <c r="D3" t="n">
-        <v>510</v>
+        <v>498.7055246570264</v>
       </c>
       <c r="E3" t="n">
-        <v>581.5999999999999</v>
+        <v>342.2</v>
       </c>
       <c r="F3" t="n">
-        <v>588.4000000000001</v>
+        <v>260.7329028924726</v>
       </c>
       <c r="G3" t="n">
-        <v>607.2</v>
+        <v>402.7552685949818</v>
       </c>
       <c r="H3" t="n">
-        <v>483.2</v>
+        <v>421.6</v>
       </c>
       <c r="I3" t="n">
         <v>384</v>
@@ -78444,40 +78444,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>903.7287976248629</v>
+        <v>294.6666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>819.6043572330062</v>
+        <v>275.2444444444444</v>
       </c>
       <c r="E4" t="n">
-        <v>602.2</v>
+        <v>357.5333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>486.4</v>
+        <v>435.6475898121717</v>
       </c>
       <c r="G4" t="n">
-        <v>243.6552813692232</v>
+        <v>185.9280228377441</v>
       </c>
       <c r="H4" t="n">
-        <v>914.3767234289915</v>
+        <v>363</v>
       </c>
       <c r="I4" t="n">
-        <v>1254.566448638071</v>
+        <v>486.8</v>
       </c>
       <c r="J4" t="n">
-        <v>617.0701523417749</v>
+        <v>367.2</v>
       </c>
       <c r="K4" t="n">
-        <v>615.9220041936268</v>
+        <v>258.4</v>
       </c>
       <c r="L4" t="n">
-        <v>984.6784313070802</v>
+        <v>411.5618664905138</v>
       </c>
       <c r="M4" t="n">
-        <v>1163.146294706379</v>
+        <v>419.1714322926151</v>
       </c>
       <c r="N4" t="n">
-        <v>1128.34758913395</v>
+        <v>368.5979030881816</v>
       </c>
     </row>
     <row r="5">
@@ -78536,40 +78536,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1262.2</v>
+        <v>1258.092570510703</v>
       </c>
       <c r="D6" t="n">
-        <v>1465.374669143632</v>
+        <v>1164.684615384615</v>
       </c>
       <c r="E6" t="n">
-        <v>1461.675420454729</v>
+        <v>1228.123076923077</v>
       </c>
       <c r="F6" t="n">
-        <v>1471.692307692308</v>
+        <v>1418.987881728024</v>
       </c>
       <c r="G6" t="n">
-        <v>1260.353846153846</v>
+        <v>1239.92525448535</v>
       </c>
       <c r="H6" t="n">
         <v>1233.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1292.4</v>
+        <v>1164.032052905259</v>
       </c>
       <c r="J6" t="n">
-        <v>1265.4</v>
+        <v>1179.821368603506</v>
       </c>
       <c r="K6" t="n">
         <v>1088</v>
       </c>
       <c r="L6" t="n">
-        <v>1257.4</v>
+        <v>1146.746153846154</v>
       </c>
       <c r="M6" t="n">
-        <v>1232.4</v>
+        <v>1158.630769230769</v>
       </c>
       <c r="N6" t="n">
-        <v>1141.4</v>
+        <v>1135.238855766055</v>
       </c>
     </row>
     <row r="7">
@@ -78583,10 +78583,10 @@
         <v>81.40000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>84.19999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>76.2</v>
@@ -78607,10 +78607,10 @@
         <v>44.2</v>
       </c>
       <c r="L7" t="n">
-        <v>87.8</v>
+        <v>31.4</v>
       </c>
       <c r="M7" t="n">
-        <v>92.60000000000001</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
         <v>98.99999999999999</v>
@@ -78624,10 +78624,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>205.1333333333334</v>
+        <v>150.6</v>
       </c>
       <c r="D8" t="n">
-        <v>135.9555555555555</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>111.6</v>
@@ -78636,22 +78636,22 @@
         <v>115</v>
       </c>
       <c r="G8" t="n">
-        <v>184.033059147001</v>
+        <v>145.9777777777778</v>
       </c>
       <c r="H8" t="n">
-        <v>163.6887060980007</v>
+        <v>138.3185185185185</v>
       </c>
       <c r="I8" t="n">
         <v>277.6</v>
       </c>
       <c r="J8" t="n">
-        <v>374.1398691828427</v>
+        <v>402.3333333333333</v>
       </c>
       <c r="K8" t="n">
-        <v>401.4932461218952</v>
+        <v>420.2888888888889</v>
       </c>
       <c r="L8" t="n">
-        <v>378.2000000000075</v>
+        <v>378.1999999999991</v>
       </c>
       <c r="M8" t="n">
         <v>458</v>
@@ -78716,40 +78716,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3446.200000000001</v>
+        <v>3219.400000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>3645.809041161628</v>
+        <v>3557.599999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>3662.140927557662</v>
+        <v>3391.130769230769</v>
       </c>
       <c r="F10" t="n">
-        <v>3627.423266744384</v>
+        <v>3451.638461538461</v>
       </c>
       <c r="G10" t="n">
-        <v>3300</v>
+        <v>3277.123076923077</v>
       </c>
       <c r="H10" t="n">
-        <v>3110.8</v>
+        <v>2994.515384615385</v>
       </c>
       <c r="I10" t="n">
-        <v>3046.961538461539</v>
+        <v>2856.675639402433</v>
       </c>
       <c r="J10" t="n">
-        <v>3244.003076923077</v>
+        <v>3187.73247755034</v>
       </c>
       <c r="K10" t="n">
-        <v>2756.196923076923</v>
+        <v>2768.8</v>
       </c>
       <c r="L10" t="n">
-        <v>2672.045248766799</v>
+        <v>2565.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2704.696832511199</v>
+        <v>2633.6</v>
       </c>
       <c r="N10" t="n">
-        <v>2979.8</v>
+        <v>2639.6</v>
       </c>
     </row>
     <row r="11">
@@ -78804,40 +78804,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>260.3857991613565</v>
+        <v>444.325672841545</v>
       </c>
       <c r="D12" t="n">
-        <v>164.4</v>
+        <v>290.0700119474315</v>
       </c>
       <c r="E12" t="n">
-        <v>49.25528136922327</v>
+        <v>337.3800079649543</v>
       </c>
       <c r="F12" t="n">
-        <v>250.9257431350377</v>
+        <v>420.2</v>
       </c>
       <c r="G12" t="n">
-        <v>346.1703703703704</v>
+        <v>368.2</v>
       </c>
       <c r="H12" t="n">
-        <v>266.6222222222222</v>
+        <v>378.6</v>
       </c>
       <c r="I12" t="n">
-        <v>152.7481481481481</v>
+        <v>459.6</v>
       </c>
       <c r="J12" t="n">
-        <v>472.4</v>
+        <v>651.2</v>
       </c>
       <c r="K12" t="n">
-        <v>718.8</v>
+        <v>734.8</v>
       </c>
       <c r="L12" t="n">
-        <v>301</v>
+        <v>303.1303676791399</v>
       </c>
       <c r="M12" t="n">
-        <v>355.4</v>
+        <v>356.8202451194266</v>
       </c>
       <c r="N12" t="n">
-        <v>313.5786987420348</v>
+        <v>589.4885092623174</v>
       </c>
     </row>
     <row r="13">
@@ -78896,40 +78896,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5338.66606328043</v>
+        <v>4955.864739801676</v>
       </c>
       <c r="D14" t="n">
-        <v>5331</v>
+        <v>5016.880397022333</v>
       </c>
       <c r="E14" t="n">
-        <v>5543.2</v>
+        <v>5269.964459049478</v>
       </c>
       <c r="F14" t="n">
-        <v>5469.2</v>
+        <v>5354.496886961451</v>
       </c>
       <c r="G14" t="n">
-        <v>5678.4</v>
+        <v>5494.284890548212</v>
       </c>
       <c r="H14" t="n">
-        <v>5754</v>
+        <v>5446.725392886684</v>
       </c>
       <c r="I14" t="n">
-        <v>6034.19363300548</v>
+        <v>5183.118858560794</v>
       </c>
       <c r="J14" t="n">
-        <v>6137.714850257629</v>
+        <v>5014.773482216708</v>
       </c>
       <c r="K14" t="n">
-        <v>4621.346063280429</v>
+        <v>4186.796162117453</v>
       </c>
       <c r="L14" t="n">
-        <v>5414.199094920645</v>
+        <v>4965.441935483872</v>
       </c>
       <c r="M14" t="n">
-        <v>6533.934388970305</v>
+        <v>5797.913482216708</v>
       </c>
       <c r="N14" t="n">
-        <v>6454.111312047228</v>
+        <v>5588.676348743045</v>
       </c>
     </row>
     <row r="15">
@@ -78984,40 +78984,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>635.4</v>
+        <v>613.9324807485241</v>
       </c>
       <c r="D16" t="n">
-        <v>725.4509802939538</v>
+        <v>456</v>
       </c>
       <c r="E16" t="n">
-        <v>848.8339868626359</v>
+        <v>364.906466753629</v>
       </c>
       <c r="F16" t="n">
-        <v>910.9999999999999</v>
+        <v>331.9376445024194</v>
       </c>
       <c r="G16" t="n">
-        <v>905.0000000000001</v>
+        <v>368</v>
       </c>
       <c r="H16" t="n">
-        <v>840.4000000000001</v>
+        <v>400.6033452807648</v>
       </c>
       <c r="I16" t="n">
-        <v>537.9904448071966</v>
+        <v>462.5577857427321</v>
       </c>
       <c r="J16" t="n">
-        <v>383.8158520936871</v>
+        <v>439.734814814815</v>
       </c>
       <c r="K16" t="n">
-        <v>561.9703703703706</v>
+        <v>558.9985185185186</v>
       </c>
       <c r="L16" t="n">
-        <v>537.2</v>
+        <v>381.2</v>
       </c>
       <c r="M16" t="n">
-        <v>474.8</v>
+        <v>219.6</v>
       </c>
       <c r="N16" t="n">
-        <v>483.8</v>
+        <v>350.7987211227862</v>
       </c>
     </row>
     <row r="17">
@@ -79079,7 +79079,7 @@
         <v>230</v>
       </c>
       <c r="D18" t="n">
-        <v>196.1999999999955</v>
+        <v>196.2000000000006</v>
       </c>
       <c r="E18" t="n">
         <v>342.2</v>
@@ -79164,25 +79164,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>58.6</v>
+        <v>55.4</v>
       </c>
       <c r="D20" t="n">
-        <v>53.2</v>
+        <v>35.2</v>
       </c>
       <c r="E20" t="n">
-        <v>47.6</v>
+        <v>33.48888888888889</v>
       </c>
       <c r="F20" t="n">
-        <v>51.6</v>
+        <v>37.41166944708711</v>
       </c>
       <c r="G20" t="n">
-        <v>59.19999999999999</v>
+        <v>32.07938456966301</v>
       </c>
       <c r="H20" t="n">
-        <v>69.60000000000001</v>
+        <v>24.08888888888889</v>
       </c>
       <c r="I20" t="n">
-        <v>64.59999999999999</v>
+        <v>42.52592592592593</v>
       </c>
       <c r="J20" t="n">
         <v>65.40000000000001</v>
@@ -79191,13 +79191,13 @@
         <v>68.59999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>65.8</v>
+        <v>63.99999999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>88.39999999999999</v>
+        <v>69.13333333333333</v>
       </c>
       <c r="N20" t="n">
-        <v>85.40000000000001</v>
+        <v>68.55555555555556</v>
       </c>
     </row>
     <row r="21">
@@ -79330,13 +79330,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64.82603608478915</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>191.7881513258779</v>
+        <v>604.1588709677432</v>
       </c>
       <c r="E2" t="n">
-        <v>21.30979459176422</v>
+        <v>67.12876344086035</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -79357,13 +79357,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>685.693548387096</v>
+        <v>266.8199727512917</v>
       </c>
       <c r="M2" t="n">
-        <v>759.2231136172012</v>
+        <v>97.21238145501611</v>
       </c>
       <c r="N2" t="n">
-        <v>659.3270960491234</v>
+        <v>7.507301979553745</v>
       </c>
     </row>
     <row r="3">
@@ -79534,10 +79534,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>618.4537719486071</v>
+        <v>667.2859801488837</v>
       </c>
       <c r="L6" t="n">
-        <v>68.71708577206746</v>
+        <v>74.14288668320931</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -79563,13 +79563,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>85.02313655419795</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9.44701517268866</v>
+        <v>153.1336404546973</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>17.01484893941081</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -79581,10 +79581,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>141.7768634458021</v>
+        <v>188.8663595453028</v>
       </c>
       <c r="M7" t="n">
-        <v>15.75298482731134</v>
+        <v>20.9851510605892</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -79598,40 +79598,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.276752062742889</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>67.15334074896691</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>7.461482305440768</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>891.7009489139075</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>143.1036009654154</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.891746416973226</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>662.8310187847335</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>391.0584791524537</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>372.8278431307072</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>48.99743523135258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -79642,40 +79642,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.206666666666667</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>32.166</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.574</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.168</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>35.564</v>
+        <v>198.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.468</v>
+        <v>22.1</v>
       </c>
       <c r="I9" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>28.314</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.286</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>17.6</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>30.65333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -79778,25 +79778,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>565.0408236657967</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>62.78231374064408</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>512.1282061673166</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>56.90313401859075</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>464.8133333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>51.64592592592592</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -79914,34 +79914,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>745.6231365541977</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>82.84701517268864</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>15.80000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>31.25686344580233</v>
+        <v>2.875555555555579</v>
       </c>
       <c r="G15" t="n">
-        <v>3.47298482731137</v>
+        <v>0.1244444444444475</v>
       </c>
       <c r="H15" t="n">
-        <v>134.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>241.02</v>
+        <v>380.6674304783094</v>
       </c>
       <c r="L15" t="n">
-        <v>26.78000000000001</v>
+        <v>42.29638116425659</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -79982,10 +79982,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>329.4193919939306</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.60215466599229</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -80002,34 +80002,34 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>71.45999999999999</v>
+        <v>84.60000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>7.94</v>
+        <v>9.4</v>
       </c>
       <c r="E17" t="n">
-        <v>132.948</v>
+        <v>70.63999999999982</v>
       </c>
       <c r="F17" t="n">
-        <v>86.304</v>
+        <v>33.40888888888887</v>
       </c>
       <c r="G17" t="n">
-        <v>7.948000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="H17" t="n">
-        <v>74.44800000000001</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.271999999999991</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17.28</v>
+        <v>53.2</v>
       </c>
       <c r="K17" t="n">
-        <v>79.75200000000001</v>
+        <v>217.4111111111112</v>
       </c>
       <c r="L17" t="n">
-        <v>8.648000000000003</v>
+        <v>23.50000000000001</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -80050,40 +80050,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>853.2299999999998</v>
+        <v>33.02284052142587</v>
       </c>
       <c r="D18" t="n">
-        <v>439.4507647066551</v>
+        <v>180.3452716272669</v>
       </c>
       <c r="E18" t="n">
-        <v>41.4175289546032</v>
+        <v>498.5604356615756</v>
       </c>
       <c r="F18" t="n">
-        <v>924.5525754071035</v>
+        <v>653.6306704445126</v>
       </c>
       <c r="G18" t="n">
-        <v>466.3486098398307</v>
+        <v>969.7037561062278</v>
       </c>
       <c r="H18" t="n">
-        <v>1101.6</v>
+        <v>1068.484609815781</v>
       </c>
       <c r="I18" t="n">
-        <v>1403.613393438103</v>
+        <v>107.5725392886684</v>
       </c>
       <c r="J18" t="n">
-        <v>142.8558373311274</v>
+        <v>1029.054491315137</v>
       </c>
       <c r="K18" t="n">
-        <v>1542.367873150197</v>
+        <v>114.3393879239041</v>
       </c>
       <c r="L18" t="n">
-        <v>171.3742081277998</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.8</v>
+        <v>1807.056416179054</v>
       </c>
       <c r="N18" t="n">
-        <v>2406.47</v>
+        <v>497.98961093495</v>
       </c>
     </row>
     <row r="19">
@@ -80094,34 +80094,34 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>530.1</v>
+        <v>1213.386098741683</v>
       </c>
       <c r="D19" t="n">
-        <v>58.90000000000001</v>
+        <v>134.8206776379648</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>548.6506849412938</v>
+        <v>118.0799999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>789.2047356027954</v>
+        <v>13.11999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>495.6288315412179</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>46.07920908004803</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>252.3928849511805</v>
+        <v>1007.533255597026</v>
       </c>
       <c r="L19" t="n">
-        <v>28.0436538834645</v>
+        <v>111.9481395107807</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -80182,34 +80182,34 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.340000000000002</v>
+        <v>7.091111111111111</v>
       </c>
       <c r="D21" t="n">
-        <v>24.80666666666666</v>
+        <v>54.09679012345697</v>
       </c>
       <c r="E21" t="n">
-        <v>7.63933333333331</v>
+        <v>5.923209876543229</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5540000000000251</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>29.74444444444444</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.255555555555556</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>9.98</v>
       </c>
       <c r="K21" t="n">
-        <v>20.394</v>
+        <v>21.62888888888889</v>
       </c>
       <c r="L21" t="n">
-        <v>2.266</v>
+        <v>2.28</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
